--- a/FBsaved.xlsx
+++ b/FBsaved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1D\To_Mdata\data\XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD894A29-CCAD-4916-A0D6-A49C2CC70355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66C4EF1-F4D9-4866-BE73-0CC5C7BAE9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="1500" windowWidth="19485" windowHeight="10320" xr2:uid="{C59F1626-6BED-422B-98F5-448D3B0E883F}"/>
+    <workbookView xWindow="1440" yWindow="11700" windowWidth="21660" windowHeight="10875" xr2:uid="{C59F1626-6BED-422B-98F5-448D3B0E883F}"/>
   </bookViews>
   <sheets>
     <sheet name="SvPosts" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">JbPrv1!$A$3:$E$161</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SvPosts!$B$3:$K$281</definedName>
-    <definedName name="_Hlk101164443" localSheetId="0">SvPosts!$B$239</definedName>
-    <definedName name="_Hlk101167912" localSheetId="0">SvPosts!$B$231</definedName>
-    <definedName name="_Hlk103024672" localSheetId="0">SvPosts!$B$233</definedName>
-    <definedName name="_Hlk103452348" localSheetId="0">SvPosts!$E$200</definedName>
-    <definedName name="_Hlk103452818" localSheetId="0">SvPosts!$E$201</definedName>
-    <definedName name="Allsaved.D">SvPosts!$B$3:$K$281</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SvPosts!$B$3:$K$282</definedName>
+    <definedName name="_Hlk101164443" localSheetId="0">SvPosts!$B$240</definedName>
+    <definedName name="_Hlk101167912" localSheetId="0">SvPosts!$B$232</definedName>
+    <definedName name="_Hlk103024672" localSheetId="0">SvPosts!$B$234</definedName>
+    <definedName name="_Hlk103452348" localSheetId="0">SvPosts!$E$201</definedName>
+    <definedName name="_Hlk103452818" localSheetId="0">SvPosts!$E$202</definedName>
+    <definedName name="Allsaved.D">SvPosts!$B$3:$K$282</definedName>
     <definedName name="Aviva_Sudai_Hagai">CellNms!$B$22</definedName>
     <definedName name="David_Bistry">CellNms!$B$42</definedName>
     <definedName name="David_Cohen">CellNms!$B$8</definedName>
@@ -44,7 +44,7 @@
     <definedName name="Rami_Shabbat">CellNms!$B$13</definedName>
     <definedName name="Sami_Solomon">CellNms!$B$17</definedName>
     <definedName name="Sasson_Kashi">CellNms!$B$23</definedName>
-    <definedName name="saved.D">SvPosts!$B$3:$I$281</definedName>
+    <definedName name="saved.D">SvPosts!$B$3:$I$282</definedName>
     <definedName name="Shay_Hugi">CellNms!$B$14</definedName>
     <definedName name="Shlomo_Bar_Nissim">CellNms!$B$18</definedName>
     <definedName name="Shlomo_Raviv">CellNms!$B$2</definedName>
@@ -172,7 +172,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{8A185DF9-CF45-4748-BA04-8758C73A4B51}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{CEA58922-53D9-4DDB-9005-60A35A7E01B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>a004179:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+(עמ'211 גילה)  
+מאשי (אל)חאל!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{8A185DF9-CF45-4748-BA04-8758C73A4B51}">
       <text>
         <r>
           <rPr>
@@ -196,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{BA0A958A-AB18-4AA1-B9D3-1F0C3AC0F808}">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{BA0A958A-AB18-4AA1-B9D3-1F0C3AC0F808}">
       <text>
         <r>
           <rPr>
@@ -218,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{E18FA95C-F76B-4426-8A4D-3D91E1DAC076}">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{E18FA95C-F76B-4426-8A4D-3D91E1DAC076}">
       <text>
         <r>
           <rPr>
@@ -241,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{A433B9FD-E92E-464A-A73A-14CC10A06DB2}">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{A433B9FD-E92E-464A-A73A-14CC10A06DB2}">
       <text>
         <r>
           <rPr>
@@ -266,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{A611D454-42A5-4AE0-9BDE-10921C70B35E}">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{A611D454-42A5-4AE0-9BDE-10921C70B35E}">
       <text>
         <r>
           <rPr>
@@ -291,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{60A3CDD6-3DB9-437A-BD49-CEFB0DA11C75}">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{60A3CDD6-3DB9-437A-BD49-CEFB0DA11C75}">
       <text>
         <r>
           <rPr>
@@ -314,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{1911B2D2-13B0-48BD-B11C-00374A4824CA}">
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{1911B2D2-13B0-48BD-B11C-00374A4824CA}">
       <text>
         <r>
           <rPr>
@@ -339,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{CF55D1BA-19E8-4A63-837A-3ED8252D4559}">
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{CF55D1BA-19E8-4A63-837A-3ED8252D4559}">
       <text>
         <r>
           <rPr>
@@ -361,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{2C5D2A72-2D91-4F87-A19F-A44284C92D05}">
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{2C5D2A72-2D91-4F87-A19F-A44284C92D05}">
       <text>
         <r>
           <rPr>
@@ -383,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{CEB6A797-17A2-470B-9640-6664FB0A4C4D}">
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{CEB6A797-17A2-470B-9640-6664FB0A4C4D}">
       <text>
         <r>
           <rPr>
@@ -405,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{2FF24D9A-E0BE-4AEC-BC44-1F68FA3FE288}">
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{2FF24D9A-E0BE-4AEC-BC44-1F68FA3FE288}">
       <text>
         <r>
           <rPr>
@@ -427,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{A6857A48-5962-468C-8442-798F059CF2CA}">
+    <comment ref="E43" authorId="0" shapeId="0" xr:uid="{A6857A48-5962-468C-8442-798F059CF2CA}">
       <text>
         <r>
           <rPr>
@@ -449,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{68ECCCBE-3659-49E9-A10E-A121969E8694}">
+    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{68ECCCBE-3659-49E9-A10E-A121969E8694}">
       <text>
         <r>
           <rPr>
@@ -475,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{FC81A2F6-590C-45BD-9B7B-1C3224039891}">
+    <comment ref="E49" authorId="0" shapeId="0" xr:uid="{FC81A2F6-590C-45BD-9B7B-1C3224039891}">
       <text>
         <r>
           <rPr>
@@ -498,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E99" authorId="0" shapeId="0" xr:uid="{50CBE3B3-D089-4A8B-96EA-AE6CEEA0CADC}">
+    <comment ref="E100" authorId="0" shapeId="0" xr:uid="{50CBE3B3-D089-4A8B-96EA-AE6CEEA0CADC}">
       <text>
         <r>
           <rPr>
@@ -521,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B107" authorId="0" shapeId="0" xr:uid="{E55F526D-0BCA-48F2-A582-93DA45374159}">
+    <comment ref="B108" authorId="0" shapeId="0" xr:uid="{E55F526D-0BCA-48F2-A582-93DA45374159}">
       <text>
         <r>
           <rPr>
@@ -543,7 +566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E174" authorId="0" shapeId="0" xr:uid="{B48DDA02-4E4B-4B69-9CAF-29BA4D888D53}">
+    <comment ref="E175" authorId="0" shapeId="0" xr:uid="{B48DDA02-4E4B-4B69-9CAF-29BA4D888D53}">
       <text>
         <r>
           <rPr>
@@ -566,7 +589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E262" authorId="0" shapeId="0" xr:uid="{9C4E5A3B-05A6-4E8D-9B7B-C31AD0B1B55D}">
+    <comment ref="E263" authorId="0" shapeId="0" xr:uid="{9C4E5A3B-05A6-4E8D-9B7B-C31AD0B1B55D}">
       <text>
         <r>
           <rPr>
@@ -594,7 +617,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="835">
   <si>
     <t>שירלי תקווה אוסי</t>
   </si>
@@ -3109,6 +3132,9 @@
   </si>
   <si>
     <t>אקוא ואצעב לא יע'וי</t>
+  </si>
+  <si>
+    <t>מִשִׁיהָה !</t>
   </si>
 </sst>
 </file>
@@ -3622,6 +3648,12 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -3633,12 +3665,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3955,10 +3981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B30564E-B19A-4E2C-BCD3-6AF081956B47}">
-  <dimension ref="A1:K281"/>
+  <dimension ref="A1:K282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D290" sqref="D290"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3973,11 +3999,11 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="E1" s="12">
-        <f>SUBTOTAL(3,E3:E281)</f>
-        <v>273</v>
+        <f>SUBTOTAL(3,E3:E282)</f>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3991,7 +4017,7 @@
       <c r="D3" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="61" t="s">
         <v>191</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -4015,92 +4041,88 @@
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
-        <v>45854</v>
+        <v>45858</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="17" t="str">
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>834</v>
+      </c>
+      <c r="F4" s="19">
+        <v>45479</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <v>2</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1</v>
+      </c>
+      <c r="J4" s="58"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13">
+        <v>45854</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="17" t="str">
         <f>Itzik_Ovadia</f>
         <v>Itzik Ovadia</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E5" s="62" t="s">
         <v>833</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F5" s="19">
         <v>42249</v>
       </c>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10">
         <v>2</v>
       </c>
-      <c r="I4" s="10">
-        <v>1</v>
-      </c>
-      <c r="J4" s="58" t="s">
+      <c r="I5" s="10">
+        <v>3</v>
+      </c>
+      <c r="J5" s="58" t="s">
         <v>832</v>
       </c>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13">
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13">
         <v>45853</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="17" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="17" t="str">
         <f>David_Cohen</f>
         <v>David Cohen</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E6" s="55" t="s">
         <v>831</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F6" s="19">
         <v>44967</v>
       </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
         <v>2</v>
       </c>
-      <c r="I5" s="10">
-        <v>2</v>
-      </c>
-      <c r="J5" s="58" t="s">
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="58" t="s">
         <v>830</v>
       </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13">
-        <v>45852</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="17" t="str">
-        <f>Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>827</v>
-      </c>
-      <c r="F6" s="19">
-        <v>42915</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10">
-        <v>2</v>
-      </c>
-      <c r="J6" s="58">
-        <v>79</v>
-      </c>
-      <c r="K6" s="10">
-        <v>164</v>
-      </c>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
@@ -4108,14 +4130,14 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="17" t="str">
-        <f>כרמלה_שדה</f>
-        <v>כרמלה שדה</v>
+        <f>Itzik_Ovadia</f>
+        <v>Itzik Ovadia</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F7" s="19">
-        <v>44084</v>
+        <v>42915</v>
       </c>
       <c r="G7" s="10">
         <v>1</v>
@@ -4126,11 +4148,11 @@
       <c r="I7" s="10">
         <v>2</v>
       </c>
-      <c r="J7" s="10">
-        <v>69</v>
+      <c r="J7" s="58">
+        <v>79</v>
       </c>
       <c r="K7" s="10">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4139,120 +4161,120 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="17" t="str">
+        <f>כרמלה_שדה</f>
+        <v>כרמלה שדה</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>826</v>
+      </c>
+      <c r="F8" s="19">
+        <v>44084</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10">
+        <v>69</v>
+      </c>
+      <c r="K8" s="10">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13">
+        <v>45852</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="17" t="str">
         <f>Gila_Yona</f>
         <v>Gila Yona</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E9" s="62" t="s">
         <v>824</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F9" s="19">
         <v>45572</v>
       </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10">
-        <v>1</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10">
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>3</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13">
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13">
         <v>45852</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="17" t="str">
+      <c r="C10" s="1"/>
+      <c r="D10" s="17" t="str">
         <f>אורי_שאשא</f>
         <v>אורי שאשא</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E10" s="55" t="s">
         <v>829</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F10" s="19">
         <v>43736</v>
       </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
         <v>2</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I10" s="10">
         <v>2</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>821</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K10" s="10">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13">
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13">
         <v>45852</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="17" t="str">
+      <c r="C11" s="1"/>
+      <c r="D11" s="17" t="str">
         <f>Itzik_Ovadia</f>
         <v>Itzik Ovadia</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E11" s="55" t="s">
         <v>820</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F11" s="19">
         <v>43031</v>
       </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10">
-        <v>2</v>
-      </c>
-      <c r="J10" s="10">
-        <v>219</v>
-      </c>
-      <c r="K10" s="10">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13">
-        <v>45851</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="17" t="str">
-        <f>Rami_Shabbat</f>
-        <v>Rami Shabbat</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>819</v>
-      </c>
-      <c r="F11" s="19">
-        <v>43849</v>
-      </c>
       <c r="G11" s="10">
         <v>1</v>
       </c>
       <c r="H11" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="10">
         <v>2</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>818</v>
+      <c r="J11" s="10">
+        <v>219</v>
       </c>
       <c r="K11" s="10">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4261,14 +4283,14 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="17" t="str">
-        <f>אברהם_רחמים</f>
-        <v>אברהם רחמים</v>
+        <f>Rami_Shabbat</f>
+        <v>Rami Shabbat</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="F12" s="19">
-        <v>42082</v>
+        <v>43849</v>
       </c>
       <c r="G12" s="10">
         <v>1</v>
@@ -4280,10 +4302,10 @@
         <v>2</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="K12" s="10">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4292,14 +4314,14 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="17" t="str">
-        <f>שירלי_תקווה_אוסי</f>
-        <v>שירלי תקווה אוסי</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>812</v>
+        <f>אברהם_רחמים</f>
+        <v>אברהם רחמים</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>815</v>
       </c>
       <c r="F13" s="19">
-        <v>43274</v>
+        <v>42082</v>
       </c>
       <c r="G13" s="10">
         <v>1</v>
@@ -4308,13 +4330,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="K13" s="10">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4323,14 +4345,14 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="17" t="str">
-        <f>Uri_Shlomo</f>
-        <v>Uri Shlomo</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>810</v>
+        <f>שירלי_תקווה_אוסי</f>
+        <v>שירלי תקווה אוסי</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>812</v>
       </c>
       <c r="F14" s="19">
-        <v>42757</v>
+        <v>43274</v>
       </c>
       <c r="G14" s="10">
         <v>1</v>
@@ -4339,13 +4361,13 @@
         <v>2</v>
       </c>
       <c r="I14" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="K14" s="10">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4354,14 +4376,14 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="17" t="str">
-        <f>Gila_Yona</f>
-        <v>Gila Yona</v>
+        <f>Uri_Shlomo</f>
+        <v>Uri Shlomo</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="F15" s="19">
-        <v>45474</v>
+        <v>42757</v>
       </c>
       <c r="G15" s="10">
         <v>1</v>
@@ -4373,10 +4395,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="K15" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4385,14 +4407,14 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="17" t="str">
-        <f>David_Haim</f>
-        <v>David Haim</v>
+        <f>Gila_Yona</f>
+        <v>Gila Yona</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F16" s="19">
-        <v>45533</v>
+        <v>45474</v>
       </c>
       <c r="G16" s="10">
         <v>1</v>
@@ -4404,10 +4426,10 @@
         <v>2</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>816</v>
+        <v>808</v>
+      </c>
+      <c r="K16" s="10">
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4416,14 +4438,14 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="17" t="str">
-        <f>אדוארד_אליעזר</f>
-        <v>אדוארד אליעזר</v>
+        <f>David_Haim</f>
+        <v>David Haim</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="F17" s="19">
-        <v>45303</v>
+        <v>45533</v>
       </c>
       <c r="G17" s="10">
         <v>1</v>
@@ -4435,10 +4457,10 @@
         <v>2</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>803</v>
-      </c>
-      <c r="K17" s="10">
-        <v>118</v>
+        <v>805</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4447,14 +4469,14 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="17" t="str">
-        <f>David_Dalal</f>
-        <v>David Dalal</v>
+        <f>אדוארד_אליעזר</f>
+        <v>אדוארד אליעזר</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="F18" s="19">
-        <v>42339</v>
+        <v>45303</v>
       </c>
       <c r="G18" s="10">
         <v>1</v>
@@ -4466,10 +4488,10 @@
         <v>2</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K18" s="10">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4478,59 +4500,59 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="17" t="str">
+        <f>David_Dalal</f>
+        <v>David Dalal</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>800</v>
+      </c>
+      <c r="F19" s="19">
+        <v>42339</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2</v>
+      </c>
+      <c r="I19" s="10">
+        <v>2</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="K19" s="10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13">
+        <v>45851</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="17" t="str">
         <f>Itzik_Ovadia</f>
         <v>Itzik Ovadia</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E20" s="62" t="s">
         <v>796</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F20" s="19">
         <v>45851</v>
       </c>
-      <c r="G19" s="10">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10">
-        <v>1</v>
-      </c>
-      <c r="I19" s="10">
-        <v>1</v>
-      </c>
-      <c r="J19" s="10" t="s">
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10">
+        <v>3</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13">
-        <v>45850</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="17" t="str">
-        <f>David_Cohen</f>
-        <v>David Cohen</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>795</v>
-      </c>
-      <c r="F20" s="19">
-        <v>44531</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10">
-        <v>1</v>
-      </c>
-      <c r="I20" s="10">
-        <v>2</v>
-      </c>
-      <c r="J20" s="10">
-        <v>354</v>
-      </c>
-      <c r="K20" s="10">
-        <v>99</v>
-      </c>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13">
@@ -4542,23 +4564,25 @@
         <v>David Cohen</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F21" s="19">
-        <v>44660</v>
+        <v>44531</v>
       </c>
       <c r="G21" s="10">
         <v>1</v>
       </c>
       <c r="H21" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="10">
         <v>2</v>
       </c>
-      <c r="J21" s="10"/>
+      <c r="J21" s="10">
+        <v>354</v>
+      </c>
       <c r="K21" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4567,29 +4591,27 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="17" t="str">
-        <f>Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
+        <f>David_Cohen</f>
+        <v>David Cohen</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F22" s="19">
-        <v>45802</v>
+        <v>44660</v>
       </c>
       <c r="G22" s="10">
         <v>1</v>
       </c>
       <c r="H22" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="10">
         <v>2</v>
       </c>
-      <c r="J22" s="10">
-        <v>295</v>
-      </c>
+      <c r="J22" s="10"/>
       <c r="K22" s="10">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4602,10 +4624,10 @@
         <v>Itzik Ovadia</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F23" s="19">
-        <v>44383</v>
+        <v>45802</v>
       </c>
       <c r="G23" s="10">
         <v>1</v>
@@ -4616,9 +4638,11 @@
       <c r="I23" s="10">
         <v>2</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10" t="s">
-        <v>823</v>
+      <c r="J23" s="10">
+        <v>295</v>
+      </c>
+      <c r="K23" s="10">
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4627,14 +4651,14 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="17" t="str">
-        <f>Mordechai_Cohen</f>
-        <v>Mordechai Cohen</v>
+        <f>Itzik_Ovadia</f>
+        <v>Itzik Ovadia</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F24" s="19">
-        <v>43645</v>
+        <v>44383</v>
       </c>
       <c r="G24" s="10">
         <v>1</v>
@@ -4645,11 +4669,9 @@
       <c r="I24" s="10">
         <v>2</v>
       </c>
-      <c r="J24" s="10">
-        <v>424</v>
-      </c>
-      <c r="K24" s="10">
-        <v>81</v>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4658,14 +4680,14 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
+        <f>Mordechai_Cohen</f>
+        <v>Mordechai Cohen</v>
       </c>
       <c r="E25" s="55" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F25" s="19">
-        <v>45673</v>
+        <v>43645</v>
       </c>
       <c r="G25" s="10">
         <v>1</v>
@@ -4677,10 +4699,10 @@
         <v>2</v>
       </c>
       <c r="J25" s="10">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="K25" s="10">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4689,14 +4711,14 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="17" t="str">
-        <f>Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
       </c>
       <c r="E26" s="55" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F26" s="19">
-        <v>43318</v>
+        <v>45673</v>
       </c>
       <c r="G26" s="10">
         <v>1</v>
@@ -4705,10 +4727,14 @@
         <v>1</v>
       </c>
       <c r="I26" s="10">
-        <v>2</v>
-      </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="10">
+        <v>394</v>
+      </c>
+      <c r="K26" s="10">
+        <v>77</v>
+      </c>
     </row>
     <row r="27" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13">
@@ -4716,14 +4742,14 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="17" t="str">
-        <f>שירלי_תקווה_אוסי</f>
-        <v>שירלי תקווה אוסי</v>
+        <f>Itzik_Ovadia</f>
+        <v>Itzik Ovadia</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F27" s="19">
-        <v>43854</v>
+        <v>43318</v>
       </c>
       <c r="G27" s="10">
         <v>1</v>
@@ -4732,14 +4758,10 @@
         <v>1</v>
       </c>
       <c r="I27" s="10">
-        <v>2</v>
-      </c>
-      <c r="J27" s="10">
-        <v>645</v>
-      </c>
-      <c r="K27" s="10">
-        <v>44</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13">
@@ -4747,14 +4769,14 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="17" t="str">
-        <f>David_Cohen</f>
-        <v>David Cohen</v>
+        <f>שירלי_תקווה_אוסי</f>
+        <v>שירלי תקווה אוסי</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F28" s="19">
-        <v>44629</v>
+        <v>43854</v>
       </c>
       <c r="G28" s="10">
         <v>1</v>
@@ -4766,10 +4788,10 @@
         <v>2</v>
       </c>
       <c r="J28" s="10">
-        <v>236</v>
+        <v>645</v>
       </c>
       <c r="K28" s="10">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4778,119 +4800,123 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="17" t="str">
+        <f>David_Cohen</f>
+        <v>David Cohen</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>786</v>
+      </c>
+      <c r="F29" s="19">
+        <v>44629</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1</v>
+      </c>
+      <c r="I29" s="10">
+        <v>2</v>
+      </c>
+      <c r="J29" s="10">
+        <v>236</v>
+      </c>
+      <c r="K29" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="13">
+        <v>45850</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="17" t="str">
         <f>Shlomo_Raviv</f>
         <v>Shlomo Raviv</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E30" s="55" t="s">
         <v>785</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F30" s="19">
         <v>44518</v>
       </c>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="10">
-        <v>1</v>
-      </c>
-      <c r="I29" s="10">
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10">
         <v>2</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J30" s="10">
         <v>221</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K30" s="10">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="13">
+    <row r="31" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="13">
         <v>45848</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="17" t="str">
+      <c r="C31" s="1"/>
+      <c r="D31" s="17" t="str">
         <f>Sasson_Kashi</f>
         <v>Sasson Kashi</v>
       </c>
-      <c r="E30" s="56" t="s">
+      <c r="E31" s="56" t="s">
         <v>784</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F31" s="19">
         <v>44050</v>
       </c>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="H30" s="10">
+      <c r="G31" s="10">
+        <v>1</v>
+      </c>
+      <c r="H31" s="10">
         <v>2</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I31" s="10">
         <v>2</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J31" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K31" s="10">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="13">
+    <row r="32" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="13">
         <v>45846</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="17" t="str">
+      <c r="C32" s="1"/>
+      <c r="D32" s="17" t="str">
         <f>Sami_Solomon</f>
         <v>Sami Solomon</v>
       </c>
-      <c r="E31" s="56" t="s">
+      <c r="E32" s="56" t="s">
         <v>781</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F32" s="19">
         <v>44202</v>
       </c>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-      <c r="H31" s="10">
-        <v>1</v>
-      </c>
-      <c r="I31" s="10">
-        <v>2</v>
-      </c>
-      <c r="J31" s="10">
-        <v>675</v>
-      </c>
-      <c r="K31" s="10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="13">
-        <v>45846</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="17" t="str">
-        <f>Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
-      </c>
-      <c r="E32" s="56" t="s">
-        <v>777</v>
-      </c>
-      <c r="F32" s="19">
-        <v>45051</v>
-      </c>
       <c r="G32" s="10">
         <v>1</v>
       </c>
       <c r="H32" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="10">
         <v>2</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="J32" s="10">
+        <v>675</v>
+      </c>
+      <c r="K32" s="10">
+        <v>35</v>
+      </c>
     </row>
     <row r="33" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13">
@@ -4902,72 +4928,68 @@
         <v>Itzik Ovadia</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F33" s="19">
-        <v>44823</v>
+        <v>45051</v>
       </c>
       <c r="G33" s="10">
         <v>1</v>
       </c>
       <c r="H33" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="10">
-        <v>2</v>
-      </c>
-      <c r="J33" s="10">
-        <v>34</v>
-      </c>
-      <c r="K33" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13">
         <v>45846</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="17" t="str">
+        <f>Itzik_Ovadia</f>
+        <v>Itzik Ovadia</v>
+      </c>
+      <c r="E34" s="56" t="s">
+        <v>776</v>
+      </c>
+      <c r="F34" s="19">
+        <v>44823</v>
+      </c>
+      <c r="G34" s="10">
+        <v>1</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1</v>
+      </c>
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
+      <c r="J34" s="10">
+        <v>34</v>
+      </c>
+      <c r="K34" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="13">
+        <v>45846</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="17" t="str">
         <f>Gila_Yona</f>
         <v>Gila Yona</v>
       </c>
-      <c r="E34" s="56" t="s">
+      <c r="E35" s="56" t="s">
         <v>775</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F35" s="19">
         <v>43983</v>
-      </c>
-      <c r="G34" s="10">
-        <v>1</v>
-      </c>
-      <c r="H34" s="10">
-        <v>1</v>
-      </c>
-      <c r="I34" s="10">
-        <v>2</v>
-      </c>
-      <c r="J34" s="10">
-        <v>35</v>
-      </c>
-      <c r="K34" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="13">
-        <v>45846</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="17" t="str">
-        <f>Aviva_Sudai_Hagai</f>
-        <v>Aviva Sudai Hagai</v>
-      </c>
-      <c r="E35" s="56" t="s">
-        <v>774</v>
-      </c>
-      <c r="F35" s="19">
-        <v>44755</v>
       </c>
       <c r="G35" s="10">
         <v>1</v>
@@ -4978,9 +5000,11 @@
       <c r="I35" s="10">
         <v>2</v>
       </c>
-      <c r="J35" s="10"/>
+      <c r="J35" s="10">
+        <v>35</v>
+      </c>
       <c r="K35" s="10">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4989,14 +5013,14 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="17" t="str">
-        <f>ליאור_יצחק</f>
-        <v>ליאור יצחק</v>
+        <f>Aviva_Sudai_Hagai</f>
+        <v>Aviva Sudai Hagai</v>
       </c>
       <c r="E36" s="56" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="F36" s="19">
-        <v>44084</v>
+        <v>44755</v>
       </c>
       <c r="G36" s="10">
         <v>1</v>
@@ -5008,7 +5032,9 @@
         <v>2</v>
       </c>
       <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
+      <c r="K36" s="10">
+        <v>14</v>
+      </c>
     </row>
     <row r="37" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13">
@@ -5016,28 +5042,26 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="17" t="str">
-        <f>Menash_Cohen</f>
-        <v>Menash Cohen</v>
+        <f>ליאור_יצחק</f>
+        <v>ליאור יצחק</v>
       </c>
       <c r="E37" s="56" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="F37" s="19">
-        <v>45767</v>
+        <v>44084</v>
       </c>
       <c r="G37" s="10">
         <v>1</v>
       </c>
       <c r="H37" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" s="10"/>
-      <c r="K37" s="10">
-        <v>11</v>
-      </c>
+      <c r="K37" s="10"/>
     </row>
     <row r="38" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13">
@@ -5045,14 +5069,14 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="17" t="str">
-        <f>David_Cohen</f>
-        <v>David Cohen</v>
+        <f>Menash_Cohen</f>
+        <v>Menash Cohen</v>
       </c>
       <c r="E38" s="56" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F38" s="19">
-        <v>45562</v>
+        <v>45767</v>
       </c>
       <c r="G38" s="10">
         <v>1</v>
@@ -5065,7 +5089,7 @@
       </c>
       <c r="J38" s="10"/>
       <c r="K38" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5074,29 +5098,27 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
+        <f>David_Cohen</f>
+        <v>David Cohen</v>
       </c>
       <c r="E39" s="56" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F39" s="19">
-        <v>44337</v>
+        <v>45562</v>
       </c>
       <c r="G39" s="10">
         <v>1</v>
       </c>
       <c r="H39" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" s="10">
-        <v>2</v>
-      </c>
-      <c r="J39" s="10">
-        <v>414</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J39" s="10"/>
       <c r="K39" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5105,14 +5127,14 @@
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="17" t="str">
-        <f>דרורה_אשר</f>
-        <v>דרורה אשר</v>
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
       </c>
       <c r="E40" s="56" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F40" s="19">
-        <v>44301</v>
+        <v>44337</v>
       </c>
       <c r="G40" s="10">
         <v>1</v>
@@ -5124,10 +5146,10 @@
         <v>2</v>
       </c>
       <c r="J40" s="10">
-        <v>131</v>
+        <v>414</v>
       </c>
       <c r="K40" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5136,66 +5158,72 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="17" t="str">
+        <f>דרורה_אשר</f>
+        <v>דרורה אשר</v>
+      </c>
+      <c r="E41" s="56" t="s">
+        <v>769</v>
+      </c>
+      <c r="F41" s="19">
+        <v>44301</v>
+      </c>
+      <c r="G41" s="10">
+        <v>1</v>
+      </c>
+      <c r="H41" s="10">
+        <v>1</v>
+      </c>
+      <c r="I41" s="10">
+        <v>2</v>
+      </c>
+      <c r="J41" s="10">
+        <v>131</v>
+      </c>
+      <c r="K41" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="13">
+        <v>45846</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="17" t="str">
         <f>David_Cohen</f>
         <v>David Cohen</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="E42" s="56" t="s">
         <v>768</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F42" s="19">
         <v>44887</v>
       </c>
-      <c r="G41" s="10">
-        <v>1</v>
-      </c>
-      <c r="H41" s="10">
-        <v>1</v>
-      </c>
-      <c r="I41" s="10">
-        <v>2</v>
-      </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="13">
-        <v>45845</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="17" t="str">
-        <f t="shared" ref="D42:D44" si="0">Uri_Zamir</f>
-        <v>Uri Zamir</v>
-      </c>
-      <c r="E42" s="56" t="s">
-        <v>780</v>
-      </c>
-      <c r="F42" s="19">
-        <v>45845</v>
-      </c>
       <c r="G42" s="10">
         <v>1</v>
       </c>
       <c r="H42" s="10">
         <v>1</v>
       </c>
-      <c r="I42" s="10"/>
+      <c r="I42" s="10">
+        <v>1</v>
+      </c>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
     <row r="43" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13">
-        <v>45844</v>
+        <v>45845</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="17" t="str">
-        <f>Menash_Cohen</f>
-        <v>Menash Cohen</v>
+        <f t="shared" ref="D43:D45" si="0">Uri_Zamir</f>
+        <v>Uri Zamir</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="F43" s="19">
-        <v>45844</v>
+        <v>45845</v>
       </c>
       <c r="G43" s="10">
         <v>1</v>
@@ -5213,11 +5241,11 @@
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>Uri Zamir</v>
+        <f>Menash_Cohen</f>
+        <v>Menash Cohen</v>
       </c>
       <c r="E44" s="56" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F44" s="19">
         <v>45844</v>
@@ -5238,72 +5266,66 @@
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Uri Zamir</v>
+      </c>
+      <c r="E45" s="56" t="s">
+        <v>766</v>
+      </c>
+      <c r="F45" s="19">
+        <v>45844</v>
+      </c>
+      <c r="G45" s="10">
+        <v>1</v>
+      </c>
+      <c r="H45" s="10">
+        <v>1</v>
+      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="13">
+        <v>45844</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="17" t="str">
         <f>שירלי_תקווה_אוסי</f>
         <v>שירלי תקווה אוסי</v>
       </c>
-      <c r="E45" s="56" t="s">
+      <c r="E46" s="56" t="s">
         <v>765</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F46" s="19">
         <v>45838</v>
       </c>
-      <c r="G45" s="10">
-        <v>1</v>
-      </c>
-      <c r="H45" s="10">
+      <c r="G46" s="10">
+        <v>1</v>
+      </c>
+      <c r="H46" s="10">
         <v>2</v>
-      </c>
-      <c r="I45" s="10">
-        <v>2</v>
-      </c>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="13">
-        <v>45842</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="17" t="str">
-        <f>Sami_Solomon</f>
-        <v>Sami Solomon</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="F46" s="19">
-        <v>43211</v>
-      </c>
-      <c r="G46" s="10">
-        <v>1</v>
-      </c>
-      <c r="H46" s="10">
-        <v>1</v>
       </c>
       <c r="I46" s="10">
         <v>2</v>
       </c>
-      <c r="J46" s="10">
-        <v>801</v>
-      </c>
-      <c r="K46" s="10">
-        <v>95</v>
-      </c>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
     </row>
     <row r="47" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="13">
         <v>45842</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="17" t="str">
-        <f>David_Cohen</f>
-        <v>David Cohen</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>303</v>
+        <f>Sami_Solomon</f>
+        <v>Sami Solomon</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>302</v>
       </c>
       <c r="F47" s="19">
-        <v>45130</v>
+        <v>43211</v>
       </c>
       <c r="G47" s="10">
         <v>1</v>
@@ -5314,9 +5336,11 @@
       <c r="I47" s="10">
         <v>2</v>
       </c>
-      <c r="J47" s="10"/>
+      <c r="J47" s="10">
+        <v>801</v>
+      </c>
       <c r="K47" s="10">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5325,45 +5349,43 @@
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="17" t="str">
+        <f>David_Cohen</f>
+        <v>David Cohen</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="F48" s="19">
+        <v>45130</v>
+      </c>
+      <c r="G48" s="10">
+        <v>1</v>
+      </c>
+      <c r="H48" s="10">
+        <v>1</v>
+      </c>
+      <c r="I48" s="10">
+        <v>1</v>
+      </c>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="13">
+        <v>45842</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="17" t="str">
         <f>Gila_Yona</f>
         <v>Gila Yona</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E49" s="27" t="s">
         <v>764</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F49" s="19">
         <v>43202</v>
-      </c>
-      <c r="G48" s="10">
-        <v>1</v>
-      </c>
-      <c r="H48" s="10">
-        <v>1</v>
-      </c>
-      <c r="I48" s="10">
-        <v>2</v>
-      </c>
-      <c r="J48" s="10">
-        <v>3</v>
-      </c>
-      <c r="K48" s="10">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="13">
-        <v>45841</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="17" t="str">
-        <f t="shared" ref="D49" si="1">Uri_Zamir</f>
-        <v>Uri Zamir</v>
-      </c>
-      <c r="E49" s="55" t="s">
-        <v>763</v>
-      </c>
-      <c r="F49" s="19">
-        <v>45841</v>
       </c>
       <c r="G49" s="10">
         <v>1</v>
@@ -5374,39 +5396,39 @@
       <c r="I49" s="10">
         <v>2</v>
       </c>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
+      <c r="J49" s="10">
+        <v>3</v>
+      </c>
+      <c r="K49" s="10">
+        <v>156</v>
+      </c>
     </row>
     <row r="50" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="13">
         <v>45841</v>
       </c>
-      <c r="C50" s="14"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="17" t="str">
-        <f>Sami_Solomon</f>
-        <v>Sami Solomon</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>299</v>
+        <f t="shared" ref="D50" si="1">Uri_Zamir</f>
+        <v>Uri Zamir</v>
+      </c>
+      <c r="E50" s="55" t="s">
+        <v>763</v>
       </c>
       <c r="F50" s="19">
-        <v>43211</v>
+        <v>45841</v>
       </c>
       <c r="G50" s="10">
         <v>1</v>
       </c>
       <c r="H50" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" s="10">
-        <v>2</v>
-      </c>
-      <c r="J50" s="10">
-        <v>304</v>
-      </c>
-      <c r="K50" s="10">
-        <v>94</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
     </row>
     <row r="51" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="13">
@@ -5414,55 +5436,59 @@
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="17" t="str">
+        <f>Sami_Solomon</f>
+        <v>Sami Solomon</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="F51" s="19">
+        <v>43211</v>
+      </c>
+      <c r="G51" s="10">
+        <v>1</v>
+      </c>
+      <c r="H51" s="10">
+        <v>2</v>
+      </c>
+      <c r="I51" s="10">
+        <v>2</v>
+      </c>
+      <c r="J51" s="10">
+        <v>304</v>
+      </c>
+      <c r="K51" s="10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="13">
+        <v>45841</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="17" t="str">
         <f>סמו_סמוראי</f>
         <v>סמו סמוראי</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E52" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F52" s="19">
         <v>45328</v>
       </c>
-      <c r="G51" s="10">
-        <v>1</v>
-      </c>
-      <c r="H51" s="10">
-        <v>1</v>
-      </c>
-      <c r="I51" s="10">
-        <v>2</v>
-      </c>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="13">
-        <v>45840</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="17" t="str">
-        <f>Menash_Cohen</f>
-        <v>Menash Cohen</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="F52" s="19">
-        <v>45840</v>
-      </c>
       <c r="G52" s="10">
         <v>1</v>
       </c>
       <c r="H52" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" s="10">
         <v>2</v>
       </c>
       <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
+      <c r="K52" s="10" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="53" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="13">
@@ -5470,11 +5496,11 @@
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="17" t="str">
-        <f>יעקב_צמח</f>
-        <v>יעקב צמח</v>
+        <f>Menash_Cohen</f>
+        <v>Menash Cohen</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F53" s="19">
         <v>45840</v>
@@ -5485,7 +5511,9 @@
       <c r="H53" s="10">
         <v>2</v>
       </c>
-      <c r="I53" s="10"/>
+      <c r="I53" s="10">
+        <v>2</v>
+      </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
     </row>
@@ -5495,11 +5523,11 @@
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="17" t="str">
-        <f>Menash_Cohen</f>
-        <v>Menash Cohen</v>
+        <f>יעקב_צמח</f>
+        <v>יעקב צמח</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F54" s="19">
         <v>45840</v>
@@ -5510,9 +5538,7 @@
       <c r="H54" s="10">
         <v>2</v>
       </c>
-      <c r="I54" s="10">
-        <v>2</v>
-      </c>
+      <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
     </row>
@@ -5526,7 +5552,7 @@
         <v>Menash Cohen</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F55" s="19">
         <v>45840</v>
@@ -5537,21 +5563,23 @@
       <c r="H55" s="10">
         <v>2</v>
       </c>
-      <c r="I55" s="10"/>
+      <c r="I55" s="10">
+        <v>1</v>
+      </c>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="13">
-        <v>45839</v>
+        <v>45840</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="17" t="str">
-        <f>Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>292</v>
+        <f>Menash_Cohen</f>
+        <v>Menash Cohen</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>293</v>
       </c>
       <c r="F56" s="19">
         <v>45840</v>
@@ -5560,26 +5588,26 @@
         <v>1</v>
       </c>
       <c r="H56" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="13">
         <v>45839</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="17" t="str">
-        <f t="shared" ref="D57" si="2">Uri_Zamir</f>
-        <v>Uri Zamir</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>291</v>
+        <f>Itzik_Ovadia</f>
+        <v>Itzik Ovadia</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="F57" s="19">
-        <v>45839</v>
+        <v>45840</v>
       </c>
       <c r="G57" s="10">
         <v>1</v>
@@ -5587,9 +5615,7 @@
       <c r="H57" s="10">
         <v>1</v>
       </c>
-      <c r="I57" s="10">
-        <v>2</v>
-      </c>
+      <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
     </row>
@@ -5599,11 +5625,11 @@
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="17" t="str">
-        <f>Menash_Cohen</f>
-        <v>Menash Cohen</v>
+        <f t="shared" ref="D58" si="2">Uri_Zamir</f>
+        <v>Uri Zamir</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F58" s="19">
         <v>45839</v>
@@ -5612,9 +5638,11 @@
         <v>1</v>
       </c>
       <c r="H58" s="10">
-        <v>6</v>
-      </c>
-      <c r="I58" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I58" s="10">
+        <v>2</v>
+      </c>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
     </row>
@@ -5628,10 +5656,10 @@
         <v>Menash Cohen</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F59" s="19">
-        <v>45837</v>
+        <v>45839</v>
       </c>
       <c r="G59" s="10">
         <v>1</v>
@@ -5647,24 +5675,22 @@
       <c r="B60" s="13">
         <v>45839</v>
       </c>
-      <c r="C60" s="14">
-        <v>0.23541666666666666</v>
-      </c>
+      <c r="C60" s="14"/>
       <c r="D60" s="17" t="str">
-        <f>Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
+        <f>Menash_Cohen</f>
+        <v>Menash Cohen</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="F60" s="19">
-        <v>45839</v>
+        <v>45837</v>
       </c>
       <c r="G60" s="10">
         <v>1</v>
       </c>
       <c r="H60" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
@@ -5675,23 +5701,23 @@
         <v>45839</v>
       </c>
       <c r="C61" s="14">
-        <v>0.20069444444444445</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D61" s="17" t="str">
-        <f>אברהם_פנירי</f>
-        <v>אברהם פנירי</v>
+        <f>Itzik_Ovadia</f>
+        <v>Itzik Ovadia</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F61" s="19">
-        <v>45838</v>
+        <v>45839</v>
       </c>
       <c r="G61" s="10">
         <v>1</v>
       </c>
       <c r="H61" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
@@ -5705,11 +5731,11 @@
         <v>0.20069444444444445</v>
       </c>
       <c r="D62" s="17" t="str">
-        <f>Menash_Cohen</f>
-        <v>Menash Cohen</v>
+        <f>אברהם_פנירי</f>
+        <v>אברהם פנירי</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F62" s="19">
         <v>45838</v>
@@ -5718,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
@@ -5726,17 +5752,17 @@
     </row>
     <row r="63" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="13">
-        <v>45838</v>
+        <v>45839</v>
       </c>
       <c r="C63" s="14">
-        <v>0.23958333333333334</v>
+        <v>0.20069444444444445</v>
       </c>
       <c r="D63" s="17" t="str">
-        <f>Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
+        <f>Menash_Cohen</f>
+        <v>Menash Cohen</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F63" s="19">
         <v>45838</v>
@@ -5745,7 +5771,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
@@ -5756,23 +5782,23 @@
         <v>45838</v>
       </c>
       <c r="C64" s="14">
-        <v>0.2388888888888889</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D64" s="17" t="str">
-        <f>Menash_Cohen</f>
-        <v>Menash Cohen</v>
+        <f>Itzik_Ovadia</f>
+        <v>Itzik Ovadia</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F64" s="19">
-        <v>45837</v>
+        <v>45838</v>
       </c>
       <c r="G64" s="10">
         <v>1</v>
       </c>
       <c r="H64" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
@@ -5783,14 +5809,14 @@
         <v>45838</v>
       </c>
       <c r="C65" s="14">
-        <v>0.23680555555555555</v>
+        <v>0.2388888888888889</v>
       </c>
       <c r="D65" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
+        <f>Menash_Cohen</f>
+        <v>Menash Cohen</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F65" s="19">
         <v>45837</v>
@@ -5807,17 +5833,17 @@
     </row>
     <row r="66" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="13">
-        <v>45837</v>
+        <v>45838</v>
       </c>
       <c r="C66" s="14">
-        <v>0.22222222222222221</v>
+        <v>0.23680555555555555</v>
       </c>
       <c r="D66" s="17" t="str">
-        <f>Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F66" s="19">
         <v>45837</v>
@@ -5826,7 +5852,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
@@ -5837,17 +5863,17 @@
         <v>45837</v>
       </c>
       <c r="C67" s="14">
-        <v>0.22152777777777777</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D67" s="17" t="str">
-        <f t="shared" ref="D67:D72" si="3">Uri_Zamir</f>
-        <v>Uri Zamir</v>
+        <f>Itzik_Ovadia</f>
+        <v>Itzik Ovadia</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F67" s="19">
-        <v>45823</v>
+        <v>45837</v>
       </c>
       <c r="G67" s="10">
         <v>1</v>
@@ -5867,14 +5893,14 @@
         <v>0.22152777777777777</v>
       </c>
       <c r="D68" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D68:D73" si="3">Uri_Zamir</f>
         <v>Uri Zamir</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F68" s="19">
-        <v>45828</v>
+        <v>45823</v>
       </c>
       <c r="G68" s="10">
         <v>1</v>
@@ -5898,10 +5924,10 @@
         <v>Uri Zamir</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F69" s="19">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="G69" s="10">
         <v>1</v>
@@ -5925,10 +5951,10 @@
         <v>Uri Zamir</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F70" s="19">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="G70" s="10">
         <v>1</v>
@@ -5952,10 +5978,10 @@
         <v>Uri Zamir</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F71" s="19">
-        <v>45830</v>
+        <v>45833</v>
       </c>
       <c r="G71" s="10">
         <v>1</v>
@@ -5979,10 +6005,10 @@
         <v>Uri Zamir</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F72" s="19">
-        <v>45835</v>
+        <v>45830</v>
       </c>
       <c r="G72" s="10">
         <v>1</v>
@@ -5996,20 +6022,20 @@
     </row>
     <row r="73" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="13">
-        <v>45836</v>
+        <v>45837</v>
       </c>
       <c r="C73" s="14">
-        <v>0.25833333333333336</v>
+        <v>0.22152777777777777</v>
       </c>
       <c r="D73" s="17" t="str">
-        <f>Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
+        <f t="shared" si="3"/>
+        <v>Uri Zamir</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F73" s="19">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="G73" s="10">
         <v>1</v>
@@ -6026,52 +6052,54 @@
         <v>45836</v>
       </c>
       <c r="C74" s="14">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="D74" s="17" t="str">
+        <f>Itzik_Ovadia</f>
+        <v>Itzik Ovadia</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="F74" s="19">
+        <v>45834</v>
+      </c>
+      <c r="G74" s="10">
+        <v>1</v>
+      </c>
+      <c r="H74" s="10">
+        <v>1</v>
+      </c>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+    </row>
+    <row r="75" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="13">
+        <v>45836</v>
+      </c>
+      <c r="C75" s="14">
         <v>0.25624999999999998</v>
       </c>
-      <c r="D74" s="17" t="str">
+      <c r="D75" s="17" t="str">
         <f>Uri_Zamir</f>
         <v>Uri Zamir</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E75" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F75" s="19">
         <v>45835</v>
       </c>
-      <c r="G74" s="10">
-        <v>1</v>
-      </c>
-      <c r="H74" s="10">
-        <v>1</v>
-      </c>
-      <c r="I74" s="10">
-        <v>2</v>
-      </c>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-    </row>
-    <row r="75" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="13">
-        <v>45833</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="17" t="str">
-        <f>רותי_אדירי</f>
-        <v>רותי אדירי</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="F75" s="19">
-        <v>45832</v>
-      </c>
       <c r="G75" s="10">
         <v>1</v>
       </c>
       <c r="H75" s="10">
-        <v>6</v>
-      </c>
-      <c r="I75" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I75" s="10">
+        <v>1</v>
+      </c>
       <c r="J75" s="10"/>
       <c r="K75" s="10"/>
     </row>
@@ -6081,14 +6109,14 @@
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
+        <f>רותי_אדירי</f>
+        <v>רותי אדירי</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="F76" s="19">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="G76" s="10">
         <v>1</v>
@@ -6106,11 +6134,11 @@
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="17" t="str">
-        <f>Menash_Cohen</f>
-        <v>Menash Cohen</v>
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F77" s="19">
         <v>45833</v>
@@ -6119,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
@@ -6131,11 +6159,11 @@
       </c>
       <c r="C78" s="14"/>
       <c r="D78" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
+        <f>Menash_Cohen</f>
+        <v>Menash Cohen</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F78" s="19">
         <v>45833</v>
@@ -6144,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
@@ -6155,11 +6183,12 @@
         <v>45833</v>
       </c>
       <c r="C79" s="14"/>
-      <c r="D79" s="17" t="s">
-        <v>18</v>
+      <c r="D79" s="17" t="str">
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F79" s="19">
         <v>45833</v>
@@ -6168,40 +6197,37 @@
         <v>1</v>
       </c>
       <c r="H79" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="13">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="C80" s="14"/>
-      <c r="D80" s="17" t="str">
-        <f>Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>286</v>
+      <c r="D80" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>273</v>
       </c>
       <c r="F80" s="19">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="G80" s="10">
         <v>1</v>
       </c>
       <c r="H80" s="10">
-        <v>1</v>
-      </c>
-      <c r="I80" s="10">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
     </row>
-    <row r="81" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="13">
         <v>45832</v>
       </c>
@@ -6210,11 +6236,11 @@
         <f>Itzik_Ovadia</f>
         <v>Itzik Ovadia</v>
       </c>
-      <c r="E81" s="18" t="s">
-        <v>285</v>
+      <c r="E81" s="20" t="s">
+        <v>286</v>
       </c>
       <c r="F81" s="19">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="G81" s="10">
         <v>1</v>
@@ -6238,10 +6264,10 @@
         <v>Itzik Ovadia</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F82" s="19">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="G82" s="10">
         <v>1</v>
@@ -6261,39 +6287,41 @@
       </c>
       <c r="C83" s="14"/>
       <c r="D83" s="17" t="str">
+        <f>Itzik_Ovadia</f>
+        <v>Itzik Ovadia</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F83" s="19">
+        <v>45833</v>
+      </c>
+      <c r="G83" s="10">
+        <v>1</v>
+      </c>
+      <c r="H83" s="10">
+        <v>1</v>
+      </c>
+      <c r="I83" s="10">
+        <v>1</v>
+      </c>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+    </row>
+    <row r="84" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="13">
+        <v>45832</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="17" t="str">
         <f>Menash_Cohen</f>
         <v>Menash Cohen</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E84" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F84" s="19">
         <v>45832</v>
-      </c>
-      <c r="G83" s="10">
-        <v>1</v>
-      </c>
-      <c r="H83" s="10">
-        <v>2</v>
-      </c>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-    </row>
-    <row r="84" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="13">
-        <v>45831</v>
-      </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="F84" s="19">
-        <v>45831</v>
       </c>
       <c r="G84" s="10">
         <v>1</v>
@@ -6311,49 +6339,49 @@
       </c>
       <c r="C85" s="14"/>
       <c r="D85" s="17" t="str">
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F85" s="19">
+        <v>45831</v>
+      </c>
+      <c r="G85" s="10">
+        <v>1</v>
+      </c>
+      <c r="H85" s="10">
+        <v>2</v>
+      </c>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+    </row>
+    <row r="86" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="13">
+        <v>45831</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="17" t="str">
         <f>Uri_Zamir</f>
         <v>Uri Zamir</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E86" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F86" s="19">
         <v>45831</v>
       </c>
-      <c r="G85" s="10">
-        <v>1</v>
-      </c>
-      <c r="H85" s="10">
-        <v>1</v>
-      </c>
-      <c r="I85" s="10">
+      <c r="G86" s="10">
+        <v>1</v>
+      </c>
+      <c r="H86" s="10">
+        <v>1</v>
+      </c>
+      <c r="I86" s="10">
         <v>2</v>
       </c>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-    </row>
-    <row r="86" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="13">
-        <v>45830</v>
-      </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="17" t="str">
-        <f t="shared" ref="D86:D91" si="4">Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="F86" s="19">
-        <v>45824</v>
-      </c>
-      <c r="G86" s="10">
-        <v>1</v>
-      </c>
-      <c r="H86" s="10">
-        <v>1</v>
-      </c>
-      <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
     </row>
@@ -6363,14 +6391,14 @@
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D87:D92" si="4">Itzik_Ovadia</f>
         <v>Itzik Ovadia</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F87" s="19">
-        <v>45825</v>
+        <v>45824</v>
       </c>
       <c r="G87" s="10">
         <v>1</v>
@@ -6392,10 +6420,10 @@
         <v>Itzik Ovadia</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F88" s="19">
-        <v>45823</v>
+        <v>45825</v>
       </c>
       <c r="G88" s="10">
         <v>1</v>
@@ -6417,10 +6445,10 @@
         <v>Itzik Ovadia</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F89" s="19">
-        <v>45827</v>
+        <v>45823</v>
       </c>
       <c r="G89" s="10">
         <v>1</v>
@@ -6442,10 +6470,10 @@
         <v>Itzik Ovadia</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F90" s="19">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="G90" s="10">
         <v>1</v>
@@ -6467,10 +6495,10 @@
         <v>Itzik Ovadia</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F91" s="19">
-        <v>45830</v>
+        <v>45826</v>
       </c>
       <c r="G91" s="10">
         <v>1</v>
@@ -6488,11 +6516,11 @@
       </c>
       <c r="C92" s="14"/>
       <c r="D92" s="17" t="str">
-        <f>Menash_Cohen</f>
-        <v>Menash Cohen</v>
+        <f t="shared" si="4"/>
+        <v>Itzik Ovadia</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F92" s="19">
         <v>45830</v>
@@ -6501,69 +6529,67 @@
         <v>1</v>
       </c>
       <c r="H92" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
     </row>
     <row r="93" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="21" t="s">
-        <v>253</v>
+      <c r="B93" s="13">
+        <v>45830</v>
       </c>
       <c r="C93" s="14"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="10"/>
+      <c r="D93" s="17" t="str">
+        <f>Menash_Cohen</f>
+        <v>Menash Cohen</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="F93" s="19">
+        <v>45830</v>
+      </c>
+      <c r="G93" s="10">
+        <v>1</v>
+      </c>
+      <c r="H93" s="10">
+        <v>6</v>
+      </c>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
     </row>
     <row r="94" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="13">
-        <v>45800</v>
-      </c>
-      <c r="C94" s="14">
-        <v>0.19722222222222222</v>
-      </c>
-      <c r="D94" s="17" t="str">
-        <f>Uri_Zamir</f>
-        <v>Uri Zamir</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="F94" s="19">
-        <v>45799</v>
-      </c>
-      <c r="G94" s="10">
-        <v>1</v>
-      </c>
-      <c r="H94" s="10">
-        <v>1</v>
-      </c>
+      <c r="B94" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="10"/>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="13">
+        <v>45800</v>
+      </c>
+      <c r="C95" s="14">
+        <v>0.19722222222222222</v>
+      </c>
+      <c r="D95" s="17" t="str">
+        <f>Uri_Zamir</f>
+        <v>Uri Zamir</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F95" s="19">
         <v>45799</v>
-      </c>
-      <c r="C95" s="14">
-        <v>0.23194444444444445</v>
-      </c>
-      <c r="D95" s="17" t="str">
-        <f>Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="F95" s="19">
-        <v>45798</v>
       </c>
       <c r="G95" s="10">
         <v>1</v>
@@ -6580,14 +6606,14 @@
         <v>45799</v>
       </c>
       <c r="C96" s="14">
-        <v>0.23055555555555557</v>
+        <v>0.23194444444444445</v>
       </c>
       <c r="D96" s="17" t="str">
-        <f>Shay_Hugi</f>
-        <v>Shay Hugi</v>
+        <f>Itzik_Ovadia</f>
+        <v>Itzik Ovadia</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F96" s="19">
         <v>45798</v>
@@ -6596,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
@@ -6604,17 +6630,17 @@
     </row>
     <row r="97" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="13">
-        <v>45798</v>
+        <v>45799</v>
       </c>
       <c r="C97" s="14">
-        <v>0.22638888888888889</v>
+        <v>0.23055555555555557</v>
       </c>
       <c r="D97" s="17" t="str">
-        <f>Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
+        <f>Shay_Hugi</f>
+        <v>Shay Hugi</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F97" s="19">
         <v>45798</v>
@@ -6623,11 +6649,9 @@
         <v>1</v>
       </c>
       <c r="H97" s="10">
-        <v>1</v>
-      </c>
-      <c r="I97" s="10">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I97" s="10"/>
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
     </row>
@@ -6636,25 +6660,27 @@
         <v>45798</v>
       </c>
       <c r="C98" s="14">
-        <v>0.22569444444444445</v>
+        <v>0.22638888888888889</v>
       </c>
       <c r="D98" s="17" t="str">
-        <f>אורי_משה</f>
-        <v>אורי משה</v>
+        <f>Itzik_Ovadia</f>
+        <v>Itzik Ovadia</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F98" s="19">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="G98" s="10">
         <v>1</v>
       </c>
       <c r="H98" s="10">
+        <v>1</v>
+      </c>
+      <c r="I98" s="10">
         <v>2</v>
       </c>
-      <c r="I98" s="10"/>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
     </row>
@@ -6666,11 +6692,11 @@
         <v>0.22569444444444445</v>
       </c>
       <c r="D99" s="17" t="str">
-        <f>Uri_Zamir</f>
-        <v>Uri Zamir</v>
+        <f>אורי_משה</f>
+        <v>אורי משה</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F99" s="19">
         <v>45797</v>
@@ -6679,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
@@ -6687,20 +6713,20 @@
     </row>
     <row r="100" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="13">
+        <v>45798</v>
+      </c>
+      <c r="C100" s="14">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="D100" s="17" t="str">
+        <f>Uri_Zamir</f>
+        <v>Uri Zamir</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F100" s="19">
         <v>45797</v>
-      </c>
-      <c r="C100" s="14">
-        <v>0.22083333333333333</v>
-      </c>
-      <c r="D100" s="17" t="str">
-        <f>Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="F100" s="19">
-        <v>45796</v>
       </c>
       <c r="G100" s="10">
         <v>1</v>
@@ -6717,14 +6743,14 @@
         <v>45797</v>
       </c>
       <c r="C101" s="14">
-        <v>0.22013888888888888</v>
+        <v>0.22083333333333333</v>
       </c>
       <c r="D101" s="17" t="str">
-        <f>אברהם_פנירי</f>
-        <v>אברהם פנירי</v>
+        <f>Itzik_Ovadia</f>
+        <v>Itzik Ovadia</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F101" s="19">
         <v>45796</v>
@@ -6733,11 +6759,9 @@
         <v>1</v>
       </c>
       <c r="H101" s="10">
-        <v>2</v>
-      </c>
-      <c r="I101" s="10">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" s="10"/>
       <c r="J101" s="10"/>
       <c r="K101" s="10"/>
     </row>
@@ -6748,11 +6772,12 @@
       <c r="C102" s="14">
         <v>0.22013888888888888</v>
       </c>
-      <c r="D102" s="17" t="s">
-        <v>18</v>
+      <c r="D102" s="17" t="str">
+        <f>אברהם_פנירי</f>
+        <v>אברהם פנירי</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F102" s="19">
         <v>45796</v>
@@ -6761,28 +6786,29 @@
         <v>1</v>
       </c>
       <c r="H102" s="10">
-        <v>6</v>
-      </c>
-      <c r="I102" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="I102" s="10">
+        <v>2</v>
+      </c>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
     </row>
     <row r="103" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="13">
+        <v>45797</v>
+      </c>
+      <c r="C103" s="14">
+        <v>0.22013888888888888</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F103" s="19">
         <v>45796</v>
-      </c>
-      <c r="C103" s="14">
-        <v>0.20555555555555555</v>
-      </c>
-      <c r="D103" s="17" t="str">
-        <f>Sigalit_Shir</f>
-        <v>Sigalit Shir</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="F103" s="19">
-        <v>45795</v>
       </c>
       <c r="G103" s="10">
         <v>1</v>
@@ -6799,14 +6825,14 @@
         <v>45796</v>
       </c>
       <c r="C104" s="14">
-        <v>0.2048611111111111</v>
+        <v>0.20555555555555555</v>
       </c>
       <c r="D104" s="17" t="str">
-        <f>Uri_Zamir</f>
-        <v>Uri Zamir</v>
+        <f>Sigalit_Shir</f>
+        <v>Sigalit Shir</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F104" s="19">
         <v>45795</v>
@@ -6815,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
@@ -6823,92 +6849,94 @@
     </row>
     <row r="105" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="13">
+        <v>45796</v>
+      </c>
+      <c r="C105" s="14">
+        <v>0.2048611111111111</v>
+      </c>
+      <c r="D105" s="17" t="str">
+        <f>Uri_Zamir</f>
+        <v>Uri Zamir</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F105" s="19">
         <v>45795</v>
       </c>
-      <c r="C105" s="14">
+      <c r="G105" s="10">
+        <v>1</v>
+      </c>
+      <c r="H105" s="10">
+        <v>1</v>
+      </c>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+    </row>
+    <row r="106" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="13">
+        <v>45795</v>
+      </c>
+      <c r="C106" s="14">
         <v>0.30763888888888891</v>
       </c>
-      <c r="D105" s="17" t="str">
+      <c r="D106" s="17" t="str">
         <f>Itzik_Ovadia</f>
         <v>Itzik Ovadia</v>
       </c>
-      <c r="E105" s="22" t="s">
+      <c r="E106" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="F105" s="19">
+      <c r="F106" s="19">
         <v>45795</v>
       </c>
-      <c r="G105" s="10">
-        <v>1</v>
-      </c>
-      <c r="H105" s="10">
-        <v>1</v>
-      </c>
-      <c r="I105" s="10">
-        <v>2</v>
-      </c>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10"/>
-    </row>
-    <row r="106" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="C106" s="14"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
+      <c r="G106" s="10">
+        <v>1</v>
+      </c>
+      <c r="H106" s="10">
+        <v>1</v>
+      </c>
+      <c r="I106" s="10">
+        <v>1</v>
+      </c>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
     </row>
     <row r="107" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="13">
-        <v>44772</v>
-      </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="15" t="str">
-        <f>Shlomo_Bar_Nissim</f>
-        <v>Shlomo Bar-Nissim</v>
-      </c>
-      <c r="E107" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="F107" s="19">
-        <v>44773</v>
-      </c>
-      <c r="G107" s="10">
-        <v>1</v>
-      </c>
-      <c r="H107" s="10">
-        <v>3</v>
-      </c>
+      <c r="B107" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
     </row>
     <row r="108" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="13">
-        <v>44771</v>
+        <v>44772</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="15" t="str">
-        <f>David_Cohen</f>
-        <v>David Cohen</v>
+        <f>Shlomo_Bar_Nissim</f>
+        <v>Shlomo Bar-Nissim</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F108" s="19">
-        <v>44771</v>
+        <v>44773</v>
       </c>
       <c r="G108" s="10">
         <v>1</v>
       </c>
       <c r="H108" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
@@ -6924,7 +6952,7 @@
         <v>David Cohen</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F109" s="19">
         <v>44771</v>
@@ -6935,9 +6963,7 @@
       <c r="H109" s="10">
         <v>2</v>
       </c>
-      <c r="I109" s="10">
-        <v>2</v>
-      </c>
+      <c r="I109" s="10"/>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
     </row>
@@ -6947,14 +6973,14 @@
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="15" t="str">
-        <f>Yehezkel_Yeruham</f>
-        <v>Yehezkel Yeruham</v>
+        <f>David_Cohen</f>
+        <v>David Cohen</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F110" s="19">
-        <v>44772</v>
+        <v>44771</v>
       </c>
       <c r="G110" s="10">
         <v>1</v>
@@ -6974,90 +7000,90 @@
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="15" t="str">
+        <f>Yehezkel_Yeruham</f>
+        <v>Yehezkel Yeruham</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F111" s="19">
+        <v>44772</v>
+      </c>
+      <c r="G111" s="10">
+        <v>1</v>
+      </c>
+      <c r="H111" s="10">
+        <v>2</v>
+      </c>
+      <c r="I111" s="10">
+        <v>2</v>
+      </c>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+    </row>
+    <row r="112" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="13">
+        <v>44771</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="15" t="str">
         <f>Orly_Haim_Ventura</f>
         <v>Orly Haim Ventura</v>
       </c>
-      <c r="E111" s="18" t="s">
+      <c r="E112" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="F111" s="19">
+      <c r="F112" s="19">
         <v>44771</v>
       </c>
-      <c r="G111" s="10">
-        <v>1</v>
-      </c>
-      <c r="H111" s="10">
+      <c r="G112" s="10">
+        <v>1</v>
+      </c>
+      <c r="H112" s="10">
         <v>2</v>
       </c>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="10"/>
-    </row>
-    <row r="112" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="13">
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+    </row>
+    <row r="113" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="13">
         <v>44770</v>
       </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="17" t="str">
+      <c r="C113" s="1"/>
+      <c r="D113" s="17" t="str">
         <f>Itzik_Ovadia</f>
         <v>Itzik Ovadia</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="E113" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="F112" s="19">
+      <c r="F113" s="19">
         <v>44770</v>
       </c>
-      <c r="G112" s="10">
-        <v>1</v>
-      </c>
-      <c r="H112" s="10">
-        <v>1</v>
-      </c>
-      <c r="I112" s="10">
-        <v>2</v>
-      </c>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
-    </row>
-    <row r="113" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="13">
+      <c r="G113" s="10">
+        <v>1</v>
+      </c>
+      <c r="H113" s="10">
+        <v>1</v>
+      </c>
+      <c r="I113" s="10">
+        <v>1</v>
+      </c>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+    </row>
+    <row r="114" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="13">
         <v>44769</v>
       </c>
-      <c r="C113" s="14"/>
-      <c r="D113" s="17" t="str">
+      <c r="C114" s="14"/>
+      <c r="D114" s="17" t="str">
         <f>שירלי_תקווה_אוסי</f>
         <v>שירלי תקווה אוסי</v>
       </c>
-      <c r="E113" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F113" s="19">
-        <v>44767</v>
-      </c>
-      <c r="G113" s="10">
-        <v>1</v>
-      </c>
-      <c r="H113" s="10">
-        <v>2</v>
-      </c>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
-    </row>
-    <row r="114" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="13">
-        <v>44768</v>
-      </c>
-      <c r="C114" s="14">
-        <v>0.22708333333333333</v>
-      </c>
-      <c r="D114" s="17" t="str">
-        <f>יוסי_מנשה</f>
-        <v>יוסי מנשה</v>
-      </c>
       <c r="E114" s="22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F114" s="19">
         <v>44767</v>
@@ -7066,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="H114" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
@@ -7077,14 +7103,14 @@
         <v>44768</v>
       </c>
       <c r="C115" s="14">
-        <v>0.22638888888888889</v>
+        <v>0.22708333333333333</v>
       </c>
       <c r="D115" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
+        <f>יוסי_מנשה</f>
+        <v>יוסי מנשה</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F115" s="19">
         <v>44767</v>
@@ -7093,7 +7119,7 @@
         <v>1</v>
       </c>
       <c r="H115" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
@@ -7104,20 +7130,24 @@
         <v>44768</v>
       </c>
       <c r="C116" s="14">
-        <v>0.22361111111111109</v>
+        <v>0.22638888888888889</v>
       </c>
       <c r="D116" s="17" t="str">
-        <f>Yehuda_Katz</f>
-        <v>Yehuda Katz</v>
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F116" s="19">
         <v>44767</v>
       </c>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
+      <c r="G116" s="10">
+        <v>1</v>
+      </c>
+      <c r="H116" s="10">
+        <v>1</v>
+      </c>
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
       <c r="K116" s="10"/>
@@ -7127,47 +7157,47 @@
         <v>44768</v>
       </c>
       <c r="C117" s="14">
-        <v>0.22152777777777777</v>
+        <v>0.22361111111111109</v>
       </c>
       <c r="D117" s="17" t="str">
-        <f>Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
+        <f>Yehuda_Katz</f>
+        <v>Yehuda Katz</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F117" s="19">
-        <v>44768</v>
-      </c>
-      <c r="G117" s="10">
-        <v>1</v>
-      </c>
-      <c r="H117" s="10">
-        <v>2</v>
-      </c>
+        <v>44767</v>
+      </c>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
       <c r="I117" s="10"/>
       <c r="J117" s="10"/>
       <c r="K117" s="10"/>
     </row>
     <row r="118" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="13">
-        <v>44767</v>
+        <v>44768</v>
       </c>
       <c r="C118" s="14">
-        <v>0.20833333333333334</v>
+        <v>0.22152777777777777</v>
       </c>
       <c r="D118" s="17" t="str">
-        <f>Haim_Bahar</f>
-        <v>Haim Bahar</v>
+        <f>Itzik_Ovadia</f>
+        <v>Itzik Ovadia</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F118" s="19">
-        <v>44400</v>
-      </c>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
+        <v>44768</v>
+      </c>
+      <c r="G118" s="10">
+        <v>1</v>
+      </c>
+      <c r="H118" s="10">
+        <v>2</v>
+      </c>
       <c r="I118" s="10"/>
       <c r="J118" s="10"/>
       <c r="K118" s="10"/>
@@ -7177,24 +7207,20 @@
         <v>44767</v>
       </c>
       <c r="C119" s="14">
-        <v>0.20694444444444446</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="D119" s="17" t="str">
-        <f>Gila_Yona</f>
-        <v>Gila Yona</v>
+        <f>Haim_Bahar</f>
+        <v>Haim Bahar</v>
       </c>
       <c r="E119" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F119" s="19">
-        <v>44401</v>
-      </c>
-      <c r="G119" s="10">
-        <v>1</v>
-      </c>
-      <c r="H119" s="10">
-        <v>2</v>
-      </c>
+        <v>44400</v>
+      </c>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
       <c r="K119" s="10"/>
@@ -7204,125 +7230,127 @@
         <v>44767</v>
       </c>
       <c r="C120" s="14">
-        <v>0.18402777777777779</v>
+        <v>0.20694444444444446</v>
       </c>
       <c r="D120" s="17" t="str">
-        <f>David_Bistry</f>
-        <v>David Bistry</v>
+        <f>Gila_Yona</f>
+        <v>Gila Yona</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F120" s="19">
         <v>44401</v>
       </c>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
+      <c r="G120" s="10">
+        <v>1</v>
+      </c>
+      <c r="H120" s="10">
+        <v>2</v>
+      </c>
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="13">
         <v>44767</v>
       </c>
-      <c r="C121" s="14"/>
-      <c r="D121" s="15" t="str">
+      <c r="C121" s="14">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="D121" s="17" t="str">
+        <f>David_Bistry</f>
+        <v>David Bistry</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="19">
+        <v>44401</v>
+      </c>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+    </row>
+    <row r="122" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="13">
+        <v>44767</v>
+      </c>
+      <c r="C122" s="14"/>
+      <c r="D122" s="15" t="str">
         <f>David_Cohen</f>
         <v>David Cohen</v>
       </c>
-      <c r="E121" s="22" t="s">
+      <c r="E122" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="F121" s="19">
+      <c r="F122" s="19">
         <v>44767</v>
       </c>
-      <c r="G121" s="10">
-        <v>1</v>
-      </c>
-      <c r="H121" s="10">
-        <v>1</v>
-      </c>
-      <c r="I121" s="10">
-        <v>2</v>
-      </c>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
-    </row>
-    <row r="122" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="13">
+      <c r="G122" s="10">
+        <v>1</v>
+      </c>
+      <c r="H122" s="10">
+        <v>1</v>
+      </c>
+      <c r="I122" s="10">
+        <v>1</v>
+      </c>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
+    </row>
+    <row r="123" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="13">
         <v>44767</v>
       </c>
-      <c r="C122" s="14"/>
-      <c r="D122" s="17" t="str">
+      <c r="C123" s="14"/>
+      <c r="D123" s="17" t="str">
         <f>Shlomo_Bar_Nissim</f>
         <v>Shlomo Bar-Nissim</v>
       </c>
-      <c r="E122" s="22" t="s">
+      <c r="E123" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="F122" s="19">
+      <c r="F123" s="19">
         <v>44767</v>
       </c>
-      <c r="G122" s="10">
-        <v>1</v>
-      </c>
-      <c r="H122" s="10">
-        <v>1</v>
-      </c>
-      <c r="I122" s="10"/>
-      <c r="J122" s="10"/>
-      <c r="K122" s="10"/>
-    </row>
-    <row r="123" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="13">
+      <c r="G123" s="10">
+        <v>1</v>
+      </c>
+      <c r="H123" s="10">
+        <v>1</v>
+      </c>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
+    </row>
+    <row r="124" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="13">
         <v>44768</v>
       </c>
-      <c r="C123" s="14"/>
-      <c r="D123" s="17" t="str">
+      <c r="C124" s="14"/>
+      <c r="D124" s="17" t="str">
         <f>Uri_Zamir</f>
         <v>Uri Zamir</v>
       </c>
-      <c r="E123" s="22" t="s">
+      <c r="E124" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="F123" s="19">
+      <c r="F124" s="19">
         <v>44768</v>
       </c>
-      <c r="G123" s="10">
-        <v>1</v>
-      </c>
-      <c r="H123" s="10">
-        <v>1</v>
-      </c>
-      <c r="I123" s="10">
-        <v>2</v>
-      </c>
-      <c r="J123" s="10"/>
-      <c r="K123" s="10"/>
-    </row>
-    <row r="124" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="13">
-        <v>44766</v>
-      </c>
-      <c r="C124" s="14"/>
-      <c r="D124" s="17" t="str">
-        <f>יוסי_מנשה</f>
-        <v>יוסי מנשה</v>
-      </c>
-      <c r="E124" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F124" s="19">
-        <v>44401</v>
-      </c>
       <c r="G124" s="10">
         <v>1</v>
       </c>
       <c r="H124" s="10">
-        <v>2</v>
-      </c>
-      <c r="I124" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I124" s="10">
+        <v>1</v>
+      </c>
       <c r="J124" s="10"/>
       <c r="K124" s="10"/>
     </row>
@@ -7336,7 +7364,7 @@
         <v>יוסי מנשה</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F125" s="19">
         <v>44401</v>
@@ -7347,9 +7375,7 @@
       <c r="H125" s="10">
         <v>2</v>
       </c>
-      <c r="I125" s="10">
-        <v>2</v>
-      </c>
+      <c r="I125" s="10"/>
       <c r="J125" s="10"/>
       <c r="K125" s="10"/>
     </row>
@@ -7358,23 +7384,25 @@
         <v>44766</v>
       </c>
       <c r="C126" s="14"/>
-      <c r="D126" s="15" t="str">
-        <f>David_Cohen</f>
-        <v>David Cohen</v>
+      <c r="D126" s="17" t="str">
+        <f>יוסי_מנשה</f>
+        <v>יוסי מנשה</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F126" s="19">
-        <v>44766</v>
+        <v>44401</v>
       </c>
       <c r="G126" s="10">
         <v>1</v>
       </c>
       <c r="H126" s="10">
-        <v>1</v>
-      </c>
-      <c r="I126" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="I126" s="10">
+        <v>2</v>
+      </c>
       <c r="J126" s="10"/>
       <c r="K126" s="10"/>
     </row>
@@ -7388,7 +7416,7 @@
         <v>David Cohen</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F127" s="19">
         <v>44766</v>
@@ -7408,12 +7436,12 @@
         <v>44766</v>
       </c>
       <c r="C128" s="14"/>
-      <c r="D128" s="17" t="str">
-        <f>Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
+      <c r="D128" s="15" t="str">
+        <f>David_Cohen</f>
+        <v>David Cohen</v>
       </c>
       <c r="E128" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F128" s="19">
         <v>44766</v>
@@ -7429,23 +7457,25 @@
       <c r="K128" s="10"/>
     </row>
     <row r="129" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="13"/>
+      <c r="B129" s="13">
+        <v>44766</v>
+      </c>
       <c r="C129" s="14"/>
-      <c r="D129" s="15" t="str">
-        <f>David_Cohen</f>
-        <v>David Cohen</v>
+      <c r="D129" s="17" t="str">
+        <f>Itzik_Ovadia</f>
+        <v>Itzik Ovadia</v>
       </c>
       <c r="E129" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F129" s="19">
-        <v>44764</v>
+        <v>44766</v>
       </c>
       <c r="G129" s="10">
         <v>1</v>
       </c>
       <c r="H129" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
@@ -7454,12 +7484,12 @@
     <row r="130" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="13"/>
       <c r="C130" s="14"/>
-      <c r="D130" s="17" t="str">
-        <f>Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
+      <c r="D130" s="15" t="str">
+        <f>David_Cohen</f>
+        <v>David Cohen</v>
       </c>
       <c r="E130" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F130" s="19">
         <v>44764</v>
@@ -7468,7 +7498,7 @@
         <v>1</v>
       </c>
       <c r="H130" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I130" s="10"/>
       <c r="J130" s="10"/>
@@ -7477,12 +7507,12 @@
     <row r="131" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="13"/>
       <c r="C131" s="14"/>
-      <c r="D131" s="15" t="str">
-        <f>David_Cohen</f>
-        <v>David Cohen</v>
+      <c r="D131" s="17" t="str">
+        <f>Itzik_Ovadia</f>
+        <v>Itzik Ovadia</v>
       </c>
       <c r="E131" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F131" s="19">
         <v>44764</v>
@@ -7491,43 +7521,43 @@
         <v>1</v>
       </c>
       <c r="H131" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="13"/>
       <c r="C132" s="14"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
+      <c r="D132" s="15" t="str">
+        <f>David_Cohen</f>
+        <v>David Cohen</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="F132" s="19">
+        <v>44764</v>
+      </c>
+      <c r="G132" s="10">
+        <v>1</v>
+      </c>
+      <c r="H132" s="10">
+        <v>2</v>
+      </c>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
       <c r="K132" s="10"/>
     </row>
     <row r="133" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="17" t="str">
-        <f>Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
-      </c>
-      <c r="E133" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="F133" s="19">
-        <v>44745</v>
-      </c>
-      <c r="G133" s="10">
-        <v>1</v>
-      </c>
-      <c r="H133" s="10">
-        <v>1</v>
-      </c>
+      <c r="B133" s="13"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
       <c r="I133" s="10"/>
       <c r="J133" s="10"/>
       <c r="K133" s="10"/>
@@ -7536,11 +7566,11 @@
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
+        <f>Itzik_Ovadia</f>
+        <v>Itzik Ovadia</v>
       </c>
       <c r="E134" s="22" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F134" s="19">
         <v>44745</v>
@@ -7563,32 +7593,30 @@
         <v>Shlomo Raviv</v>
       </c>
       <c r="E135" s="22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F135" s="19">
-        <v>44744</v>
+        <v>44745</v>
       </c>
       <c r="G135" s="10">
         <v>1</v>
       </c>
       <c r="H135" s="10">
-        <v>2</v>
-      </c>
-      <c r="I135" s="10">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" s="10"/>
       <c r="J135" s="10"/>
       <c r="K135" s="10"/>
     </row>
     <row r="136" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
-      <c r="D136" s="15" t="str">
-        <f>David_Cohen</f>
-        <v>David Cohen</v>
+      <c r="D136" s="17" t="str">
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
       </c>
       <c r="E136" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F136" s="19">
         <v>44744</v>
@@ -7599,7 +7627,9 @@
       <c r="H136" s="10">
         <v>2</v>
       </c>
-      <c r="I136" s="10"/>
+      <c r="I136" s="10">
+        <v>1</v>
+      </c>
       <c r="J136" s="10"/>
       <c r="K136" s="10"/>
     </row>
@@ -7611,7 +7641,7 @@
         <v>David Cohen</v>
       </c>
       <c r="E137" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F137" s="19">
         <v>44744</v>
@@ -7620,13 +7650,13 @@
         <v>1</v>
       </c>
       <c r="H137" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" s="10"/>
       <c r="J137" s="10"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="15" t="str">
@@ -7634,10 +7664,10 @@
         <v>David Cohen</v>
       </c>
       <c r="E138" s="22" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F138" s="19">
-        <v>44743</v>
+        <v>44744</v>
       </c>
       <c r="G138" s="10">
         <v>1</v>
@@ -7649,7 +7679,7 @@
       <c r="J138" s="10"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="15" t="str">
@@ -7657,7 +7687,7 @@
         <v>David Cohen</v>
       </c>
       <c r="E139" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F139" s="19">
         <v>44743</v>
@@ -7668,21 +7698,19 @@
       <c r="H139" s="10">
         <v>1</v>
       </c>
-      <c r="I139" s="10">
-        <v>2</v>
-      </c>
+      <c r="I139" s="10"/>
       <c r="J139" s="10"/>
       <c r="K139" s="10"/>
     </row>
     <row r="140" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
-      <c r="D140" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
+      <c r="D140" s="15" t="str">
+        <f>David_Cohen</f>
+        <v>David Cohen</v>
       </c>
       <c r="E140" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F140" s="19">
         <v>44743</v>
@@ -7691,30 +7719,32 @@
         <v>1</v>
       </c>
       <c r="H140" s="10">
-        <v>3</v>
-      </c>
-      <c r="I140" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I140" s="10">
+        <v>2</v>
+      </c>
       <c r="J140" s="10"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="17" t="str">
-        <f>Itzik_Ovadia</f>
-        <v>Itzik Ovadia</v>
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="F141" s="19">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="G141" s="10">
         <v>1</v>
       </c>
       <c r="H141" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
@@ -7723,12 +7753,12 @@
     <row r="142" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
-      <c r="D142" s="15" t="str">
-        <f>David_Cohen</f>
-        <v>David Cohen</v>
+      <c r="D142" s="17" t="str">
+        <f>Itzik_Ovadia</f>
+        <v>Itzik Ovadia</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="F142" s="19">
         <v>44742</v>
@@ -7743,7 +7773,7 @@
       <c r="J142" s="10"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="15" t="str">
@@ -7751,7 +7781,7 @@
         <v>David Cohen</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F143" s="19">
         <v>44742</v>
@@ -7760,78 +7790,74 @@
         <v>1</v>
       </c>
       <c r="H143" s="10">
-        <v>2</v>
-      </c>
-      <c r="I143" s="10">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" s="10"/>
       <c r="J143" s="10"/>
       <c r="K143" s="10"/>
     </row>
     <row r="144" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="13">
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="15" t="str">
+        <f>David_Cohen</f>
+        <v>David Cohen</v>
+      </c>
+      <c r="E144" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="F144" s="19">
         <v>44742</v>
       </c>
-      <c r="C144" s="14">
+      <c r="G144" s="10">
+        <v>1</v>
+      </c>
+      <c r="H144" s="10">
+        <v>2</v>
+      </c>
+      <c r="I144" s="10">
+        <v>2</v>
+      </c>
+      <c r="J144" s="10"/>
+      <c r="K144" s="10"/>
+    </row>
+    <row r="145" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="13">
+        <v>44742</v>
+      </c>
+      <c r="C145" s="14">
         <v>0.23611111111111113</v>
       </c>
-      <c r="D144" s="17" t="str">
+      <c r="D145" s="17" t="str">
         <f>Itzik_Ovadia</f>
         <v>Itzik Ovadia</v>
       </c>
-      <c r="E144" s="22" t="s">
+      <c r="E145" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F144" s="19">
+      <c r="F145" s="19">
         <v>44742</v>
       </c>
-      <c r="G144" s="10">
-        <v>1</v>
-      </c>
-      <c r="H144" s="10">
-        <v>1</v>
-      </c>
-      <c r="I144" s="10">
+      <c r="G145" s="10">
+        <v>1</v>
+      </c>
+      <c r="H145" s="10">
+        <v>1</v>
+      </c>
+      <c r="I145" s="10">
         <v>2</v>
       </c>
-      <c r="J144" s="10"/>
-      <c r="K144" s="10"/>
-    </row>
-    <row r="145" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="13"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="22"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="10"/>
       <c r="J145" s="10"/>
       <c r="K145" s="10"/>
     </row>
     <row r="146" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="13">
-        <v>44742</v>
-      </c>
-      <c r="C146" s="14">
-        <v>0.23680555555555557</v>
-      </c>
-      <c r="D146" s="17" t="str">
-        <f>David_Cohen</f>
-        <v>David Cohen</v>
-      </c>
-      <c r="E146" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F146" s="19">
-        <v>44741</v>
-      </c>
-      <c r="G146" s="10">
-        <v>1</v>
-      </c>
-      <c r="H146" s="10">
-        <v>1</v>
-      </c>
+      <c r="B146" s="13"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="22"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
       <c r="I146" s="10"/>
       <c r="J146" s="10"/>
       <c r="K146" s="10"/>
@@ -7841,22 +7867,23 @@
         <v>44742</v>
       </c>
       <c r="C147" s="14">
-        <v>0.2388888888888889</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>16</v>
+        <v>0.23680555555555557</v>
+      </c>
+      <c r="D147" s="17" t="str">
+        <f>David_Cohen</f>
+        <v>David Cohen</v>
       </c>
       <c r="E147" s="22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F147" s="19">
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="G147" s="10">
         <v>1</v>
       </c>
       <c r="H147" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I147" s="10"/>
       <c r="J147" s="10"/>
@@ -7864,17 +7891,16 @@
     </row>
     <row r="148" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="13">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="C148" s="14">
-        <v>0.20347222222222219</v>
-      </c>
-      <c r="D148" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
+        <v>0.2388888888888889</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="E148" s="22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F148" s="19">
         <v>44740</v>
@@ -7883,7 +7909,7 @@
         <v>1</v>
       </c>
       <c r="H148" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I148" s="10"/>
       <c r="J148" s="10"/>
@@ -7894,14 +7920,14 @@
         <v>44741</v>
       </c>
       <c r="C149" s="14">
-        <v>0.20277777777777781</v>
+        <v>0.20347222222222219</v>
       </c>
       <c r="D149" s="17" t="str">
-        <f>David_Cohen</f>
-        <v>David Cohen</v>
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
       </c>
       <c r="E149" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F149" s="19">
         <v>44740</v>
@@ -7910,7 +7936,7 @@
         <v>1</v>
       </c>
       <c r="H149" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I149" s="10"/>
       <c r="J149" s="10"/>
@@ -7921,14 +7947,14 @@
         <v>44741</v>
       </c>
       <c r="C150" s="14">
-        <v>0.20208333333333331</v>
+        <v>0.20277777777777781</v>
       </c>
       <c r="D150" s="17" t="str">
         <f>David_Cohen</f>
         <v>David Cohen</v>
       </c>
       <c r="E150" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F150" s="19">
         <v>44740</v>
@@ -7937,7 +7963,7 @@
         <v>1</v>
       </c>
       <c r="H150" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I150" s="10"/>
       <c r="J150" s="10"/>
@@ -7945,20 +7971,20 @@
     </row>
     <row r="151" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="13">
+        <v>44741</v>
+      </c>
+      <c r="C151" s="14">
+        <v>0.20208333333333331</v>
+      </c>
+      <c r="D151" s="17" t="str">
+        <f>David_Cohen</f>
+        <v>David Cohen</v>
+      </c>
+      <c r="E151" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F151" s="19">
         <v>44740</v>
-      </c>
-      <c r="C151" s="14">
-        <v>0.24236111111111111</v>
-      </c>
-      <c r="D151" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
-      </c>
-      <c r="E151" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F151" s="19">
-        <v>44738</v>
       </c>
       <c r="G151" s="10">
         <v>1</v>
@@ -7975,23 +8001,23 @@
         <v>44740</v>
       </c>
       <c r="C152" s="14">
-        <v>0.22430555555555556</v>
+        <v>0.24236111111111111</v>
       </c>
       <c r="D152" s="17" t="str">
-        <f>שירלי_תקווה_אוסי</f>
-        <v>שירלי תקווה אוסי</v>
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
       </c>
       <c r="E152" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F152" s="19">
-        <v>44739</v>
+        <v>44738</v>
       </c>
       <c r="G152" s="10">
         <v>1</v>
       </c>
       <c r="H152" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I152" s="10"/>
       <c r="J152" s="10"/>
@@ -7999,26 +8025,26 @@
     </row>
     <row r="153" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B153" s="13">
+        <v>44740</v>
+      </c>
+      <c r="C153" s="14">
+        <v>0.22430555555555556</v>
+      </c>
+      <c r="D153" s="17" t="str">
+        <f>שירלי_תקווה_אוסי</f>
+        <v>שירלי תקווה אוסי</v>
+      </c>
+      <c r="E153" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F153" s="19">
         <v>44739</v>
       </c>
-      <c r="C153" s="14">
-        <v>0.24236111111111111</v>
-      </c>
-      <c r="D153" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
-      </c>
-      <c r="E153" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F153" s="19">
-        <v>44738</v>
-      </c>
       <c r="G153" s="10">
         <v>1</v>
       </c>
       <c r="H153" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" s="10"/>
       <c r="J153" s="10"/>
@@ -8032,20 +8058,20 @@
         <v>0.24236111111111111</v>
       </c>
       <c r="D154" s="17" t="str">
-        <f>Gila_Yona</f>
-        <v>Gila Yona</v>
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
       </c>
       <c r="E154" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F154" s="19">
-        <v>44739</v>
+        <v>44738</v>
       </c>
       <c r="G154" s="10">
         <v>1</v>
       </c>
       <c r="H154" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I154" s="10"/>
       <c r="J154" s="10"/>
@@ -8056,14 +8082,14 @@
         <v>44739</v>
       </c>
       <c r="C155" s="14">
-        <v>0.24097222222222223</v>
+        <v>0.24236111111111111</v>
       </c>
       <c r="D155" s="17" t="str">
-        <f>Uri_Zamir</f>
-        <v>Uri Zamir</v>
+        <f>Gila_Yona</f>
+        <v>Gila Yona</v>
       </c>
       <c r="E155" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F155" s="19">
         <v>44739</v>
@@ -8072,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="H155" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I155" s="10"/>
       <c r="J155" s="10"/>
@@ -8086,60 +8112,60 @@
         <v>0.24097222222222223</v>
       </c>
       <c r="D156" s="17" t="str">
-        <f>אילנה_נבון</f>
-        <v>אילנה נבון</v>
+        <f>Uri_Zamir</f>
+        <v>Uri Zamir</v>
       </c>
       <c r="E156" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F156" s="19">
-        <v>44738</v>
+        <v>44739</v>
       </c>
       <c r="G156" s="10">
         <v>1</v>
       </c>
       <c r="H156" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I156" s="10"/>
       <c r="J156" s="10"/>
       <c r="K156" s="10"/>
     </row>
     <row r="157" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="23"/>
-      <c r="F157" s="24"/>
-      <c r="G157" s="10"/>
-      <c r="H157" s="10"/>
+      <c r="B157" s="13">
+        <v>44739</v>
+      </c>
+      <c r="C157" s="14">
+        <v>0.24097222222222223</v>
+      </c>
+      <c r="D157" s="17" t="str">
+        <f>אילנה_נבון</f>
+        <v>אילנה נבון</v>
+      </c>
+      <c r="E157" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F157" s="19">
+        <v>44738</v>
+      </c>
+      <c r="G157" s="10">
+        <v>1</v>
+      </c>
+      <c r="H157" s="10">
+        <v>4</v>
+      </c>
       <c r="I157" s="10"/>
       <c r="J157" s="10"/>
       <c r="K157" s="10"/>
     </row>
     <row r="158" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="13">
-        <v>44712</v>
-      </c>
-      <c r="C158" s="14">
-        <v>0.1986111111111111</v>
-      </c>
-      <c r="D158" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
-      </c>
-      <c r="E158" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F158" s="19">
-        <v>44711</v>
-      </c>
-      <c r="G158" s="10">
-        <v>1</v>
-      </c>
-      <c r="H158" s="10">
-        <v>3</v>
-      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
       <c r="I158" s="10"/>
       <c r="J158" s="10"/>
       <c r="K158" s="10"/>
@@ -8149,13 +8175,14 @@
         <v>44712</v>
       </c>
       <c r="C159" s="14">
-        <v>0.19652777777777777</v>
-      </c>
-      <c r="D159" s="17" t="s">
-        <v>18</v>
+        <v>0.1986111111111111</v>
+      </c>
+      <c r="D159" s="17" t="str">
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
       </c>
       <c r="E159" s="22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="F159" s="19">
         <v>44711</v>
@@ -8164,7 +8191,7 @@
         <v>1</v>
       </c>
       <c r="H159" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I159" s="10"/>
       <c r="J159" s="10"/>
@@ -8172,26 +8199,25 @@
     </row>
     <row r="160" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B160" s="13">
+        <v>44712</v>
+      </c>
+      <c r="C160" s="14">
+        <v>0.19652777777777777</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F160" s="19">
         <v>44711</v>
       </c>
-      <c r="C160" s="14">
-        <v>0.21527777777777779</v>
-      </c>
-      <c r="D160" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
-      </c>
-      <c r="E160" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="F160" s="19">
-        <v>44710</v>
-      </c>
       <c r="G160" s="10">
         <v>1</v>
       </c>
       <c r="H160" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I160" s="10"/>
       <c r="J160" s="10"/>
@@ -8202,13 +8228,14 @@
         <v>44711</v>
       </c>
       <c r="C161" s="14">
-        <v>0.21111111111111111</v>
-      </c>
-      <c r="D161" s="17" t="s">
-        <v>18</v>
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="D161" s="17" t="str">
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
       </c>
       <c r="E161" s="22" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="F161" s="19">
         <v>44710</v>
@@ -8228,71 +8255,71 @@
         <v>44711</v>
       </c>
       <c r="C162" s="14">
-        <v>0.20972222222222223</v>
+        <v>0.21111111111111111</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="E162" s="22" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="F162" s="19">
         <v>44710</v>
       </c>
-      <c r="G162" s="10"/>
-      <c r="H162" s="10"/>
+      <c r="G162" s="10">
+        <v>1</v>
+      </c>
+      <c r="H162" s="10">
+        <v>3</v>
+      </c>
       <c r="I162" s="10"/>
       <c r="J162" s="10"/>
       <c r="K162" s="10"/>
     </row>
     <row r="163" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B163" s="13">
+        <v>44711</v>
+      </c>
+      <c r="C163" s="14">
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F163" s="19">
         <v>44710</v>
       </c>
-      <c r="C163" s="14">
-        <v>0.23472222222222222</v>
-      </c>
-      <c r="D163" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
-      </c>
-      <c r="E163" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F163" s="19">
-        <v>44709</v>
-      </c>
-      <c r="G163" s="10">
-        <v>1</v>
-      </c>
-      <c r="H163" s="10">
-        <v>6</v>
-      </c>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
       <c r="I163" s="10"/>
       <c r="J163" s="10"/>
       <c r="K163" s="10"/>
     </row>
     <row r="164" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B164" s="13">
+        <v>44710</v>
+      </c>
+      <c r="C164" s="14">
+        <v>0.23472222222222222</v>
+      </c>
+      <c r="D164" s="17" t="str">
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
+      </c>
+      <c r="E164" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F164" s="19">
         <v>44709</v>
       </c>
-      <c r="C164" s="14">
-        <v>0.2986111111111111</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E164" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F164" s="19">
-        <v>44708</v>
-      </c>
       <c r="G164" s="10">
         <v>1</v>
       </c>
       <c r="H164" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I164" s="10"/>
       <c r="J164" s="10"/>
@@ -8300,25 +8327,25 @@
     </row>
     <row r="165" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B165" s="13">
-        <v>44707</v>
+        <v>44709</v>
       </c>
       <c r="C165" s="14">
-        <v>0.22152777777777777</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E165" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F165" s="19">
-        <v>44706</v>
+        <v>44708</v>
       </c>
       <c r="G165" s="10">
         <v>1</v>
       </c>
       <c r="H165" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" s="10"/>
       <c r="J165" s="10"/>
@@ -8326,25 +8353,25 @@
     </row>
     <row r="166" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="13">
+        <v>44707</v>
+      </c>
+      <c r="C166" s="14">
+        <v>0.22152777777777777</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F166" s="19">
         <v>44706</v>
       </c>
-      <c r="C166" s="14">
-        <v>0.21875</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E166" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F166" s="19">
-        <v>44705</v>
-      </c>
       <c r="G166" s="10">
         <v>1</v>
       </c>
       <c r="H166" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I166" s="10"/>
       <c r="J166" s="10"/>
@@ -8355,65 +8382,69 @@
         <v>44706</v>
       </c>
       <c r="C167" s="14">
-        <v>0.21111111111111111</v>
-      </c>
-      <c r="D167" s="17"/>
+        <v>0.21875</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="E167" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F167" s="19">
         <v>44705</v>
       </c>
-      <c r="G167" s="10"/>
-      <c r="H167" s="10"/>
+      <c r="G167" s="10">
+        <v>1</v>
+      </c>
+      <c r="H167" s="10">
+        <v>6</v>
+      </c>
       <c r="I167" s="10"/>
       <c r="J167" s="10"/>
       <c r="K167" s="10"/>
     </row>
     <row r="168" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B168" s="13">
-        <v>44705</v>
+        <v>44706</v>
       </c>
       <c r="C168" s="14">
-        <v>0.23958333333333334</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>8</v>
-      </c>
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="D168" s="17"/>
       <c r="E168" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F168" s="19">
         <v>44705</v>
       </c>
-      <c r="G168" s="10">
-        <v>1</v>
-      </c>
-      <c r="H168" s="10">
-        <v>1</v>
-      </c>
+      <c r="G168" s="10"/>
+      <c r="H168" s="10"/>
       <c r="I168" s="10"/>
       <c r="J168" s="10"/>
       <c r="K168" s="10"/>
     </row>
     <row r="169" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="13">
-        <v>44704</v>
+        <v>44705</v>
       </c>
       <c r="C169" s="14">
-        <v>0.25833333333333336</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E169" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F169" s="19">
-        <v>44701</v>
-      </c>
-      <c r="G169" s="10"/>
-      <c r="H169" s="10"/>
+        <v>44705</v>
+      </c>
+      <c r="G169" s="10">
+        <v>1</v>
+      </c>
+      <c r="H169" s="10">
+        <v>1</v>
+      </c>
       <c r="I169" s="10"/>
       <c r="J169" s="10"/>
       <c r="K169" s="10"/>
@@ -8423,23 +8454,19 @@
         <v>44704</v>
       </c>
       <c r="C170" s="14">
-        <v>0.29583333333333334</v>
+        <v>0.25833333333333336</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E170" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F170" s="19">
-        <v>42753</v>
-      </c>
-      <c r="G170" s="10">
-        <v>1</v>
-      </c>
-      <c r="H170" s="10">
-        <v>6</v>
-      </c>
+        <v>44701</v>
+      </c>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
       <c r="I170" s="10"/>
       <c r="J170" s="10"/>
       <c r="K170" s="10"/>
@@ -8449,78 +8476,78 @@
         <v>44704</v>
       </c>
       <c r="C171" s="14">
-        <v>0.23194444444444445</v>
+        <v>0.29583333333333334</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E171" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F171" s="19">
-        <v>44704</v>
+        <v>42753</v>
       </c>
       <c r="G171" s="10">
         <v>1</v>
       </c>
       <c r="H171" s="10">
-        <v>1</v>
-      </c>
-      <c r="I171" s="10">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I171" s="10"/>
       <c r="J171" s="10"/>
-      <c r="K171" s="10">
-        <v>158</v>
-      </c>
+      <c r="K171" s="10"/>
     </row>
     <row r="172" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B172" s="13">
-        <v>44703</v>
+        <v>44704</v>
       </c>
       <c r="C172" s="14">
-        <v>0.22847222222222222</v>
+        <v>0.23194444444444445</v>
       </c>
       <c r="D172" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E172" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F172" s="19">
-        <v>44703</v>
+        <v>44704</v>
       </c>
       <c r="G172" s="10">
         <v>1</v>
       </c>
       <c r="H172" s="10">
+        <v>1</v>
+      </c>
+      <c r="I172" s="10">
         <v>2</v>
       </c>
-      <c r="I172" s="10"/>
       <c r="J172" s="10"/>
-      <c r="K172" s="10"/>
+      <c r="K172" s="10">
+        <v>158</v>
+      </c>
     </row>
     <row r="173" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B173" s="13">
-        <v>44700</v>
+        <v>44703</v>
       </c>
       <c r="C173" s="14">
-        <v>0.2326388888888889</v>
+        <v>0.22847222222222222</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E173" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F173" s="19">
-        <v>44698</v>
+        <v>44703</v>
       </c>
       <c r="G173" s="10">
         <v>1</v>
       </c>
       <c r="H173" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I173" s="10"/>
       <c r="J173" s="10"/>
@@ -8528,25 +8555,25 @@
     </row>
     <row r="174" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B174" s="13">
-        <v>44699</v>
+        <v>44700</v>
       </c>
       <c r="C174" s="14">
-        <v>0.27569444444444446</v>
+        <v>0.2326388888888889</v>
       </c>
       <c r="D174" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E174" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F174" s="19">
-        <v>42675</v>
+        <v>44698</v>
       </c>
       <c r="G174" s="10">
         <v>1</v>
       </c>
       <c r="H174" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I174" s="10"/>
       <c r="J174" s="10"/>
@@ -8557,23 +8584,22 @@
         <v>44699</v>
       </c>
       <c r="C175" s="14">
-        <v>0.24166666666666667</v>
-      </c>
-      <c r="D175" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="E175" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F175" s="19">
-        <v>44698</v>
+        <v>42675</v>
       </c>
       <c r="G175" s="10">
         <v>1</v>
       </c>
       <c r="H175" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I175" s="10"/>
       <c r="J175" s="10"/>
@@ -8586,11 +8612,12 @@
       <c r="C176" s="14">
         <v>0.24166666666666667</v>
       </c>
-      <c r="D176" s="17" t="s">
-        <v>18</v>
+      <c r="D176" s="17" t="str">
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
       </c>
       <c r="E176" s="22" t="s">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="F176" s="19">
         <v>44698</v>
@@ -8599,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="H176" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I176" s="10"/>
       <c r="J176" s="10"/>
@@ -8607,25 +8634,25 @@
     </row>
     <row r="177" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B177" s="13">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="C177" s="14">
-        <v>0.20833333333333334</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="D177" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E177" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F177" s="19">
-        <v>44697</v>
+        <v>44698</v>
       </c>
       <c r="G177" s="10">
         <v>1</v>
       </c>
       <c r="H177" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I177" s="10"/>
       <c r="J177" s="10"/>
@@ -8636,13 +8663,13 @@
         <v>44698</v>
       </c>
       <c r="C178" s="14">
-        <v>0.20694444444444443</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E178" s="22" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="F178" s="19">
         <v>44697</v>
@@ -8651,7 +8678,7 @@
         <v>1</v>
       </c>
       <c r="H178" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I178" s="10"/>
       <c r="J178" s="10"/>
@@ -8659,30 +8686,27 @@
     </row>
     <row r="179" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="13">
+        <v>44698</v>
+      </c>
+      <c r="C179" s="14">
+        <v>0.20694444444444443</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F179" s="19">
         <v>44697</v>
       </c>
-      <c r="C179" s="14">
-        <v>0.25486111111111109</v>
-      </c>
-      <c r="D179" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
-      </c>
-      <c r="E179" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F179" s="19">
-        <v>44695</v>
-      </c>
       <c r="G179" s="10">
         <v>1</v>
       </c>
       <c r="H179" s="10">
-        <v>2</v>
-      </c>
-      <c r="I179" s="10">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I179" s="10"/>
       <c r="J179" s="10"/>
       <c r="K179" s="10"/>
     </row>
@@ -8693,11 +8717,12 @@
       <c r="C180" s="14">
         <v>0.25486111111111109</v>
       </c>
-      <c r="D180" s="17" t="s">
-        <v>51</v>
+      <c r="D180" s="17" t="str">
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
       </c>
       <c r="E180" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F180" s="19">
         <v>44695</v>
@@ -8706,33 +8731,35 @@
         <v>1</v>
       </c>
       <c r="H180" s="10">
-        <v>3</v>
-      </c>
-      <c r="I180" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="I180" s="10">
+        <v>2</v>
+      </c>
       <c r="J180" s="10"/>
       <c r="K180" s="10"/>
     </row>
     <row r="181" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B181" s="13">
-        <v>44696</v>
+        <v>44697</v>
       </c>
       <c r="C181" s="14">
-        <v>0.60486111111111107</v>
+        <v>0.25486111111111109</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E181" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F181" s="19">
-        <v>44696</v>
+        <v>44695</v>
       </c>
       <c r="G181" s="10">
         <v>1</v>
       </c>
       <c r="H181" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I181" s="10"/>
       <c r="J181" s="10"/>
@@ -8743,13 +8770,13 @@
         <v>44696</v>
       </c>
       <c r="C182" s="14">
-        <v>0.60347222222222219</v>
+        <v>0.60486111111111107</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E182" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F182" s="19">
         <v>44696</v>
@@ -8758,7 +8785,7 @@
         <v>1</v>
       </c>
       <c r="H182" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I182" s="10"/>
       <c r="J182" s="10"/>
@@ -8772,10 +8799,10 @@
         <v>0.60347222222222219</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E183" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F183" s="19">
         <v>44696</v>
@@ -8795,22 +8822,22 @@
         <v>44696</v>
       </c>
       <c r="C184" s="14">
-        <v>0.21944444444444444</v>
+        <v>0.60347222222222219</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E184" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F184" s="19">
-        <v>44695</v>
+        <v>44696</v>
       </c>
       <c r="G184" s="10">
         <v>1</v>
       </c>
       <c r="H184" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I184" s="10"/>
       <c r="J184" s="10"/>
@@ -8818,19 +8845,19 @@
     </row>
     <row r="185" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B185" s="13">
+        <v>44696</v>
+      </c>
+      <c r="C185" s="14">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E185" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F185" s="19">
         <v>44695</v>
-      </c>
-      <c r="C185" s="14">
-        <v>0.78680555555555554</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E185" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F185" s="19">
-        <v>44377</v>
       </c>
       <c r="G185" s="10">
         <v>1</v>
@@ -8844,25 +8871,25 @@
     </row>
     <row r="186" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B186" s="13">
-        <v>44694</v>
+        <v>44695</v>
       </c>
       <c r="C186" s="14">
-        <v>0.69791666666666663</v>
+        <v>0.78680555555555554</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E186" s="22" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F186" s="19">
-        <v>42345</v>
+        <v>44377</v>
       </c>
       <c r="G186" s="10">
         <v>1</v>
       </c>
       <c r="H186" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" s="10"/>
       <c r="J186" s="10"/>
@@ -8873,22 +8900,22 @@
         <v>44694</v>
       </c>
       <c r="C187" s="14">
-        <v>0.25833333333333336</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E187" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F187" s="19">
-        <v>44693</v>
+        <v>42345</v>
       </c>
       <c r="G187" s="10">
         <v>1</v>
       </c>
       <c r="H187" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I187" s="10"/>
       <c r="J187" s="10"/>
@@ -8896,25 +8923,25 @@
     </row>
     <row r="188" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B188" s="13">
+        <v>44694</v>
+      </c>
+      <c r="C188" s="14">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="D188" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F188" s="19">
         <v>44693</v>
       </c>
-      <c r="C188" s="14">
-        <v>0.23472222222222222</v>
-      </c>
-      <c r="D188" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E188" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F188" s="19">
-        <v>44692</v>
-      </c>
       <c r="G188" s="10">
         <v>1</v>
       </c>
       <c r="H188" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I188" s="10"/>
       <c r="J188" s="10"/>
@@ -8922,26 +8949,25 @@
     </row>
     <row r="189" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B189" s="13">
+        <v>44693</v>
+      </c>
+      <c r="C189" s="14">
+        <v>0.23472222222222222</v>
+      </c>
+      <c r="D189" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E189" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F189" s="19">
         <v>44692</v>
       </c>
-      <c r="C189" s="14">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="D189" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
-      </c>
-      <c r="E189" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F189" s="19">
-        <v>44691</v>
-      </c>
       <c r="G189" s="10">
         <v>1</v>
       </c>
       <c r="H189" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" s="10"/>
       <c r="J189" s="10"/>
@@ -8952,16 +8978,17 @@
         <v>44692</v>
       </c>
       <c r="C190" s="14">
-        <v>0.22430555555555556</v>
-      </c>
-      <c r="D190" s="17" t="s">
-        <v>12</v>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D190" s="17" t="str">
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
       </c>
       <c r="E190" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F190" s="19">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="G190" s="10">
         <v>1</v>
@@ -8973,54 +9000,53 @@
       <c r="J190" s="10"/>
       <c r="K190" s="10"/>
     </row>
-    <row r="191" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B191" s="13">
         <v>44692</v>
       </c>
       <c r="C191" s="14">
-        <v>0.22222222222222221</v>
+        <v>0.22430555555555556</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E191" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F191" s="19">
-        <v>44691</v>
+        <v>44690</v>
       </c>
       <c r="G191" s="10">
         <v>1</v>
       </c>
       <c r="H191" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I191" s="10"/>
       <c r="J191" s="10"/>
       <c r="K191" s="10"/>
     </row>
-    <row r="192" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B192" s="13">
+        <v>44692</v>
+      </c>
+      <c r="C192" s="14">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D192" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E192" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F192" s="19">
         <v>44691</v>
       </c>
-      <c r="C192" s="14">
-        <v>0.23194444444444445</v>
-      </c>
-      <c r="D192" s="17" t="str">
-        <f>Shlomo_Raviv</f>
-        <v>Shlomo Raviv</v>
-      </c>
-      <c r="E192" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F192" s="19">
-        <v>44690</v>
-      </c>
       <c r="G192" s="10">
         <v>1</v>
       </c>
       <c r="H192" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I192" s="10"/>
       <c r="J192" s="10"/>
@@ -9031,13 +9057,14 @@
         <v>44691</v>
       </c>
       <c r="C193" s="14">
-        <v>0.23125000000000001</v>
-      </c>
-      <c r="D193" s="17" t="s">
-        <v>0</v>
+        <v>0.23194444444444445</v>
+      </c>
+      <c r="D193" s="17" t="str">
+        <f>Shlomo_Raviv</f>
+        <v>Shlomo Raviv</v>
       </c>
       <c r="E193" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F193" s="19">
         <v>44690</v>
@@ -9046,7 +9073,7 @@
         <v>1</v>
       </c>
       <c r="H193" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I193" s="10"/>
       <c r="J193" s="10"/>
@@ -9057,16 +9084,16 @@
         <v>44691</v>
       </c>
       <c r="C194" s="14">
-        <v>0.2298611111111111</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E194" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F194" s="19">
-        <v>44691</v>
+        <v>44690</v>
       </c>
       <c r="G194" s="10">
         <v>1</v>
@@ -9080,25 +9107,25 @@
     </row>
     <row r="195" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B195" s="13">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="C195" s="14">
-        <v>0.23680555555555555</v>
+        <v>0.2298611111111111</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="E195" s="22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F195" s="19">
-        <v>44689</v>
+        <v>44691</v>
       </c>
       <c r="G195" s="10">
         <v>1</v>
       </c>
       <c r="H195" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I195" s="10"/>
       <c r="J195" s="10"/>
@@ -9109,13 +9136,13 @@
         <v>44690</v>
       </c>
       <c r="C196" s="14">
-        <v>0.2361111111111111</v>
+        <v>0.23680555555555555</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E196" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F196" s="19">
         <v>44689</v>
@@ -9132,25 +9159,25 @@
     </row>
     <row r="197" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B197" s="13">
-        <v>44687</v>
+        <v>44690</v>
       </c>
       <c r="C197" s="14">
-        <v>0.20972222222222223</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="E197" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F197" s="19">
-        <v>44686</v>
+        <v>44689</v>
       </c>
       <c r="G197" s="10">
         <v>1</v>
       </c>
       <c r="H197" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I197" s="10"/>
       <c r="J197" s="10"/>
@@ -9158,73 +9185,73 @@
     </row>
     <row r="198" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B198" s="13">
+        <v>44687</v>
+      </c>
+      <c r="C198" s="14">
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="D198" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E198" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F198" s="19">
         <v>44686</v>
       </c>
-      <c r="C198" s="14">
-        <v>0.28611111111111109</v>
-      </c>
-      <c r="D198" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E198" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F198" s="19">
-        <v>44685</v>
-      </c>
       <c r="G198" s="10">
         <v>1</v>
       </c>
       <c r="H198" s="10">
-        <v>2</v>
-      </c>
-      <c r="I198" s="10">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I198" s="10"/>
       <c r="J198" s="10"/>
       <c r="K198" s="10"/>
     </row>
     <row r="199" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B199" s="13">
+        <v>44686</v>
+      </c>
+      <c r="C199" s="14">
+        <v>0.28611111111111109</v>
+      </c>
+      <c r="D199" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F199" s="19">
         <v>44685</v>
       </c>
-      <c r="C199" s="14">
-        <v>0.25486111111111109</v>
-      </c>
-      <c r="D199" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E199" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F199" s="19">
-        <v>42361</v>
-      </c>
       <c r="G199" s="10">
         <v>1</v>
       </c>
       <c r="H199" s="10">
-        <v>6</v>
-      </c>
-      <c r="I199" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="I199" s="10">
+        <v>2</v>
+      </c>
       <c r="J199" s="10"/>
       <c r="K199" s="10"/>
     </row>
     <row r="200" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B200" s="13">
-        <v>44684</v>
+        <v>44685</v>
       </c>
       <c r="C200" s="14">
-        <v>0.29930555555555555</v>
+        <v>0.25486111111111109</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="E200" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F200" s="19">
-        <v>44204</v>
+        <v>42361</v>
       </c>
       <c r="G200" s="10">
         <v>1</v>
@@ -9241,13 +9268,13 @@
         <v>44684</v>
       </c>
       <c r="C201" s="14">
-        <v>0.29652777777777778</v>
+        <v>0.29930555555555555</v>
       </c>
       <c r="D201" s="17" t="s">
         <v>107</v>
       </c>
       <c r="E201" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F201" s="19">
         <v>44204</v>
@@ -9267,16 +9294,16 @@
         <v>44684</v>
       </c>
       <c r="C202" s="14">
-        <v>0.28402777777777777</v>
+        <v>0.29652777777777778</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E202" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F202" s="19">
-        <v>41816</v>
+        <v>44204</v>
       </c>
       <c r="G202" s="10">
         <v>1</v>
@@ -9293,16 +9320,16 @@
         <v>44684</v>
       </c>
       <c r="C203" s="14">
-        <v>0.28333333333333333</v>
+        <v>0.28402777777777777</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E203" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F203" s="19">
-        <v>42173</v>
+        <v>41816</v>
       </c>
       <c r="G203" s="10">
         <v>1</v>
@@ -9319,16 +9346,16 @@
         <v>44684</v>
       </c>
       <c r="C204" s="14">
-        <v>0.28125</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E204" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F204" s="19">
-        <v>41985</v>
+        <v>42173</v>
       </c>
       <c r="G204" s="10">
         <v>1</v>
@@ -9345,16 +9372,16 @@
         <v>44684</v>
       </c>
       <c r="C205" s="14">
-        <v>0.28055555555555556</v>
+        <v>0.28125</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E205" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F205" s="19">
-        <v>44222</v>
+        <v>41985</v>
       </c>
       <c r="G205" s="10">
         <v>1</v>
@@ -9371,22 +9398,22 @@
         <v>44684</v>
       </c>
       <c r="C206" s="14">
-        <v>0.27638888888888891</v>
+        <v>0.28055555555555556</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E206" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F206" s="19">
-        <v>41793</v>
+        <v>44222</v>
       </c>
       <c r="G206" s="10">
         <v>1</v>
       </c>
       <c r="H206" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I206" s="10"/>
       <c r="J206" s="10"/>
@@ -9394,25 +9421,25 @@
     </row>
     <row r="207" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B207" s="13">
-        <v>44683</v>
+        <v>44684</v>
       </c>
       <c r="C207" s="14">
-        <v>0.70208333333333328</v>
+        <v>0.27638888888888891</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="E207" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F207" s="19">
-        <v>44032</v>
+        <v>41793</v>
       </c>
       <c r="G207" s="10">
         <v>1</v>
       </c>
       <c r="H207" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I207" s="10"/>
       <c r="J207" s="10"/>
@@ -9420,19 +9447,19 @@
     </row>
     <row r="208" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B208" s="13">
-        <v>44682</v>
+        <v>44683</v>
       </c>
       <c r="C208" s="14">
-        <v>0.8833333333333333</v>
+        <v>0.70208333333333328</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="E208" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F208" s="19">
-        <v>42602</v>
+        <v>44032</v>
       </c>
       <c r="G208" s="10">
         <v>1</v>
@@ -9449,16 +9476,16 @@
         <v>44682</v>
       </c>
       <c r="C209" s="14">
-        <v>0.70486111111111116</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E209" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F209" s="19">
-        <v>44305</v>
+        <v>42602</v>
       </c>
       <c r="G209" s="10">
         <v>1</v>
@@ -9472,25 +9499,25 @@
     </row>
     <row r="210" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B210" s="13">
-        <v>44681</v>
+        <v>44682</v>
       </c>
       <c r="C210" s="14">
-        <v>0.22291666666666668</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="E210" s="22" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="F210" s="19">
-        <v>44680</v>
+        <v>44305</v>
       </c>
       <c r="G210" s="10">
         <v>1</v>
       </c>
       <c r="H210" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I210" s="10"/>
       <c r="J210" s="10"/>
@@ -9501,13 +9528,13 @@
         <v>44681</v>
       </c>
       <c r="C211" s="14">
-        <v>0.22222222222222221</v>
+        <v>0.22291666666666668</v>
       </c>
       <c r="D211" s="17" t="s">
         <v>4</v>
       </c>
       <c r="E211" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F211" s="19">
         <v>44680</v>
@@ -9518,24 +9545,22 @@
       <c r="H211" s="10">
         <v>2</v>
       </c>
-      <c r="I211" s="10">
-        <v>2</v>
-      </c>
+      <c r="I211" s="10"/>
       <c r="J211" s="10"/>
       <c r="K211" s="10"/>
     </row>
     <row r="212" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B212" s="13">
-        <v>44680</v>
+        <v>44681</v>
       </c>
       <c r="C212" s="14">
-        <v>0.28888888888888886</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="E212" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F212" s="19">
         <v>44680</v>
@@ -9544,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="H212" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" s="10">
         <v>2</v>
@@ -9554,25 +9579,25 @@
     </row>
     <row r="213" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B213" s="13">
-        <v>44678</v>
+        <v>44680</v>
       </c>
       <c r="C213" s="14">
-        <v>0.21666666666666667</v>
+        <v>0.28888888888888886</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E213" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F213" s="19">
-        <v>44675</v>
+        <v>44680</v>
       </c>
       <c r="G213" s="10">
         <v>1</v>
       </c>
       <c r="H213" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" s="10">
         <v>2</v>
@@ -9580,18 +9605,18 @@
       <c r="J213" s="10"/>
       <c r="K213" s="10"/>
     </row>
-    <row r="214" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B214" s="13">
         <v>44678</v>
       </c>
       <c r="C214" s="14">
-        <v>0.21527777777777779</v>
-      </c>
-      <c r="D214" s="25" t="s">
-        <v>84</v>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="E214" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F214" s="19">
         <v>44675</v>
@@ -9600,27 +9625,29 @@
         <v>1</v>
       </c>
       <c r="H214" s="10">
-        <v>6</v>
-      </c>
-      <c r="I214" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="I214" s="10">
+        <v>2</v>
+      </c>
       <c r="J214" s="10"/>
       <c r="K214" s="10"/>
     </row>
-    <row r="215" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B215" s="13">
         <v>44678</v>
       </c>
       <c r="C215" s="14">
-        <v>0.21319444444444444</v>
-      </c>
-      <c r="D215" s="17" t="s">
-        <v>86</v>
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="D215" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="E215" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F215" s="19">
-        <v>44676</v>
+        <v>44675</v>
       </c>
       <c r="G215" s="10">
         <v>1</v>
@@ -9640,10 +9667,10 @@
         <v>0.21319444444444444</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="E216" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F216" s="19">
         <v>44676</v>
@@ -9652,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="H216" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I216" s="10"/>
       <c r="J216" s="10"/>
@@ -9663,22 +9690,22 @@
         <v>44678</v>
       </c>
       <c r="C217" s="14">
-        <v>0.20972222222222223</v>
+        <v>0.21319444444444444</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="E217" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F217" s="19">
-        <v>44675</v>
+        <v>44676</v>
       </c>
       <c r="G217" s="10">
         <v>1</v>
       </c>
       <c r="H217" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I217" s="10"/>
       <c r="J217" s="10"/>
@@ -9686,79 +9713,79 @@
     </row>
     <row r="218" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B218" s="13">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="C218" s="14">
-        <v>0.21597222222222223</v>
+        <v>0.20972222222222223</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="E218" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F218" s="19">
-        <v>44676</v>
+        <v>44675</v>
       </c>
       <c r="G218" s="10">
         <v>1</v>
       </c>
       <c r="H218" s="10">
-        <v>2</v>
-      </c>
-      <c r="I218" s="10">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I218" s="10"/>
       <c r="J218" s="10"/>
       <c r="K218" s="10"/>
     </row>
-    <row r="219" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B219" s="13">
+        <v>44677</v>
+      </c>
+      <c r="C219" s="14">
+        <v>0.21597222222222223</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E219" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F219" s="19">
         <v>44676</v>
       </c>
-      <c r="C219" s="14">
-        <v>0.26944444444444443</v>
-      </c>
-      <c r="D219" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E219" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F219" s="19">
-        <v>44491</v>
-      </c>
       <c r="G219" s="10">
         <v>1</v>
       </c>
       <c r="H219" s="10">
-        <v>6</v>
-      </c>
-      <c r="I219" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="I219" s="10">
+        <v>1</v>
+      </c>
       <c r="J219" s="10"/>
       <c r="K219" s="10"/>
     </row>
-    <row r="220" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B220" s="13">
-        <v>44675</v>
+        <v>44676</v>
       </c>
       <c r="C220" s="14">
-        <v>0.22847222222222222</v>
+        <v>0.26944444444444443</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E220" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F220" s="19">
-        <v>44674</v>
+        <v>44491</v>
       </c>
       <c r="G220" s="10">
         <v>1</v>
       </c>
       <c r="H220" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I220" s="10"/>
       <c r="J220" s="10"/>
@@ -9772,10 +9799,10 @@
         <v>0.22847222222222222</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E221" s="22" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F221" s="19">
         <v>44674</v>
@@ -9786,59 +9813,59 @@
       <c r="H221" s="10">
         <v>2</v>
       </c>
-      <c r="I221" s="10">
-        <v>2</v>
-      </c>
+      <c r="I221" s="10"/>
       <c r="J221" s="10"/>
       <c r="K221" s="10"/>
     </row>
     <row r="222" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B222" s="13">
+        <v>44675</v>
+      </c>
+      <c r="C222" s="14">
+        <v>0.22847222222222222</v>
+      </c>
+      <c r="D222" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E222" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F222" s="19">
         <v>44674</v>
       </c>
-      <c r="C222" s="14">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="D222" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E222" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F222" s="19">
-        <v>44673</v>
-      </c>
       <c r="G222" s="10">
         <v>1</v>
       </c>
       <c r="H222" s="10">
-        <v>6</v>
-      </c>
-      <c r="I222" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="I222" s="10">
+        <v>2</v>
+      </c>
       <c r="J222" s="10"/>
       <c r="K222" s="10"/>
     </row>
     <row r="223" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B223" s="13">
-        <v>44672</v>
+        <v>44674</v>
       </c>
       <c r="C223" s="14">
-        <v>0.46527777777777779</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E223" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F223" s="19">
-        <v>44521</v>
+        <v>44673</v>
       </c>
       <c r="G223" s="10">
         <v>1</v>
       </c>
       <c r="H223" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I223" s="10"/>
       <c r="J223" s="10"/>
@@ -9849,67 +9876,67 @@
         <v>44672</v>
       </c>
       <c r="C224" s="14">
-        <v>0.23749999999999999</v>
+        <v>0.46527777777777779</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E224" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F224" s="19">
-        <v>44671</v>
+        <v>44521</v>
       </c>
       <c r="G224" s="10">
         <v>1</v>
       </c>
       <c r="H224" s="10">
-        <v>2</v>
-      </c>
-      <c r="I224" s="10">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I224" s="10"/>
       <c r="J224" s="10"/>
       <c r="K224" s="10"/>
     </row>
     <row r="225" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B225" s="13">
-        <v>44669</v>
+        <v>44672</v>
       </c>
       <c r="C225" s="14">
-        <v>0.28263888888888888</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E225" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F225" s="19">
-        <v>44668</v>
+        <v>44671</v>
       </c>
       <c r="G225" s="10">
         <v>1</v>
       </c>
       <c r="H225" s="10">
-        <v>3</v>
-      </c>
-      <c r="I225" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="I225" s="10">
+        <v>2</v>
+      </c>
       <c r="J225" s="10"/>
       <c r="K225" s="10"/>
     </row>
     <row r="226" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B226" s="13">
-        <v>44668</v>
+        <v>44669</v>
       </c>
       <c r="C226" s="14">
-        <v>0.23402777777777778</v>
+        <v>0.28263888888888888</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E226" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F226" s="19">
         <v>44668</v>
@@ -9918,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="H226" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I226" s="10"/>
       <c r="J226" s="10"/>
@@ -9929,22 +9956,22 @@
         <v>44668</v>
       </c>
       <c r="C227" s="14">
-        <v>0.23333333333333334</v>
+        <v>0.23402777777777778</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E227" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F227" s="19">
-        <v>44667</v>
+        <v>44668</v>
       </c>
       <c r="G227" s="10">
         <v>1</v>
       </c>
       <c r="H227" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I227" s="10"/>
       <c r="J227" s="10"/>
@@ -9952,25 +9979,25 @@
     </row>
     <row r="228" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B228" s="13">
-        <v>44666</v>
+        <v>44668</v>
       </c>
       <c r="C228" s="14">
-        <v>0.3</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="D228" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E228" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F228" s="19">
-        <v>44665</v>
+        <v>44667</v>
       </c>
       <c r="G228" s="10">
         <v>1</v>
       </c>
       <c r="H228" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I228" s="10"/>
       <c r="J228" s="10"/>
@@ -9978,19 +10005,19 @@
     </row>
     <row r="229" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B229" s="13">
-        <v>44664</v>
+        <v>44666</v>
       </c>
       <c r="C229" s="14">
-        <v>0.29652777777777778</v>
+        <v>0.3</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="E229" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F229" s="19">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="G229" s="10">
         <v>1</v>
@@ -10010,13 +10037,13 @@
         <v>0.29652777777777778</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="E230" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F230" s="19">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="G230" s="10">
         <v>1</v>
@@ -10030,25 +10057,25 @@
     </row>
     <row r="231" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B231" s="13">
+        <v>44664</v>
+      </c>
+      <c r="C231" s="14">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="D231" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E231" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F231" s="19">
         <v>44663</v>
       </c>
-      <c r="C231" s="14">
-        <v>0.76944444444444449</v>
-      </c>
-      <c r="D231" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E231" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F231" s="19">
-        <v>42555</v>
-      </c>
       <c r="G231" s="10">
         <v>1</v>
       </c>
       <c r="H231" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I231" s="10"/>
       <c r="J231" s="10"/>
@@ -10056,25 +10083,25 @@
     </row>
     <row r="232" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B232" s="13">
-        <v>44661</v>
+        <v>44663</v>
       </c>
       <c r="C232" s="14">
-        <v>0.46319444444444446</v>
-      </c>
-      <c r="D232" s="17" t="s">
-        <v>126</v>
+        <v>0.76944444444444449</v>
+      </c>
+      <c r="D232" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="E232" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F232" s="19">
-        <v>41797</v>
+        <v>42555</v>
       </c>
       <c r="G232" s="10">
         <v>1</v>
       </c>
       <c r="H232" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I232" s="10"/>
       <c r="J232" s="10"/>
@@ -10082,19 +10109,19 @@
     </row>
     <row r="233" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B233" s="13">
-        <v>44659</v>
+        <v>44661</v>
       </c>
       <c r="C233" s="14">
-        <v>0.25416666666666665</v>
+        <v>0.46319444444444446</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E233" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F233" s="19">
-        <v>44659</v>
+        <v>41797</v>
       </c>
       <c r="G233" s="10">
         <v>1</v>
@@ -10111,22 +10138,22 @@
         <v>44659</v>
       </c>
       <c r="C234" s="14">
-        <v>0.30138888888888887</v>
+        <v>0.25416666666666665</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="E234" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F234" s="19">
-        <v>44655</v>
+        <v>44659</v>
       </c>
       <c r="G234" s="10">
         <v>1</v>
       </c>
       <c r="H234" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I234" s="10"/>
       <c r="J234" s="10"/>
@@ -10134,25 +10161,25 @@
     </row>
     <row r="235" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B235" s="13">
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="C235" s="14">
-        <v>0.22430555555555556</v>
+        <v>0.30138888888888887</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="E235" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F235" s="19">
-        <v>44656</v>
+        <v>44655</v>
       </c>
       <c r="G235" s="10">
         <v>1</v>
       </c>
       <c r="H235" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I235" s="10"/>
       <c r="J235" s="10"/>
@@ -10166,10 +10193,10 @@
         <v>0.22430555555555556</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="E236" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F236" s="19">
         <v>44656</v>
@@ -10178,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="H236" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" s="10"/>
       <c r="J236" s="10"/>
@@ -10189,22 +10216,22 @@
         <v>44657</v>
       </c>
       <c r="C237" s="14">
-        <v>0.21875</v>
+        <v>0.22430555555555556</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E237" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F237" s="19">
-        <v>44657</v>
+        <v>44656</v>
       </c>
       <c r="G237" s="10">
         <v>1</v>
       </c>
       <c r="H237" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I237" s="10"/>
       <c r="J237" s="10"/>
@@ -10212,25 +10239,25 @@
     </row>
     <row r="238" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B238" s="13">
-        <v>44654</v>
+        <v>44657</v>
       </c>
       <c r="C238" s="14">
-        <v>0.82499999999999996</v>
+        <v>0.21875</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="E238" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F238" s="19">
-        <v>43699</v>
+        <v>44657</v>
       </c>
       <c r="G238" s="10">
         <v>1</v>
       </c>
       <c r="H238" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" s="10"/>
       <c r="J238" s="10"/>
@@ -10241,22 +10268,22 @@
         <v>44654</v>
       </c>
       <c r="C239" s="14">
-        <v>0.21944444444444444</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="E239" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F239" s="19">
-        <v>44653</v>
+        <v>43699</v>
       </c>
       <c r="G239" s="10">
         <v>1</v>
       </c>
       <c r="H239" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I239" s="10"/>
       <c r="J239" s="10"/>
@@ -10273,7 +10300,7 @@
         <v>18</v>
       </c>
       <c r="E240" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F240" s="19">
         <v>44653</v>
@@ -10282,7 +10309,7 @@
         <v>1</v>
       </c>
       <c r="H240" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I240" s="10"/>
       <c r="J240" s="10"/>
@@ -10290,19 +10317,19 @@
     </row>
     <row r="241" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B241" s="13">
+        <v>44654</v>
+      </c>
+      <c r="C241" s="14">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="D241" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E241" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F241" s="19">
         <v>44653</v>
-      </c>
-      <c r="C241" s="14">
-        <v>0.23958333333333334</v>
-      </c>
-      <c r="D241" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E241" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F241" s="19">
-        <v>44648</v>
       </c>
       <c r="G241" s="10">
         <v>1</v>
@@ -10319,16 +10346,16 @@
         <v>44653</v>
       </c>
       <c r="C242" s="14">
-        <v>0.2388888888888889</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E242" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F242" s="19">
-        <v>44652</v>
+        <v>44648</v>
       </c>
       <c r="G242" s="10">
         <v>1</v>
@@ -10342,16 +10369,16 @@
     </row>
     <row r="243" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B243" s="13">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="C243" s="14">
-        <v>0.34166666666666667</v>
+        <v>0.2388888888888889</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="E243" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F243" s="19">
         <v>44652</v>
@@ -10368,25 +10395,25 @@
     </row>
     <row r="244" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B244" s="13">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="C244" s="14">
-        <v>0.8256944444444444</v>
+        <v>0.34166666666666667</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E244" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F244" s="19">
-        <v>44093</v>
+        <v>44652</v>
       </c>
       <c r="G244" s="10">
         <v>1</v>
       </c>
       <c r="H244" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I244" s="10"/>
       <c r="J244" s="10"/>
@@ -10397,71 +10424,71 @@
         <v>44651</v>
       </c>
       <c r="C245" s="14">
-        <v>0.82430555555555551</v>
+        <v>0.8256944444444444</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="E245" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F245" s="19">
-        <v>42256</v>
+        <v>44093</v>
       </c>
       <c r="G245" s="10">
         <v>1</v>
       </c>
       <c r="H245" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I245" s="10"/>
       <c r="J245" s="10"/>
       <c r="K245" s="10"/>
     </row>
-    <row r="246" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B246" s="13">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="C246" s="14">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="D246" s="25" t="s">
-        <v>147</v>
+        <v>0.82430555555555551</v>
+      </c>
+      <c r="D246" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="E246" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F246" s="19">
-        <v>44649</v>
-      </c>
-      <c r="G246" s="10"/>
-      <c r="H246" s="10"/>
+        <v>42256</v>
+      </c>
+      <c r="G246" s="10">
+        <v>1</v>
+      </c>
+      <c r="H246" s="10">
+        <v>6</v>
+      </c>
       <c r="I246" s="10"/>
       <c r="J246" s="10"/>
       <c r="K246" s="10"/>
     </row>
-    <row r="247" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B247" s="13">
+        <v>44650</v>
+      </c>
+      <c r="C247" s="14">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="D247" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E247" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F247" s="19">
         <v>44649</v>
       </c>
-      <c r="C247" s="14">
-        <v>0.27291666666666664</v>
-      </c>
-      <c r="D247" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E247" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F247" s="19">
-        <v>44648</v>
-      </c>
-      <c r="G247" s="10">
-        <v>1</v>
-      </c>
-      <c r="H247" s="10">
-        <v>2</v>
-      </c>
+      <c r="G247" s="10"/>
+      <c r="H247" s="10"/>
       <c r="I247" s="10"/>
       <c r="J247" s="10"/>
       <c r="K247" s="10"/>
@@ -10471,13 +10498,13 @@
         <v>44649</v>
       </c>
       <c r="C248" s="14">
-        <v>0.27083333333333331</v>
+        <v>0.27291666666666664</v>
       </c>
       <c r="D248" s="17" t="s">
         <v>4</v>
       </c>
       <c r="E248" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F248" s="19">
         <v>44648</v>
@@ -10494,75 +10521,73 @@
     </row>
     <row r="249" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B249" s="13">
-        <v>44646</v>
+        <v>44649</v>
       </c>
       <c r="C249" s="14">
-        <v>0.24583333333333332</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E249" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F249" s="19">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="G249" s="10">
         <v>1</v>
       </c>
       <c r="H249" s="10">
-        <v>1</v>
-      </c>
-      <c r="I249" s="10">
         <v>2</v>
       </c>
+      <c r="I249" s="10"/>
       <c r="J249" s="10"/>
       <c r="K249" s="10"/>
     </row>
     <row r="250" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B250" s="13">
+        <v>44646</v>
+      </c>
+      <c r="C250" s="14">
+        <v>0.24583333333333332</v>
+      </c>
+      <c r="D250" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E250" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F250" s="19">
         <v>44645</v>
       </c>
-      <c r="C250" s="14">
-        <v>0.31041666666666667</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E250" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="F250" s="19">
-        <v>44620</v>
-      </c>
       <c r="G250" s="10">
         <v>1</v>
       </c>
       <c r="H250" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J250" s="10"/>
       <c r="K250" s="10"/>
     </row>
     <row r="251" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B251" s="13">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="C251" s="14">
-        <v>0.24791666666666667</v>
+        <v>0.31041666666666667</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="E251" s="22" t="s">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="F251" s="19">
-        <v>44616</v>
+        <v>44620</v>
       </c>
       <c r="G251" s="10">
         <v>1</v>
@@ -10570,7 +10595,9 @@
       <c r="H251" s="10">
         <v>2</v>
       </c>
-      <c r="I251" s="10"/>
+      <c r="I251" s="10">
+        <v>1</v>
+      </c>
       <c r="J251" s="10"/>
       <c r="K251" s="10"/>
     </row>
@@ -10581,14 +10608,14 @@
       <c r="C252" s="14">
         <v>0.24791666666666667</v>
       </c>
-      <c r="D252" s="17" t="s">
-        <v>18</v>
+      <c r="D252" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="E252" s="22" t="s">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c r="F252" s="19">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="G252" s="10">
         <v>1</v>
@@ -10602,16 +10629,16 @@
     </row>
     <row r="253" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B253" s="13">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="C253" s="14">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>155</v>
+        <v>0.24791666666666667</v>
+      </c>
+      <c r="D253" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="E253" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F253" s="19">
         <v>44615</v>
@@ -10628,19 +10655,19 @@
     </row>
     <row r="254" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B254" s="13">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="C254" s="14">
-        <v>0.21388888888888888</v>
-      </c>
-      <c r="D254" s="17" t="s">
-        <v>18</v>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="E254" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F254" s="19">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="G254" s="10">
         <v>1</v>
@@ -10648,27 +10675,25 @@
       <c r="H254" s="10">
         <v>2</v>
       </c>
-      <c r="I254" s="10">
-        <v>2</v>
-      </c>
+      <c r="I254" s="10"/>
       <c r="J254" s="10"/>
       <c r="K254" s="10"/>
     </row>
     <row r="255" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B255" s="13">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="C255" s="14">
-        <v>0.49027777777777776</v>
+        <v>0.21388888888888888</v>
       </c>
       <c r="D255" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E255" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F255" s="19">
-        <v>44641</v>
+        <v>44613</v>
       </c>
       <c r="G255" s="10">
         <v>1</v>
@@ -10676,25 +10701,27 @@
       <c r="H255" s="10">
         <v>2</v>
       </c>
-      <c r="I255" s="10"/>
+      <c r="I255" s="10">
+        <v>2</v>
+      </c>
       <c r="J255" s="10"/>
       <c r="K255" s="10"/>
     </row>
     <row r="256" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B256" s="13">
-        <v>44639</v>
+        <v>44641</v>
       </c>
       <c r="C256" s="14">
-        <v>0.25624999999999998</v>
+        <v>0.49027777777777776</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="E256" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F256" s="19">
-        <v>44637</v>
+        <v>44641</v>
       </c>
       <c r="G256" s="10">
         <v>1</v>
@@ -10711,16 +10738,16 @@
         <v>44639</v>
       </c>
       <c r="C257" s="14">
-        <v>0.25347222222222221</v>
+        <v>0.25624999999999998</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="E257" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F257" s="19">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="G257" s="10">
         <v>1</v>
@@ -10737,13 +10764,13 @@
         <v>44639</v>
       </c>
       <c r="C258" s="14">
-        <v>0.24930555555555556</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E258" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F258" s="19">
         <v>44638</v>
@@ -10752,7 +10779,7 @@
         <v>1</v>
       </c>
       <c r="H258" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" s="10"/>
       <c r="J258" s="10"/>
@@ -10760,25 +10787,25 @@
     </row>
     <row r="259" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B259" s="13">
+        <v>44639</v>
+      </c>
+      <c r="C259" s="14">
+        <v>0.24930555555555556</v>
+      </c>
+      <c r="D259" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E259" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F259" s="19">
         <v>44638</v>
       </c>
-      <c r="C259" s="14">
-        <v>0.22430555555555556</v>
-      </c>
-      <c r="D259" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="E259" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F259" s="19">
-        <v>44635</v>
-      </c>
       <c r="G259" s="10">
         <v>1</v>
       </c>
       <c r="H259" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I259" s="10"/>
       <c r="J259" s="10"/>
@@ -10786,19 +10813,19 @@
     </row>
     <row r="260" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B260" s="13">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="C260" s="14">
-        <v>0.2</v>
+        <v>0.22430555555555556</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E260" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F260" s="19">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="G260" s="10">
         <v>1</v>
@@ -10812,16 +10839,16 @@
     </row>
     <row r="261" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B261" s="13">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="C261" s="14">
-        <v>0.2638888888888889</v>
+        <v>0.2</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="E261" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F261" s="19">
         <v>44636</v>
@@ -10830,29 +10857,27 @@
         <v>1</v>
       </c>
       <c r="H261" s="10">
-        <v>2</v>
-      </c>
-      <c r="I261" s="10">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I261" s="10"/>
       <c r="J261" s="10"/>
       <c r="K261" s="10"/>
     </row>
     <row r="262" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B262" s="13">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="C262" s="14">
-        <v>0.34722222222222221</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>168</v>
+        <v>8</v>
       </c>
       <c r="E262" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F262" s="19">
-        <v>44421</v>
+        <v>44636</v>
       </c>
       <c r="G262" s="10">
         <v>1</v>
@@ -10860,31 +10885,33 @@
       <c r="H262" s="10">
         <v>2</v>
       </c>
-      <c r="I262" s="10"/>
+      <c r="I262" s="10">
+        <v>2</v>
+      </c>
       <c r="J262" s="10"/>
       <c r="K262" s="10"/>
     </row>
     <row r="263" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B263" s="13">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="C263" s="14">
-        <v>0.20902777777777778</v>
+        <v>0.34722222222222221</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="E263" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F263" s="19">
-        <v>44628</v>
+        <v>44421</v>
       </c>
       <c r="G263" s="10">
         <v>1</v>
       </c>
       <c r="H263" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I263" s="10"/>
       <c r="J263" s="10"/>
@@ -10895,28 +10922,28 @@
         <v>44634</v>
       </c>
       <c r="C264" s="14">
-        <v>0.20416666666666666</v>
+        <v>0.20902777777777778</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E264" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F264" s="19">
-        <v>44633</v>
+        <v>44628</v>
       </c>
       <c r="G264" s="10">
         <v>1</v>
       </c>
       <c r="H264" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I264" s="10"/>
       <c r="J264" s="10"/>
       <c r="K264" s="10"/>
     </row>
-    <row r="265" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B265" s="13">
         <v>44634</v>
       </c>
@@ -10924,10 +10951,10 @@
         <v>0.20416666666666666</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E265" s="22" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="F265" s="19">
         <v>44633</v>
@@ -10942,27 +10969,27 @@
       <c r="J265" s="10"/>
       <c r="K265" s="10"/>
     </row>
-    <row r="266" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B266" s="13">
         <v>44634</v>
       </c>
       <c r="C266" s="14">
-        <v>0.20277777777777778</v>
+        <v>0.20416666666666666</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="E266" s="22" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F266" s="19">
-        <v>44631</v>
+        <v>44633</v>
       </c>
       <c r="G266" s="10">
         <v>1</v>
       </c>
       <c r="H266" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I266" s="10"/>
       <c r="J266" s="10"/>
@@ -10970,45 +10997,45 @@
     </row>
     <row r="267" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B267" s="13">
-        <v>44633</v>
+        <v>44634</v>
       </c>
       <c r="C267" s="14">
-        <v>0.22152777777777777</v>
+        <v>0.20277777777777778</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="E267" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F267" s="19">
-        <v>44633</v>
+        <v>44631</v>
       </c>
       <c r="G267" s="10">
         <v>1</v>
       </c>
       <c r="H267" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I267" s="10"/>
       <c r="J267" s="10"/>
       <c r="K267" s="10"/>
     </row>
-    <row r="268" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B268" s="13">
-        <v>44632</v>
+        <v>44633</v>
       </c>
       <c r="C268" s="14">
-        <v>0.21111111111111111</v>
+        <v>0.22152777777777777</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E268" s="22" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F268" s="19">
-        <v>44631</v>
+        <v>44633</v>
       </c>
       <c r="G268" s="10">
         <v>1</v>
@@ -11020,7 +11047,7 @@
       <c r="J268" s="10"/>
       <c r="K268" s="10"/>
     </row>
-    <row r="269" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B269" s="13">
         <v>44632</v>
       </c>
@@ -11028,42 +11055,42 @@
         <v>0.21111111111111111</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="E269" s="22" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F269" s="19">
         <v>44631</v>
       </c>
-      <c r="G269" s="10"/>
-      <c r="H269" s="10"/>
+      <c r="G269" s="10">
+        <v>1</v>
+      </c>
+      <c r="H269" s="10">
+        <v>1</v>
+      </c>
       <c r="I269" s="10"/>
       <c r="J269" s="10"/>
       <c r="K269" s="10"/>
     </row>
     <row r="270" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B270" s="13">
+        <v>44632</v>
+      </c>
+      <c r="C270" s="14">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="D270" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E270" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F270" s="19">
         <v>44631</v>
       </c>
-      <c r="C270" s="14">
-        <v>0.23749999999999999</v>
-      </c>
-      <c r="D270" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E270" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F270" s="19">
-        <v>44630</v>
-      </c>
-      <c r="G270" s="10">
-        <v>1</v>
-      </c>
-      <c r="H270" s="10">
-        <v>2</v>
-      </c>
+      <c r="G270" s="10"/>
+      <c r="H270" s="10"/>
       <c r="I270" s="10"/>
       <c r="J270" s="10"/>
       <c r="K270" s="10"/>
@@ -11073,13 +11100,13 @@
         <v>44631</v>
       </c>
       <c r="C271" s="14">
-        <v>0.23680555555555555</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="E271" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F271" s="19">
         <v>44630</v>
@@ -11090,9 +11117,7 @@
       <c r="H271" s="10">
         <v>2</v>
       </c>
-      <c r="I271" s="10">
-        <v>2</v>
-      </c>
+      <c r="I271" s="10"/>
       <c r="J271" s="10"/>
       <c r="K271" s="10"/>
     </row>
@@ -11101,13 +11126,13 @@
         <v>44631</v>
       </c>
       <c r="C272" s="14">
-        <v>0.23541666666666666</v>
+        <v>0.23680555555555555</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="E272" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F272" s="19">
         <v>44630</v>
@@ -11118,7 +11143,9 @@
       <c r="H272" s="10">
         <v>2</v>
       </c>
-      <c r="I272" s="10"/>
+      <c r="I272" s="10">
+        <v>1</v>
+      </c>
       <c r="J272" s="10"/>
       <c r="K272" s="10"/>
     </row>
@@ -11130,10 +11157,10 @@
         <v>0.23541666666666666</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="E273" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F273" s="19">
         <v>44630</v>
@@ -11142,7 +11169,7 @@
         <v>1</v>
       </c>
       <c r="H273" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I273" s="10"/>
       <c r="J273" s="10"/>
@@ -11150,19 +11177,19 @@
     </row>
     <row r="274" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B274" s="13">
+        <v>44631</v>
+      </c>
+      <c r="C274" s="14">
+        <v>0.23541666666666666</v>
+      </c>
+      <c r="D274" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E274" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F274" s="19">
         <v>44630</v>
-      </c>
-      <c r="C274" s="14">
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="D274" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E274" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="F274" s="19">
-        <v>42506</v>
       </c>
       <c r="G274" s="10">
         <v>1</v>
@@ -11176,25 +11203,25 @@
     </row>
     <row r="275" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B275" s="13">
-        <v>44627</v>
+        <v>44630</v>
       </c>
       <c r="C275" s="14">
-        <v>0.99652777777777779</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="E275" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F275" s="19">
-        <v>44627</v>
+        <v>42506</v>
       </c>
       <c r="G275" s="10">
         <v>1</v>
       </c>
       <c r="H275" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I275" s="10"/>
       <c r="J275" s="10"/>
@@ -11205,16 +11232,16 @@
         <v>44627</v>
       </c>
       <c r="C276" s="14">
-        <v>0.2048611111111111</v>
+        <v>0.99652777777777779</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="E276" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F276" s="19">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="G276" s="10">
         <v>1</v>
@@ -11231,16 +11258,16 @@
         <v>44627</v>
       </c>
       <c r="C277" s="14">
-        <v>0.23541666666666666</v>
+        <v>0.2048611111111111</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="E277" s="22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F277" s="19">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="G277" s="10">
         <v>1</v>
@@ -11253,66 +11280,65 @@
       <c r="K277" s="10"/>
     </row>
     <row r="278" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B278" s="13"/>
-      <c r="C278" s="14"/>
-      <c r="D278" s="17"/>
-      <c r="E278" s="22"/>
-      <c r="F278" s="19"/>
-      <c r="G278" s="10"/>
-      <c r="H278" s="10"/>
+      <c r="B278" s="13">
+        <v>44627</v>
+      </c>
+      <c r="C278" s="14">
+        <v>0.23541666666666666</v>
+      </c>
+      <c r="D278" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E278" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F278" s="19">
+        <v>44626</v>
+      </c>
+      <c r="G278" s="10">
+        <v>1</v>
+      </c>
+      <c r="H278" s="10">
+        <v>2</v>
+      </c>
       <c r="I278" s="10"/>
       <c r="J278" s="10"/>
       <c r="K278" s="10"/>
     </row>
     <row r="279" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B279" s="13">
-        <v>43860</v>
-      </c>
-      <c r="C279" s="14">
-        <v>0.3125</v>
-      </c>
-      <c r="D279" s="17" t="str">
-        <f>Ilana_Basri</f>
-        <v>Ilana Basri</v>
-      </c>
-      <c r="E279" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="F279" s="19">
-        <v>42035</v>
-      </c>
-      <c r="G279" s="10">
-        <v>1</v>
-      </c>
-      <c r="H279" s="10">
-        <v>6</v>
-      </c>
+      <c r="B279" s="13"/>
+      <c r="C279" s="14"/>
+      <c r="D279" s="17"/>
+      <c r="E279" s="22"/>
+      <c r="F279" s="19"/>
+      <c r="G279" s="10"/>
+      <c r="H279" s="10"/>
       <c r="I279" s="10"/>
       <c r="J279" s="10"/>
       <c r="K279" s="10"/>
     </row>
     <row r="280" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B280" s="13">
-        <v>43858</v>
+        <v>43860</v>
       </c>
       <c r="C280" s="14">
-        <v>0.20833333333333334</v>
+        <v>0.3125</v>
       </c>
       <c r="D280" s="17" t="str">
-        <f>שירלי_תקווה_אוסי</f>
-        <v>שירלי תקווה אוסי</v>
+        <f>Ilana_Basri</f>
+        <v>Ilana Basri</v>
       </c>
       <c r="E280" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F280" s="19">
-        <v>43853</v>
+        <v>42035</v>
       </c>
       <c r="G280" s="10">
         <v>1</v>
       </c>
       <c r="H280" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I280" s="10"/>
       <c r="J280" s="10"/>
@@ -11320,310 +11346,338 @@
     </row>
     <row r="281" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B281" s="13">
-        <v>43856</v>
+        <v>43858</v>
       </c>
       <c r="C281" s="14">
-        <v>0.3</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="D281" s="17" t="str">
-        <f>ירדנה_ששון</f>
-        <v>ירדנה ששון</v>
+        <f>שירלי_תקווה_אוסי</f>
+        <v>שירלי תקווה אוסי</v>
       </c>
       <c r="E281" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F281" s="19">
-        <v>42207</v>
+        <v>43853</v>
       </c>
       <c r="G281" s="10">
         <v>1</v>
       </c>
       <c r="H281" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I281" s="10"/>
       <c r="J281" s="10"/>
       <c r="K281" s="10"/>
     </row>
+    <row r="282" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="13">
+        <v>43856</v>
+      </c>
+      <c r="C282" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="D282" s="17" t="str">
+        <f>ירדנה_ששון</f>
+        <v>ירדנה ששון</v>
+      </c>
+      <c r="E282" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F282" s="19">
+        <v>42207</v>
+      </c>
+      <c r="G282" s="10">
+        <v>1</v>
+      </c>
+      <c r="H282" s="10">
+        <v>6</v>
+      </c>
+      <c r="I282" s="10"/>
+      <c r="J282" s="10"/>
+      <c r="K282" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:K281" xr:uid="{2B30564E-B19A-4E2C-BCD3-6AF081956B47}"/>
+  <autoFilter ref="B3:K282" xr:uid="{2B30564E-B19A-4E2C-BCD3-6AF081956B47}"/>
   <hyperlinks>
-    <hyperlink ref="E113" r:id="rId1" display="https://www.facebook.com/groups/zahavb/permalink/8978735795499995/" xr:uid="{EDA07A67-EF1C-414F-9D3B-77541E2AE162}"/>
-    <hyperlink ref="E114" r:id="rId2" display="https://www.facebook.com/groups/zahavb/permalink/8979507115422863/" xr:uid="{A7C1636E-63AB-4C81-A094-DA80B33AFC5D}"/>
-    <hyperlink ref="E115" r:id="rId3" display="https://www.facebook.com/groups/zahavb/permalink/8978191945554380/" xr:uid="{FF189D93-4F18-406F-972E-9B64A82CAF68}"/>
-    <hyperlink ref="E116" r:id="rId4" display="https://www.facebook.com/groups/zahavb/permalink/8979374112102830/" xr:uid="{1B3C0E64-88A3-4C0F-9165-B1598BE81295}"/>
-    <hyperlink ref="E117" r:id="rId5" display="https://www.facebook.com/groups/742470139214981/permalink/5166195643509053/" xr:uid="{27860454-D0C1-4F1E-B9D0-27D8DFAD7BEF}"/>
-    <hyperlink ref="E118" r:id="rId6" display="https://www.facebook.com/permalink.php?story_fbid=1512385105763834&amp;id=100009770775297" xr:uid="{1A0AB670-5A56-4DC4-84AA-82206E0DC189}"/>
-    <hyperlink ref="E119" r:id="rId7" display="https://www.facebook.com/groups/742470139214981/permalink/5163551270440157/" xr:uid="{AB81C3CF-3C8B-417C-8997-CF546D3AA030}"/>
-    <hyperlink ref="E120" r:id="rId8" display="https://www.facebook.com/davebist1/posts/10158921260197081" xr:uid="{5A405C0C-D8AD-40B5-AE91-0527C447104D}"/>
-    <hyperlink ref="E147" r:id="rId9" display="https://www.facebook.com/groups/zahavb/permalink/8850041931702716/" xr:uid="{97AD24A8-11F5-4560-BF29-56E362B7C6D9}"/>
-    <hyperlink ref="E146" r:id="rId10" display="https://www.facebook.com/groups/742470139214981/permalink/5094845747310710/" xr:uid="{19D91A9A-43BA-4ED0-B287-FFBF930A412D}"/>
-    <hyperlink ref="E144" r:id="rId11" xr:uid="{B5FFBE13-0264-4FDD-92E8-CA6220D7C7E8}"/>
-    <hyperlink ref="E148" r:id="rId12" xr:uid="{B4FD96CE-2E16-4C69-AA47-BDAE9FC81092}"/>
-    <hyperlink ref="E149" r:id="rId13" xr:uid="{762459B5-3EBA-4882-8EBA-67DE963B779B}"/>
-    <hyperlink ref="E150" r:id="rId14" xr:uid="{710F3270-8753-4276-B350-D365A47B73E5}"/>
-    <hyperlink ref="E151" r:id="rId15" xr:uid="{D58E72C8-C56F-4D3D-B3E1-8E9654F3010E}"/>
-    <hyperlink ref="E152" r:id="rId16" xr:uid="{190B8ECE-83D9-491D-B56D-56A4D3D6E26A}"/>
-    <hyperlink ref="E153" r:id="rId17" xr:uid="{BF071EB1-959E-4B4D-BE2C-7DA4AFCD2390}"/>
-    <hyperlink ref="E154" r:id="rId18" xr:uid="{9E06375D-43CF-4DAF-975A-E329B8800E9E}"/>
-    <hyperlink ref="E155" r:id="rId19" xr:uid="{28D9F026-FF70-4B54-8016-680B96B66E07}"/>
-    <hyperlink ref="E156" r:id="rId20" xr:uid="{122B7F19-94C4-4910-A513-0DE45269423E}"/>
-    <hyperlink ref="E158" r:id="rId21" display="https://www.facebook.com/groups/zahavb/permalink/8711050945601816/" xr:uid="{EF60166D-4EFA-43AF-83C5-7A578C3B64C1}"/>
-    <hyperlink ref="E159" r:id="rId22" display="https://www.facebook.com/groups/zahavb/permalink/8710637998976444/" xr:uid="{295F5BBD-3C6F-416B-8DDD-F9889028F348}"/>
-    <hyperlink ref="E160" r:id="rId23" xr:uid="{66911246-A9F4-46CD-A3C4-5412C63D4AC5}"/>
-    <hyperlink ref="E161" r:id="rId24" display="https://www.facebook.com/groups/742470139214981/permalink/5007174239411195/" xr:uid="{74233E9E-6D92-4FC9-BCDF-61600A945D31}"/>
-    <hyperlink ref="E162" r:id="rId25" display="https://www.facebook.com/groups/652398295151266/permalink/1830007380723679/" xr:uid="{3957D016-E395-4BF4-8598-3EAC1A8E2DF1}"/>
-    <hyperlink ref="E163" r:id="rId26" display="https://www.facebook.com/groups/zahavb/permalink/8700681923305385/" xr:uid="{566E406E-096F-43A7-A51D-4F19848D2F7C}"/>
-    <hyperlink ref="E164" r:id="rId27" display="https://www.facebook.com/groups/742470139214981/permalink/5001367726658513/" xr:uid="{3050CFAF-0A82-4FB5-A271-D9C3F645B89D}"/>
-    <hyperlink ref="E165" r:id="rId28" display="https://www.facebook.com/groups/zahavb/permalink/8685520248154886/" xr:uid="{304F8441-504B-496C-85EB-2DC05D5B5306}"/>
-    <hyperlink ref="E166" r:id="rId29" display="https://www.facebook.com/groups/zahavb/permalink/8681121768594734/" xr:uid="{BD446D3B-1C12-4A0A-B48F-000BAFC34C2C}"/>
-    <hyperlink ref="E167" r:id="rId30" display="https://www.facebook.com/groups/forumraanana/permalink/5110610695659444/" xr:uid="{1593812D-A9B4-422A-AE34-FF924F35EF3D}"/>
-    <hyperlink ref="E168" r:id="rId31" display="https://www.facebook.com/groups/742470139214981/permalink/4989898481138771/" xr:uid="{D29A623C-4A65-44F9-81F9-B255BE99E876}"/>
-    <hyperlink ref="E169" r:id="rId32" display="https://www.facebook.com/groups/zahavb/permalink/8661004357273142/" xr:uid="{A0C06027-1CF7-4373-87E5-7C45A93F7F1C}"/>
-    <hyperlink ref="E170" r:id="rId33" display="https://www.facebook.com/groups/zahavb/permalink/1556983591008623/" xr:uid="{E8DC42C3-C73E-4ACD-B9FA-FE9BA88F1651}"/>
-    <hyperlink ref="E171" r:id="rId34" display="https://www.facebook.com/groups/742470139214981/permalink/4986778264784126/" xr:uid="{55B6F939-A0FF-4BD3-9CFB-31AD9F623ACE}"/>
-    <hyperlink ref="E172" r:id="rId35" display="https://www.facebook.com/groups/742470139214981/permalink/4983426415119311/" xr:uid="{068281F2-CCA1-488C-987E-24B43BBE71A1}"/>
-    <hyperlink ref="E173" r:id="rId36" display="https://www.facebook.com/groups/zahavb/permalink/8646468978726680/" xr:uid="{51DF7F69-FA34-496F-A00E-BC78D4AFAD11}"/>
-    <hyperlink ref="E174" r:id="rId37" display="https://www.facebook.com/groups/zahavb/permalink/1417009275006056/" xr:uid="{9C282281-4B2D-4E2A-809F-B42CD11FD738}"/>
-    <hyperlink ref="E175" r:id="rId38" display="https://www.facebook.com/groups/zahavb/permalink/8644989472207964/" xr:uid="{47FD1035-144C-45C4-AC5F-2FECC5026645}"/>
-    <hyperlink ref="E176" r:id="rId39" xr:uid="{EB433E43-81BA-46CA-A9B5-BE9AD4606724}"/>
-    <hyperlink ref="E177" r:id="rId40" xr:uid="{013506E4-8BA0-46D8-924A-1F8A5FB5A3D8}"/>
-    <hyperlink ref="E178" r:id="rId41" display="https://www.facebook.com/groups/zahavb/permalink/8641582282548683/" xr:uid="{E7575A16-7949-4C28-8686-F7177660E848}"/>
-    <hyperlink ref="E179" r:id="rId42" display="https://www.facebook.com/groups/zahavb/permalink/8630002973706614/" xr:uid="{F14263B2-B17E-4849-9FC5-A185C706D94E}"/>
-    <hyperlink ref="E180" r:id="rId43" display="https://www.facebook.com/groups/zahavb/permalink/8629897890383789/" xr:uid="{FF535149-9DAD-4DCB-A4C8-13C5D4BDE4BB}"/>
-    <hyperlink ref="E181" r:id="rId44" display="https://www.facebook.com/groups/zahavb/permalink/8634046819968896/" xr:uid="{A1B61536-FF98-49FA-AE84-26B7515ACA25}"/>
-    <hyperlink ref="E182" r:id="rId45" display="https://www.facebook.com/groups/zahavb/permalink/8634606756579569/" xr:uid="{5ADA9805-DC9D-40B6-8A5E-8751079FD337}"/>
-    <hyperlink ref="E183" r:id="rId46" display="https://www.facebook.com/groups/zahavb/permalink/8634584986581746/" xr:uid="{271A7DBF-D167-45C8-8238-55C94A6D52CD}"/>
-    <hyperlink ref="E184" r:id="rId47" display="https://www.facebook.com/groups/zahavb/permalink/8631949216845323/" xr:uid="{63AFED5A-8EFD-4E95-9801-03F0211BB92D}"/>
-    <hyperlink ref="E185" r:id="rId48" display="https://www.facebook.com/groups/zahavb/permalink/6906712172702378/" xr:uid="{79319536-F9D0-4C67-A520-587EA617188B}"/>
-    <hyperlink ref="E186" r:id="rId49" display="https://www.facebook.com/groups/zahavb/permalink/1116607761712877/" xr:uid="{25BF0F34-9A9E-46A5-AB03-081AFE7D08F2}"/>
-    <hyperlink ref="E187" r:id="rId50" display="https://www.facebook.com/groups/zahavb/permalink/8620944891279089/" xr:uid="{6E2BA733-DD40-45BA-BF35-F759B99E7FD4}"/>
-    <hyperlink ref="E188" r:id="rId51" display="https://www.facebook.com/groups/zahavb/permalink/8616684615038450/" xr:uid="{171AE562-FB50-4CB4-ACED-0ACB4C17301E}"/>
-    <hyperlink ref="E189" r:id="rId52" display="https://www.facebook.com/groups/zahavb/permalink/8611297865577125/" xr:uid="{795C1E17-3E10-4219-85DD-E1A75731DD69}"/>
-    <hyperlink ref="E190" r:id="rId53" display="https://www.facebook.com/groups/zahavb/permalink/8604977309542514/" xr:uid="{6F6867EB-5DA1-4314-B36C-DF93991D8196}"/>
-    <hyperlink ref="E192" r:id="rId54" display="https://www.facebook.com/groups/zahavb/permalink/8605488962824682/" xr:uid="{A8C5F794-88D7-41F8-AEEE-43FC53060C3E}"/>
-    <hyperlink ref="E193" r:id="rId55" display="https://www.facebook.com/groups/zahavb/permalink/8605033392870239/" xr:uid="{07D88EEE-FA9B-488B-A1EE-87A36DAB01F8}"/>
-    <hyperlink ref="E194" r:id="rId56" display="https://www.facebook.com/groups/742470139214981/permalink/4949388838523069/" xr:uid="{321C821F-C6B6-4F2F-A5D2-AD7EA27F3190}"/>
-    <hyperlink ref="E191" r:id="rId57" display="https://www.facebook.com/groups/742470139214981/permalink/4952177551577531/" xr:uid="{EAEF8D95-1317-4339-9763-8BBB4547663A}"/>
-    <hyperlink ref="E195" r:id="rId58" display="https://www.facebook.com/groups/zahavb/permalink/8603229029717342/" xr:uid="{F4722F48-DEA7-47D4-B66E-0CA2DEDF42B6}"/>
-    <hyperlink ref="E196" r:id="rId59" display="https://www.facebook.com/groups/zahavb/permalink/8603207713052807/" xr:uid="{EB5116EA-3134-4874-9EE4-B1F1C3E136D4}"/>
-    <hyperlink ref="E197" r:id="rId60" display="https://www.facebook.com/groups/zahavb/permalink/8588179731222272/" xr:uid="{D5AB3AA2-3563-4C2F-B83D-54DFDB2E597C}"/>
-    <hyperlink ref="E198" r:id="rId61" display="https://www.facebook.com/groups/zahavb/permalink/8584092724964306/" xr:uid="{20A34502-8A4D-4476-A06C-C104BA228DF4}"/>
-    <hyperlink ref="E210" r:id="rId62" display="https://www.facebook.com/groups/zahavb/permalink/8559811924059053/" xr:uid="{64614C89-83BB-427F-BBD2-C9442BA15D31}"/>
-    <hyperlink ref="E211" r:id="rId63" display="https://www.facebook.com/groups/zahavb/permalink/8561236517249927/" xr:uid="{15BC8DFC-0270-4E5F-A9D4-77488576CDB3}"/>
-    <hyperlink ref="E212" r:id="rId64" display="https://www.facebook.com/groups/742470139214981/permalink/4919999591461994/" xr:uid="{C8947E71-60B5-41C4-BCC3-04683E603D9F}"/>
-    <hyperlink ref="E213" r:id="rId65" display="https://www.facebook.com/groups/zahavb/permalink/8535132296527016/" xr:uid="{F8776C7F-370D-47D8-B677-C587CA63F765}"/>
-    <hyperlink ref="E214" r:id="rId66" display="https://www.facebook.com/groups/zahavb/permalink/8536109253095987/" xr:uid="{75A74C02-D166-4C01-A200-76960C74A5B4}"/>
-    <hyperlink ref="E215" r:id="rId67" display="https://www.facebook.com/groups/zahavb/permalink/8540789052628007/" xr:uid="{1F3572D1-EECE-444C-A8CA-97738F05869C}"/>
-    <hyperlink ref="E216" r:id="rId68" display="https://www.facebook.com/groups/zahavb/permalink/8541496722557240/" xr:uid="{DBB828D0-ADA1-45ED-8D51-9C66FE1B0383}"/>
-    <hyperlink ref="E217" r:id="rId69" display="https://www.facebook.com/groups/zahavb/permalink/8536791729694406/" xr:uid="{C5847033-E484-4C50-84C2-D2CCED965321}"/>
-    <hyperlink ref="E218" r:id="rId70" display="https://www.facebook.com/groups/zahavb/permalink/8540772299296349/" xr:uid="{39E20E9B-EC41-4C73-A350-3AB10B51ED09}"/>
-    <hyperlink ref="E219" r:id="rId71" display="https://www.facebook.com/groups/zahavb/permalink/7506227959417460/" xr:uid="{26B56AEC-E0A1-42A1-947A-FF03A1845919}"/>
-    <hyperlink ref="E220" r:id="rId72" display="https://www.facebook.com/groups/zahavb/permalink/8533661973340715/" xr:uid="{350C1A2D-0E80-46EC-8208-B037EA89CF4E}"/>
-    <hyperlink ref="E221" r:id="rId73" display="https://www.facebook.com/groups/zahavb/permalink/8533234376716808/" xr:uid="{8EDD906C-07F0-4710-A0BF-D42F9A43B8F9}"/>
-    <hyperlink ref="E222" r:id="rId74" display="https://www.facebook.com/groups/zahavb/permalink/8527630953943817/" xr:uid="{C4D969E6-6516-42FB-A304-2BEA147B4A0D}"/>
-    <hyperlink ref="E223" r:id="rId75" display="https://www.facebook.com/groups/zahavb/permalink/7670150949691826/" xr:uid="{C6AB7E56-54D9-4FA2-8E2E-0F3280C4DCD7}"/>
-    <hyperlink ref="E224" r:id="rId76" display="https://www.facebook.com/groups/zahavb/permalink/8517759714930941/" xr:uid="{CCF6994D-ECC9-4A49-A183-D02BF65DA019}"/>
-    <hyperlink ref="E225" r:id="rId77" display="https://www.facebook.com/groups/zahavb/permalink/8506613359378910/" xr:uid="{BC007958-4F71-45FB-8DE9-EB53E6CC2187}"/>
-    <hyperlink ref="E226" r:id="rId78" display="https://www.facebook.com/groups/zahavb/permalink/8504000609640185/" xr:uid="{D721C758-58AB-4ABC-8F3D-67260F2C718B}"/>
-    <hyperlink ref="E227" r:id="rId79" display="https://www.facebook.com/groups/zahavb/permalink/8503498873023692/" xr:uid="{F04ACC1A-8836-4AFE-8E41-C9108921288A}"/>
-    <hyperlink ref="E228" r:id="rId80" display="https://www.facebook.com/groups/zahavb/permalink/8494691503904429/" xr:uid="{D71835FA-4D59-4BEE-87D7-B4E76A1285CD}"/>
-    <hyperlink ref="E229" r:id="rId81" display="https://www.facebook.com/groups/zahavb/permalink/8486180131422233/" xr:uid="{1C719111-D880-498B-939E-B5AC3CE1040A}"/>
-    <hyperlink ref="E230" r:id="rId82" display="https://www.facebook.com/groups/zahavb/permalink/8483916084981971/" xr:uid="{4C6159B9-D96F-4734-BD5A-D107F63FF6BF}"/>
-    <hyperlink ref="E199" r:id="rId83" display="https://www.facebook.com/groups/zahavb/permalink/1125542607486059/" xr:uid="{3C33E25C-8A2B-4DAD-9019-EB792D48A93A}"/>
-    <hyperlink ref="E200" r:id="rId84" display="https://www.facebook.com/groups/zahavb/permalink/6051470714893199" xr:uid="{B6EF27EA-1B09-4426-9820-566C3FC85F10}"/>
-    <hyperlink ref="E201" r:id="rId85" display="https://www.facebook.com/groups/zahavb/permalink/6051474881559449/" xr:uid="{2C564BD1-08AC-40F4-A10D-B7B5D9B5480A}"/>
-    <hyperlink ref="E202" r:id="rId86" display="https://www.facebook.com/groups/zahavb/permalink/801396873233969/" xr:uid="{A9DFC2B2-7549-4F7F-AA30-B4ACD500B4CF}"/>
-    <hyperlink ref="E203" r:id="rId87" display="https://www.facebook.com/groups/zahavb/permalink/1018151498225171/" xr:uid="{E490D9E4-DDBA-4125-AFB4-0E37F5DC46BD}"/>
-    <hyperlink ref="E204" r:id="rId88" display="https://www.facebook.com/groups/zahavb/permalink/906038062769849/" xr:uid="{47F586F4-88FC-4A61-ABE3-5DC6FBAED6F7}"/>
-    <hyperlink ref="E205" r:id="rId89" display="https://www.facebook.com/groups/zahavb/permalink/6138755606164709/" xr:uid="{A78CC335-A2A3-444A-978E-86FB2E8E6D16}"/>
-    <hyperlink ref="E206" r:id="rId90" display="https://www.facebook.com/groups/zahavb/permalink/786868554686801/" xr:uid="{FE864B6E-6157-4FD6-A39A-9112A9A30777}"/>
-    <hyperlink ref="E207" r:id="rId91" display="https://www.facebook.com/groups/zahavb/permalink/5241633572543588/" xr:uid="{B422369B-233C-441C-A08F-444419B7F9BA}"/>
-    <hyperlink ref="E208" r:id="rId92" display="https://www.facebook.com/groups/zahavb/permalink/1324376237602694/" xr:uid="{B1007518-E269-4B46-ACB0-DFCEC92354EE}"/>
-    <hyperlink ref="E209" r:id="rId93" display="https://www.facebook.com/groups/zahavb/permalink/6550606778312921/" xr:uid="{74BD4AFB-CE70-4138-B262-D42197A68036}"/>
-    <hyperlink ref="E231" r:id="rId94" display="https://www.facebook.com/groups/zahavb/permalink/1276708095702842/" xr:uid="{0A606D91-0C64-448D-A376-15F70EDD4BDF}"/>
-    <hyperlink ref="E232" r:id="rId95" display="https://www.facebook.com/groups/zahavb/permalink/789300724443584/" xr:uid="{D639459D-0801-4BA4-88D6-9C1E8F6C09E1}"/>
-    <hyperlink ref="E233" r:id="rId96" display="https://www.facebook.com/groups/zahavb/permalink/8468454076528172/" xr:uid="{CF1393BA-63AE-4B6B-96A5-2C00F5557B00}"/>
-    <hyperlink ref="E234" r:id="rId97" display="https://www.facebook.com/groups/zahavb/permalink/8450341538339426/" xr:uid="{BF3F2EDF-8388-49C4-9E05-04E003FBF50A}"/>
-    <hyperlink ref="E235" r:id="rId98" display="https://www.facebook.com/groups/zahavb/permalink/8454169841289929/" xr:uid="{DCA5AA31-5C06-4E7C-8B11-9755FFCB2DFC}"/>
-    <hyperlink ref="E236" r:id="rId99" display="https://www.facebook.com/groups/zahavb/permalink/8452430988130481/" xr:uid="{5208A988-B016-4866-9E9D-D338F254C677}"/>
-    <hyperlink ref="E237" r:id="rId100" display="https://www.facebook.com/groups/742470139214981/permalink/4859405590854728/" xr:uid="{5339E731-C1F9-46D5-B13A-27F8359E69A3}"/>
-    <hyperlink ref="E238" r:id="rId101" display="https://www.facebook.com/groups/zahavb/permalink/3937310022975956/" xr:uid="{95E489F5-CF97-4DAA-B8F5-91835B320EFB}"/>
-    <hyperlink ref="E239" r:id="rId102" display="https://www.facebook.com/groups/zahavb/permalink/8439866989386881/" xr:uid="{9B5557F9-EE5D-4A16-9E79-06858BC32E06}"/>
-    <hyperlink ref="E240" r:id="rId103" display="https://www.facebook.com/groups/zahavb/permalink/8440886025951644/" xr:uid="{0CA8496D-AA8A-4B25-9678-C8F04DCDF782}"/>
-    <hyperlink ref="E241" r:id="rId104" display="https://www.facebook.com/groups/zahavb/permalink/8418275524879361/" xr:uid="{93E69A85-DCC0-49F9-AC2C-6C1FCED669FB}"/>
-    <hyperlink ref="E242" r:id="rId105" display="https://www.facebook.com/groups/zahavb/permalink/8435987873108126/" xr:uid="{55F28835-D2F0-491F-87B0-7F4DB3A03178}"/>
-    <hyperlink ref="E243" r:id="rId106" display="https://www.facebook.com/groups/zahavb/permalink/8432830043423909/" xr:uid="{8576A2C2-6C26-4BB2-88B6-22C135292697}"/>
-    <hyperlink ref="E244" r:id="rId107" display="https://www.facebook.com/groups/zahavb/permalink/5527683320605277/" xr:uid="{7C814A3A-4DF8-45FC-A78E-95BE600A50AE}"/>
-    <hyperlink ref="E245" r:id="rId108" display="https://www.facebook.com/groups/zahavb/permalink/1067143763325944/" xr:uid="{A012CC98-7782-4F31-972B-D301106240D5}"/>
-    <hyperlink ref="E246" r:id="rId109" display="https://www.facebook.com/tsionit.fattalkuperwasser/posts/2737255553249175" xr:uid="{68D8853B-711D-4E3B-A4C2-3F1C793F3DA1}"/>
-    <hyperlink ref="E247" r:id="rId110" display="https://www.facebook.com/groups/zahavb/permalink/8417015871671993/" xr:uid="{F8CBF164-FEBF-4784-B62D-72FF1FC6B994}"/>
-    <hyperlink ref="E248" r:id="rId111" display="https://www.facebook.com/groups/zahavb/permalink/8417089264997987/" xr:uid="{6529D527-01B1-4D2F-B9B9-359A5EB17BBE}"/>
-    <hyperlink ref="E249" r:id="rId112" display="https://www.facebook.com/groups/742470139214981/permalink/4830723900389564/" xr:uid="{D41F7D72-6E7D-463A-9949-28B50C241F14}"/>
-    <hyperlink ref="E250" r:id="rId113" display="https://www.facebook.com/groups/zahavb/permalink/6300762409964027/" xr:uid="{0FD633F2-3A87-476C-83F9-E731727339F1}"/>
-    <hyperlink ref="E251" r:id="rId114" xr:uid="{4589CA57-293C-45A5-8FCE-B86460D0ED4C}"/>
-    <hyperlink ref="E252" r:id="rId115" display="https://www.facebook.com/groups/zahavb/permalink/8396893497017564/" xr:uid="{994623BC-F677-4177-AF24-76362722913E}"/>
-    <hyperlink ref="E253" r:id="rId116" display="https://www.facebook.com/groups/zahavb/permalink/8384274118279502/" xr:uid="{1B3C5D87-957D-4313-A192-2EB174563C69}"/>
-    <hyperlink ref="E254" r:id="rId117" display="https://www.facebook.com/groups/zahavb/permalink/8388212351219012/" xr:uid="{A33C1D7B-C042-428A-928B-4F47102E71B0}"/>
-    <hyperlink ref="E255" r:id="rId118" display="https://www.facebook.com/groups/742470139214981/permalink/4819032274892060/" xr:uid="{4D6F3CF9-0012-4612-8B97-1277A8CFA1C4}"/>
-    <hyperlink ref="E256" r:id="rId119" display="https://www.facebook.com/groups/zahavb/permalink/8368081213232126/" xr:uid="{350338BA-87E2-4642-B312-9BB8EC4624A2}"/>
-    <hyperlink ref="E257" r:id="rId120" display="https://www.facebook.com/groups/zahavb/permalink/8373632012677046/" xr:uid="{D31CC00A-63A1-45F8-9880-60F6C638B8BA}"/>
-    <hyperlink ref="E258" r:id="rId121" display="https://www.facebook.com/groups/742470139214981/permalink/4812191535576134/" xr:uid="{A4FD1815-5E93-477C-832C-A931D711A9BB}"/>
-    <hyperlink ref="E259" r:id="rId122" display="https://www.facebook.com/groups/zahavb/permalink/8361285580578356/" xr:uid="{FD65C3C2-9CF3-4167-99BD-3E5C0CB96339}"/>
-    <hyperlink ref="E260" r:id="rId123" display="https://www.facebook.com/groups/zahavb/permalink/8365306963509551/" xr:uid="{5ACD854B-6E69-4ED6-98E1-3A3E13D9C3E5}"/>
-    <hyperlink ref="E261" r:id="rId124" display="https://www.facebook.com/groups/742470139214981/permalink/4804690366326251/" xr:uid="{3989111E-5D96-4647-A22D-3FFA79677FFA}"/>
-    <hyperlink ref="E262" r:id="rId125" display="https://www.facebook.com/groups/zahavb/permalink/7125874530786140/" xr:uid="{57BDF340-6C88-4F1F-BB92-ACEF6171D76E}"/>
-    <hyperlink ref="E263" r:id="rId126" display="https://www.facebook.com/groups/742470139214981/permalink/4784338205028134/" xr:uid="{2AFCA6BC-2CB2-458A-B09A-5DAA42727131}"/>
-    <hyperlink ref="E264" r:id="rId127" display="https://www.facebook.com/groups/zahavb/permalink/8352946648078916/" xr:uid="{0CA974D7-01DB-4851-AE9D-41B2701D8DDC}"/>
-    <hyperlink ref="E265" r:id="rId128" display="https://www.facebook.com/groups/zahavb/permalink/8352091258164455/" xr:uid="{C64E5C88-FC83-4E1D-BEB9-4F94103BD842}"/>
-    <hyperlink ref="E266" r:id="rId129" display="https://www.facebook.com/groups/zahavb/permalink/8343143709059210/" xr:uid="{A92E0553-06B5-4751-869D-497351916238}"/>
-    <hyperlink ref="E267" r:id="rId130" display="https://www.facebook.com/groups/742470139214981/permalink/4796842470444374/" xr:uid="{2A74B70C-332E-4154-AF0F-F566CC14395D}"/>
-    <hyperlink ref="E268" r:id="rId131" display="https://www.facebook.com/groups/742470139214981/permalink/4794086837386604/" xr:uid="{D6940579-1B0F-4DE5-B17E-12A05BAFD5CD}"/>
-    <hyperlink ref="E269" r:id="rId132" display="https://www.facebook.com/groups/zahavb/permalink/8342473425792905/" xr:uid="{1D61BBC7-D5E8-4C67-982E-9B3977E7EE8D}"/>
-    <hyperlink ref="E270" r:id="rId133" display="https://www.facebook.com/groups/zahavb/permalink/8338697059503875/" xr:uid="{C483859B-FA99-4C96-8F58-FED98F5309F7}"/>
-    <hyperlink ref="E271" r:id="rId134" display="https://www.facebook.com/groups/zahavb/permalink/8336776116362636/" xr:uid="{CA91D47C-D833-4DFA-83C3-D3F373656189}"/>
-    <hyperlink ref="E272" r:id="rId135" display="https://www.facebook.com/groups/742470139214981/permalink/4791483294313625/" xr:uid="{D97AB8CF-7CBF-4F84-B108-77A3ABFD7ABE}"/>
-    <hyperlink ref="E273" r:id="rId136" display="https://www.facebook.com/groups/742470139214981/permalink/4791534187641869/" xr:uid="{5C8B83DE-FD62-4E47-87E2-3808E4BFBB74}"/>
-    <hyperlink ref="E274" r:id="rId137" display="https://www.facebook.com/groups/zahavb/permalink/1229318623775123/" xr:uid="{B9D9185F-5C50-4B88-A79A-60ADDCC4C27F}"/>
-    <hyperlink ref="E275" r:id="rId138" display="https://www.facebook.com/groups/zahavb/permalink/8325339447506303/" xr:uid="{8834C3F1-4A36-4E74-8B57-20CED36D7D16}"/>
-    <hyperlink ref="E276" r:id="rId139" display="https://www.facebook.com/groups/zahavb/permalink/8314976058542642" xr:uid="{6E29676F-411F-4EF3-8FF5-742D45876D5A}"/>
-    <hyperlink ref="E277" r:id="rId140" display="https://www.facebook.com/groups/zahavb/permalink/8319902098050038/" xr:uid="{30F1F418-B51E-4E3B-8FC9-7D70353116DA}"/>
-    <hyperlink ref="E112" r:id="rId141" xr:uid="{6C7FC3DF-E07B-4DDA-A0A6-0161CF01E1B6}"/>
-    <hyperlink ref="E107" r:id="rId142" xr:uid="{8ECAAF5F-B9A4-47F1-B54A-321DBC4A1E18}"/>
-    <hyperlink ref="E110" r:id="rId143" xr:uid="{48D19F5E-B124-4EB7-A17C-8A07E4258CE9}"/>
-    <hyperlink ref="E108" r:id="rId144" xr:uid="{A20D3077-A8D0-4E98-9BAA-14C6A57235CD}"/>
-    <hyperlink ref="E109" r:id="rId145" xr:uid="{508665AB-2633-49A3-A294-C6B8BDCABF15}"/>
-    <hyperlink ref="E111" r:id="rId146" xr:uid="{070E815B-C563-4496-B0CB-764E9ACEB327}"/>
-    <hyperlink ref="E121" r:id="rId147" display="אלנג'ח באל עמל" xr:uid="{7EB6997D-355A-4553-8811-CED44350F56E}"/>
-    <hyperlink ref="E122" r:id="rId148" xr:uid="{F159EFE3-6343-4799-9477-43B3D4807239}"/>
-    <hyperlink ref="E123" r:id="rId149" xr:uid="{B32458EF-6C7C-4DCF-8F2B-0628D25849FA}"/>
-    <hyperlink ref="E124" r:id="rId150" xr:uid="{9996128A-48B8-4552-BD25-55676B605DB4}"/>
-    <hyperlink ref="E125" r:id="rId151" xr:uid="{BA6A641D-43BA-4D80-8547-C8B178042C92}"/>
-    <hyperlink ref="E126" r:id="rId152" xr:uid="{02224005-1ACC-4D1B-AEB1-E8F5152DAB54}"/>
-    <hyperlink ref="E127" r:id="rId153" xr:uid="{51A53AFB-62E7-4541-A16B-072A8C3E26E0}"/>
-    <hyperlink ref="E128" r:id="rId154" xr:uid="{7699A92A-E2E5-45DE-B95F-465FDB1B0291}"/>
-    <hyperlink ref="E129" r:id="rId155" xr:uid="{1563E796-F12A-4EAB-B115-F2C0FC427FF1}"/>
-    <hyperlink ref="E130" r:id="rId156" xr:uid="{0F7E329E-5CF4-41D6-9345-AD8C3AB7F1EE}"/>
-    <hyperlink ref="E131" r:id="rId157" xr:uid="{395D7C15-79DB-4E23-867A-53B3AAA20DE9}"/>
-    <hyperlink ref="E141" r:id="rId158" xr:uid="{D66A2BE6-78CE-4F12-8B78-54DD0796DA62}"/>
-    <hyperlink ref="E142" r:id="rId159" xr:uid="{844FE30C-E12A-453F-8D09-9463CBF3434A}"/>
-    <hyperlink ref="E138" r:id="rId160" xr:uid="{F7D05626-5D47-4908-BEF2-B82AE2886FAC}"/>
-    <hyperlink ref="E143" r:id="rId161" xr:uid="{48F85CAC-1D42-4405-8212-B1083AA7FF8F}"/>
-    <hyperlink ref="E139" r:id="rId162" xr:uid="{AD9C149E-619F-4306-A511-FADE4FE1D0EE}"/>
-    <hyperlink ref="E140" r:id="rId163" xr:uid="{5BE287AE-467B-4EE5-9083-E38AAA90D6E7}"/>
-    <hyperlink ref="E133" r:id="rId164" xr:uid="{F92DFEA9-8A94-4599-84CD-6DBCD24822FD}"/>
-    <hyperlink ref="E135" r:id="rId165" xr:uid="{19B476EF-410F-46BD-91A2-9C3C84C30A57}"/>
-    <hyperlink ref="E136" r:id="rId166" xr:uid="{88E0035F-4463-4807-A632-DF021923F699}"/>
-    <hyperlink ref="E137" r:id="rId167" xr:uid="{1CD295DE-E425-4870-81C5-8500E8218012}"/>
-    <hyperlink ref="E134" r:id="rId168" xr:uid="{FA9C9FDB-E223-4BF3-9701-FC6AA41F6EBC}"/>
-    <hyperlink ref="E100" r:id="rId169" xr:uid="{80B2F819-FB6D-49DD-BE11-0D512B6C38AF}"/>
-    <hyperlink ref="E101" r:id="rId170" xr:uid="{1DAD4E5B-E6D2-4648-9810-926E3DA8DC65}"/>
-    <hyperlink ref="E102" r:id="rId171" xr:uid="{5B3766C6-53DB-432B-846A-EB9FB81B1C2C}"/>
-    <hyperlink ref="E103" r:id="rId172" xr:uid="{03A41EF8-2BC8-4F46-B601-CFCA9531D85A}"/>
-    <hyperlink ref="E104" r:id="rId173" xr:uid="{0DD3A72E-DFD0-4368-B61A-004BFB7E7C76}"/>
-    <hyperlink ref="E105" r:id="rId174" xr:uid="{ED9593D9-1252-4CA4-887F-044E3D0DFF48}"/>
-    <hyperlink ref="E279" r:id="rId175" xr:uid="{3795D2C5-CC4C-416C-97F0-CA5405C22AB8}"/>
-    <hyperlink ref="E280" r:id="rId176" xr:uid="{09E22359-7477-4CAD-B2E3-8CACD09ADAE2}"/>
-    <hyperlink ref="E281" r:id="rId177" xr:uid="{1F7341C7-2DC4-4F90-8063-4AA5929C1EC9}"/>
-    <hyperlink ref="E99" r:id="rId178" xr:uid="{ECCECE49-CD39-4051-A712-5C042D81C90A}"/>
-    <hyperlink ref="E98" r:id="rId179" xr:uid="{9B1F8933-4232-450A-AA0D-F7FE6C8EAC52}"/>
-    <hyperlink ref="E97" r:id="rId180" xr:uid="{3E48AF94-B950-493B-BE89-A9ACAB5C3A44}"/>
-    <hyperlink ref="E96" r:id="rId181" xr:uid="{83B93870-8179-4FBD-92CF-033955A36208}"/>
-    <hyperlink ref="E95" r:id="rId182" xr:uid="{C13E91E6-65E9-4080-8BE0-9D2F2BF4177B}"/>
-    <hyperlink ref="E94" r:id="rId183" xr:uid="{2358D303-B66D-49AE-A4DA-E2EDBB9614A6}"/>
-    <hyperlink ref="E60" r:id="rId184" xr:uid="{326035B2-EC1F-43FD-8CA4-F3698F0634B1}"/>
-    <hyperlink ref="E61" r:id="rId185" xr:uid="{1D490AA6-411A-40D0-877B-BDDDDFA8B270}"/>
-    <hyperlink ref="E62" r:id="rId186" xr:uid="{5716ED45-294C-4100-9189-B57F73A0A99F}"/>
-    <hyperlink ref="E63" r:id="rId187" xr:uid="{E652122C-AD9E-4ED3-A37F-3164A0CEB75E}"/>
-    <hyperlink ref="E65" r:id="rId188" xr:uid="{4C5AF90C-1A3C-4F66-8E79-37F5727332FC}"/>
-    <hyperlink ref="E64" r:id="rId189" xr:uid="{193F0C95-848C-4900-8342-1265CC9CDB4E}"/>
-    <hyperlink ref="E66" r:id="rId190" xr:uid="{64A57A16-5F1F-4FCC-9C6F-8806A77EE41F}"/>
-    <hyperlink ref="E67" r:id="rId191" xr:uid="{A2F9E549-C3CB-421F-B5F6-8152092607A3}"/>
-    <hyperlink ref="E68" r:id="rId192" xr:uid="{7653BCD8-7065-4F6B-82B4-8F9A3ECBFCAE}"/>
-    <hyperlink ref="E69" r:id="rId193" xr:uid="{B6019EAD-35A4-426A-8D07-C06F02C0B747}"/>
-    <hyperlink ref="E70" r:id="rId194" xr:uid="{CED5C87D-2797-45EE-AD30-93772463D49B}"/>
-    <hyperlink ref="E71" r:id="rId195" xr:uid="{A5559B20-319C-440D-B205-0738A5C6296C}"/>
-    <hyperlink ref="E72" r:id="rId196" xr:uid="{A4AFEF3F-294C-40DC-BAF9-C4556D9AA3F4}"/>
-    <hyperlink ref="E73" r:id="rId197" xr:uid="{EFCF8E11-ADBD-4F31-B76D-6DA5B6CBD11F}"/>
-    <hyperlink ref="E74" r:id="rId198" xr:uid="{153414DB-2409-4FCA-86FF-2BABB370F23B}"/>
-    <hyperlink ref="E76" r:id="rId199" xr:uid="{5B156FDD-1393-436F-82D6-5265149BCDF8}"/>
-    <hyperlink ref="E77" r:id="rId200" xr:uid="{97A88047-1552-44F3-B158-DCB45144C7BD}"/>
-    <hyperlink ref="E78" r:id="rId201" xr:uid="{4C7035A6-BE7D-417D-A384-1B430C9C78E7}"/>
-    <hyperlink ref="E79" r:id="rId202" xr:uid="{15B662F0-4739-4DA6-9B45-39E31B19D07B}"/>
-    <hyperlink ref="E92" r:id="rId203" xr:uid="{7724B1AB-444A-4596-A90E-05A5D71E1344}"/>
-    <hyperlink ref="E91" r:id="rId204" xr:uid="{B04AA91E-DE1C-4B89-AECD-70F490AAF3E0}"/>
-    <hyperlink ref="E90" r:id="rId205" xr:uid="{94C2B272-3D7E-4CDA-96D2-6E9D111D858D}"/>
-    <hyperlink ref="E89" r:id="rId206" xr:uid="{59DF3DB1-5A9B-4715-8710-8787347A2120}"/>
-    <hyperlink ref="E88" r:id="rId207" xr:uid="{AC6DD1A6-B1E8-4EC2-BBCE-5CFB20CAA339}"/>
-    <hyperlink ref="E87" r:id="rId208" xr:uid="{805CF71E-5ECB-4125-AA53-38A51A687396}"/>
-    <hyperlink ref="E86" r:id="rId209" xr:uid="{FE9034D5-CC8C-465E-9168-691571FF1575}"/>
-    <hyperlink ref="E85" r:id="rId210" xr:uid="{87C509AA-802C-4E1D-BB04-AA74937BA18C}"/>
-    <hyperlink ref="E84" r:id="rId211" xr:uid="{0C0D525D-691C-4F5A-ABDA-EA3E78182E94}"/>
-    <hyperlink ref="E83" r:id="rId212" xr:uid="{82832DFE-4296-4978-9CC0-17B0C73B2DD9}"/>
-    <hyperlink ref="E82" r:id="rId213" xr:uid="{140D6A50-B79A-4C53-83AD-42BE7E2C137A}"/>
-    <hyperlink ref="E81" r:id="rId214" xr:uid="{EE82384B-5243-4056-B442-277EB3F93FF3}"/>
-    <hyperlink ref="E80" r:id="rId215" display="פִר חִ'בְּזַכּ בִּאלְשַט עַקַבּ אַלְף סַנ9ה תְשוֳפוּ فر خبزك بالشط عقب الف سنه تشوفو" xr:uid="{D89CBCE6-EF3B-4BF2-945C-5BCEC8E6467D}"/>
-    <hyperlink ref="E75" r:id="rId216" xr:uid="{9CD9F238-4923-43F7-86D0-3B020049C37E}"/>
-    <hyperlink ref="E59" r:id="rId217" xr:uid="{954F10B9-A5C5-43AB-A850-9CE00B92747E}"/>
-    <hyperlink ref="E58" r:id="rId218" xr:uid="{13D9CC5E-0F6B-4DC2-B58C-9F6E089E7F33}"/>
-    <hyperlink ref="E57" r:id="rId219" xr:uid="{F3D04F29-53A4-411F-A58B-57A8EADC1610}"/>
-    <hyperlink ref="E56" r:id="rId220" display="לא מִן חֵ'יע'וּ וַלָא מִן שֵע'וּ" xr:uid="{445390E9-FD8C-44A6-92BD-8684BF88BDDC}"/>
-    <hyperlink ref="E55" r:id="rId221" xr:uid="{ECF05B3D-EC4A-4A66-A3D7-100C397059DD}"/>
-    <hyperlink ref="E54" r:id="rId222" xr:uid="{82EF8C9E-6D6D-4958-86FB-05E558727FEB}"/>
-    <hyperlink ref="E53" r:id="rId223" xr:uid="{DB079185-BF74-4822-81A5-F5B9F6AD5614}"/>
-    <hyperlink ref="E52" r:id="rId224" xr:uid="{745DBE7C-657C-4AFD-BD9E-FE83D90F1FA9}"/>
-    <hyperlink ref="E51" r:id="rId225" xr:uid="{2415EFC1-C883-4CFF-B682-8CF2892D6BD9}"/>
-    <hyperlink ref="E50" r:id="rId226" xr:uid="{BF33182C-8397-4E9B-9740-69738142DA2B}"/>
-    <hyperlink ref="E48" r:id="rId227" display="https://www.facebook.com/groups/742470139214981/permalink/1538833692911951/" xr:uid="{EAA34C81-B27D-45E0-9D91-35F47F9F8F6B}"/>
-    <hyperlink ref="E47" r:id="rId228" xr:uid="{AEA4AE45-87E7-4132-B203-60C195FD5C07}"/>
-    <hyperlink ref="E46" r:id="rId229" display="https://www.facebook.com/groups/zahavb/permalink/1057727710934216/" xr:uid="{880D6AA9-7A99-4FFF-9AF7-24ABDFFEFD40}"/>
-    <hyperlink ref="E49" r:id="rId230" xr:uid="{380409D4-9D65-4519-BD4E-91487E6772E9}"/>
-    <hyperlink ref="E45" r:id="rId231" xr:uid="{96365362-BCA5-4DB1-87DB-B073DC5CCA81}"/>
-    <hyperlink ref="E44" r:id="rId232" xr:uid="{FDC05AF1-FDED-4DCD-A779-A614148E61A8}"/>
-    <hyperlink ref="E43" r:id="rId233" xr:uid="{2EC22809-E9F6-4CF2-85C7-9F970D788F02}"/>
-    <hyperlink ref="E42" r:id="rId234" xr:uid="{7E78792F-8B8F-4208-9E8F-64ED8F9A204C}"/>
-    <hyperlink ref="E41" r:id="rId235" xr:uid="{38B3253C-0025-426B-9741-9314D0C6C5EF}"/>
-    <hyperlink ref="E40" r:id="rId236" xr:uid="{77E57B92-DD40-405D-9100-ED9B6ACB3241}"/>
-    <hyperlink ref="E39" r:id="rId237" xr:uid="{1F4C6887-BC1C-4557-B0F6-2E2C2EEDF7B5}"/>
-    <hyperlink ref="E38" r:id="rId238" xr:uid="{55420786-459D-4384-9CF6-436E04930CCE}"/>
-    <hyperlink ref="E37" r:id="rId239" xr:uid="{B3A35D43-C9A4-4E5A-A870-A7E2BCF50C5E}"/>
-    <hyperlink ref="E35" r:id="rId240" xr:uid="{4C7B4F3B-E7E8-42D7-9E22-BA6FA6D7E2D2}"/>
-    <hyperlink ref="E34" r:id="rId241" xr:uid="{FC06BD5B-476A-4E02-BFF1-70FE909DC760}"/>
-    <hyperlink ref="E33" r:id="rId242" xr:uid="{AFE03C17-78DB-4A1C-8AE6-48D675C4BA31}"/>
-    <hyperlink ref="E32" r:id="rId243" xr:uid="{91D8CD69-ABE1-40A6-8035-749B4342A471}"/>
-    <hyperlink ref="E36" r:id="rId244" xr:uid="{B5F2D201-33A4-46E6-8F6E-6D1451D4E423}"/>
-    <hyperlink ref="E31" r:id="rId245" xr:uid="{D8FB5A71-FC3A-4A7B-ACB3-3E43BA60B077}"/>
-    <hyperlink ref="E30" r:id="rId246" xr:uid="{7D4A058C-8353-4A75-9481-D12C5F04C954}"/>
-    <hyperlink ref="E29" r:id="rId247" xr:uid="{A126FEF3-0098-4DBE-9421-AA1B609D3AA2}"/>
-    <hyperlink ref="E28" r:id="rId248" xr:uid="{F428D037-9789-431D-834E-E86B07025CF8}"/>
-    <hyperlink ref="E27" r:id="rId249" xr:uid="{F3D1E977-9A00-4673-87DE-5EAA6634F4B0}"/>
-    <hyperlink ref="E26" r:id="rId250" xr:uid="{CC2C60E5-BBFE-47AB-A4C5-75F3B5E1B15B}"/>
-    <hyperlink ref="E25" r:id="rId251" xr:uid="{4680B538-C4F5-432B-9B5A-2520B41FCF87}"/>
-    <hyperlink ref="E24" r:id="rId252" xr:uid="{AF6331E9-ADB1-478E-9ED5-6B2162FDFCCE}"/>
-    <hyperlink ref="E23" r:id="rId253" xr:uid="{01D3B00B-1D46-419D-8B5E-113D5EFD502A}"/>
-    <hyperlink ref="E22" r:id="rId254" xr:uid="{203827FC-E251-4C81-ADED-9EFDD8E0EF47}"/>
-    <hyperlink ref="E21" r:id="rId255" xr:uid="{90B0C1E9-B1BF-41D9-9C35-89D23A43849D}"/>
-    <hyperlink ref="E20" r:id="rId256" xr:uid="{0050E3D3-5D0D-4819-8463-6DFC8D0EC41E}"/>
-    <hyperlink ref="E19" r:id="rId257" xr:uid="{BF08AA46-19D9-42D4-BA76-D6AD312B4C1B}"/>
-    <hyperlink ref="E18" r:id="rId258" xr:uid="{2443DC9C-C07F-4F69-BD24-12958542FFCC}"/>
-    <hyperlink ref="E17" r:id="rId259" xr:uid="{F3D6BD92-F397-4F87-A908-291D97AD8547}"/>
-    <hyperlink ref="E16" r:id="rId260" xr:uid="{EBC79712-DD50-44F4-9B9C-0556B34FE58F}"/>
-    <hyperlink ref="E15" r:id="rId261" xr:uid="{8AF37940-B14C-4D7D-AAD8-2EAA2529FDEF}"/>
-    <hyperlink ref="E14" r:id="rId262" xr:uid="{42C65E19-D9CC-4D85-B6C4-CC0CC73A183F}"/>
-    <hyperlink ref="E13" r:id="rId263" xr:uid="{A4E8D34B-6293-41C8-83BF-16E14282CB6D}"/>
-    <hyperlink ref="E12" r:id="rId264" xr:uid="{C2C44451-0066-4A47-867C-2048640D849F}"/>
-    <hyperlink ref="E11" r:id="rId265" xr:uid="{060CE5D8-57D5-4EDD-8E9A-16165553A95C}"/>
-    <hyperlink ref="E10" r:id="rId266" xr:uid="{AB480237-A977-4AA2-9C49-445CBE724B6F}"/>
-    <hyperlink ref="E9" r:id="rId267" xr:uid="{3A1C6D2E-E1D6-46E7-98D3-10444472336F}"/>
-    <hyperlink ref="E8" r:id="rId268" xr:uid="{A5E9F5B6-A6F6-45C1-9DE7-CA9FF750DDA9}"/>
-    <hyperlink ref="E7" r:id="rId269" xr:uid="{96EE0ABC-38AF-4D90-A7D3-7AE85A9D8FB2}"/>
-    <hyperlink ref="E6" r:id="rId270" xr:uid="{CF777344-3DBE-4303-98BB-0682C48C55EC}"/>
-    <hyperlink ref="E5" r:id="rId271" xr:uid="{15945511-6653-4D1F-ACD2-C97B6443D8FB}"/>
-    <hyperlink ref="E4" r:id="rId272" xr:uid="{5D60B08F-510E-44EC-92BB-5EB0B04D9773}"/>
+    <hyperlink ref="E114" r:id="rId1" display="https://www.facebook.com/groups/zahavb/permalink/8978735795499995/" xr:uid="{EDA07A67-EF1C-414F-9D3B-77541E2AE162}"/>
+    <hyperlink ref="E115" r:id="rId2" display="https://www.facebook.com/groups/zahavb/permalink/8979507115422863/" xr:uid="{A7C1636E-63AB-4C81-A094-DA80B33AFC5D}"/>
+    <hyperlink ref="E116" r:id="rId3" display="https://www.facebook.com/groups/zahavb/permalink/8978191945554380/" xr:uid="{FF189D93-4F18-406F-972E-9B64A82CAF68}"/>
+    <hyperlink ref="E117" r:id="rId4" display="https://www.facebook.com/groups/zahavb/permalink/8979374112102830/" xr:uid="{1B3C0E64-88A3-4C0F-9165-B1598BE81295}"/>
+    <hyperlink ref="E118" r:id="rId5" display="https://www.facebook.com/groups/742470139214981/permalink/5166195643509053/" xr:uid="{27860454-D0C1-4F1E-B9D0-27D8DFAD7BEF}"/>
+    <hyperlink ref="E119" r:id="rId6" display="https://www.facebook.com/permalink.php?story_fbid=1512385105763834&amp;id=100009770775297" xr:uid="{1A0AB670-5A56-4DC4-84AA-82206E0DC189}"/>
+    <hyperlink ref="E120" r:id="rId7" display="https://www.facebook.com/groups/742470139214981/permalink/5163551270440157/" xr:uid="{AB81C3CF-3C8B-417C-8997-CF546D3AA030}"/>
+    <hyperlink ref="E121" r:id="rId8" display="https://www.facebook.com/davebist1/posts/10158921260197081" xr:uid="{5A405C0C-D8AD-40B5-AE91-0527C447104D}"/>
+    <hyperlink ref="E148" r:id="rId9" display="https://www.facebook.com/groups/zahavb/permalink/8850041931702716/" xr:uid="{97AD24A8-11F5-4560-BF29-56E362B7C6D9}"/>
+    <hyperlink ref="E147" r:id="rId10" display="https://www.facebook.com/groups/742470139214981/permalink/5094845747310710/" xr:uid="{19D91A9A-43BA-4ED0-B287-FFBF930A412D}"/>
+    <hyperlink ref="E145" r:id="rId11" xr:uid="{B5FFBE13-0264-4FDD-92E8-CA6220D7C7E8}"/>
+    <hyperlink ref="E149" r:id="rId12" xr:uid="{B4FD96CE-2E16-4C69-AA47-BDAE9FC81092}"/>
+    <hyperlink ref="E150" r:id="rId13" xr:uid="{762459B5-3EBA-4882-8EBA-67DE963B779B}"/>
+    <hyperlink ref="E151" r:id="rId14" xr:uid="{710F3270-8753-4276-B350-D365A47B73E5}"/>
+    <hyperlink ref="E152" r:id="rId15" xr:uid="{D58E72C8-C56F-4D3D-B3E1-8E9654F3010E}"/>
+    <hyperlink ref="E153" r:id="rId16" xr:uid="{190B8ECE-83D9-491D-B56D-56A4D3D6E26A}"/>
+    <hyperlink ref="E154" r:id="rId17" xr:uid="{BF071EB1-959E-4B4D-BE2C-7DA4AFCD2390}"/>
+    <hyperlink ref="E155" r:id="rId18" xr:uid="{9E06375D-43CF-4DAF-975A-E329B8800E9E}"/>
+    <hyperlink ref="E156" r:id="rId19" xr:uid="{28D9F026-FF70-4B54-8016-680B96B66E07}"/>
+    <hyperlink ref="E157" r:id="rId20" xr:uid="{122B7F19-94C4-4910-A513-0DE45269423E}"/>
+    <hyperlink ref="E159" r:id="rId21" display="https://www.facebook.com/groups/zahavb/permalink/8711050945601816/" xr:uid="{EF60166D-4EFA-43AF-83C5-7A578C3B64C1}"/>
+    <hyperlink ref="E160" r:id="rId22" display="https://www.facebook.com/groups/zahavb/permalink/8710637998976444/" xr:uid="{295F5BBD-3C6F-416B-8DDD-F9889028F348}"/>
+    <hyperlink ref="E161" r:id="rId23" xr:uid="{66911246-A9F4-46CD-A3C4-5412C63D4AC5}"/>
+    <hyperlink ref="E162" r:id="rId24" display="https://www.facebook.com/groups/742470139214981/permalink/5007174239411195/" xr:uid="{74233E9E-6D92-4FC9-BCDF-61600A945D31}"/>
+    <hyperlink ref="E163" r:id="rId25" display="https://www.facebook.com/groups/652398295151266/permalink/1830007380723679/" xr:uid="{3957D016-E395-4BF4-8598-3EAC1A8E2DF1}"/>
+    <hyperlink ref="E164" r:id="rId26" display="https://www.facebook.com/groups/zahavb/permalink/8700681923305385/" xr:uid="{566E406E-096F-43A7-A51D-4F19848D2F7C}"/>
+    <hyperlink ref="E165" r:id="rId27" display="https://www.facebook.com/groups/742470139214981/permalink/5001367726658513/" xr:uid="{3050CFAF-0A82-4FB5-A271-D9C3F645B89D}"/>
+    <hyperlink ref="E166" r:id="rId28" display="https://www.facebook.com/groups/zahavb/permalink/8685520248154886/" xr:uid="{304F8441-504B-496C-85EB-2DC05D5B5306}"/>
+    <hyperlink ref="E167" r:id="rId29" display="https://www.facebook.com/groups/zahavb/permalink/8681121768594734/" xr:uid="{BD446D3B-1C12-4A0A-B48F-000BAFC34C2C}"/>
+    <hyperlink ref="E168" r:id="rId30" display="https://www.facebook.com/groups/forumraanana/permalink/5110610695659444/" xr:uid="{1593812D-A9B4-422A-AE34-FF924F35EF3D}"/>
+    <hyperlink ref="E169" r:id="rId31" display="https://www.facebook.com/groups/742470139214981/permalink/4989898481138771/" xr:uid="{D29A623C-4A65-44F9-81F9-B255BE99E876}"/>
+    <hyperlink ref="E170" r:id="rId32" display="https://www.facebook.com/groups/zahavb/permalink/8661004357273142/" xr:uid="{A0C06027-1CF7-4373-87E5-7C45A93F7F1C}"/>
+    <hyperlink ref="E171" r:id="rId33" display="https://www.facebook.com/groups/zahavb/permalink/1556983591008623/" xr:uid="{E8DC42C3-C73E-4ACD-B9FA-FE9BA88F1651}"/>
+    <hyperlink ref="E172" r:id="rId34" display="https://www.facebook.com/groups/742470139214981/permalink/4986778264784126/" xr:uid="{55B6F939-A0FF-4BD3-9CFB-31AD9F623ACE}"/>
+    <hyperlink ref="E173" r:id="rId35" display="https://www.facebook.com/groups/742470139214981/permalink/4983426415119311/" xr:uid="{068281F2-CCA1-488C-987E-24B43BBE71A1}"/>
+    <hyperlink ref="E174" r:id="rId36" display="https://www.facebook.com/groups/zahavb/permalink/8646468978726680/" xr:uid="{51DF7F69-FA34-496F-A00E-BC78D4AFAD11}"/>
+    <hyperlink ref="E175" r:id="rId37" display="https://www.facebook.com/groups/zahavb/permalink/1417009275006056/" xr:uid="{9C282281-4B2D-4E2A-809F-B42CD11FD738}"/>
+    <hyperlink ref="E176" r:id="rId38" display="https://www.facebook.com/groups/zahavb/permalink/8644989472207964/" xr:uid="{47FD1035-144C-45C4-AC5F-2FECC5026645}"/>
+    <hyperlink ref="E177" r:id="rId39" xr:uid="{EB433E43-81BA-46CA-A9B5-BE9AD4606724}"/>
+    <hyperlink ref="E178" r:id="rId40" xr:uid="{013506E4-8BA0-46D8-924A-1F8A5FB5A3D8}"/>
+    <hyperlink ref="E179" r:id="rId41" display="https://www.facebook.com/groups/zahavb/permalink/8641582282548683/" xr:uid="{E7575A16-7949-4C28-8686-F7177660E848}"/>
+    <hyperlink ref="E180" r:id="rId42" display="https://www.facebook.com/groups/zahavb/permalink/8630002973706614/" xr:uid="{F14263B2-B17E-4849-9FC5-A185C706D94E}"/>
+    <hyperlink ref="E181" r:id="rId43" display="https://www.facebook.com/groups/zahavb/permalink/8629897890383789/" xr:uid="{FF535149-9DAD-4DCB-A4C8-13C5D4BDE4BB}"/>
+    <hyperlink ref="E182" r:id="rId44" display="https://www.facebook.com/groups/zahavb/permalink/8634046819968896/" xr:uid="{A1B61536-FF98-49FA-AE84-26B7515ACA25}"/>
+    <hyperlink ref="E183" r:id="rId45" display="https://www.facebook.com/groups/zahavb/permalink/8634606756579569/" xr:uid="{5ADA9805-DC9D-40B6-8A5E-8751079FD337}"/>
+    <hyperlink ref="E184" r:id="rId46" display="https://www.facebook.com/groups/zahavb/permalink/8634584986581746/" xr:uid="{271A7DBF-D167-45C8-8238-55C94A6D52CD}"/>
+    <hyperlink ref="E185" r:id="rId47" display="https://www.facebook.com/groups/zahavb/permalink/8631949216845323/" xr:uid="{63AFED5A-8EFD-4E95-9801-03F0211BB92D}"/>
+    <hyperlink ref="E186" r:id="rId48" display="https://www.facebook.com/groups/zahavb/permalink/6906712172702378/" xr:uid="{79319536-F9D0-4C67-A520-587EA617188B}"/>
+    <hyperlink ref="E187" r:id="rId49" display="https://www.facebook.com/groups/zahavb/permalink/1116607761712877/" xr:uid="{25BF0F34-9A9E-46A5-AB03-081AFE7D08F2}"/>
+    <hyperlink ref="E188" r:id="rId50" display="https://www.facebook.com/groups/zahavb/permalink/8620944891279089/" xr:uid="{6E2BA733-DD40-45BA-BF35-F759B99E7FD4}"/>
+    <hyperlink ref="E189" r:id="rId51" display="https://www.facebook.com/groups/zahavb/permalink/8616684615038450/" xr:uid="{171AE562-FB50-4CB4-ACED-0ACB4C17301E}"/>
+    <hyperlink ref="E190" r:id="rId52" display="https://www.facebook.com/groups/zahavb/permalink/8611297865577125/" xr:uid="{795C1E17-3E10-4219-85DD-E1A75731DD69}"/>
+    <hyperlink ref="E191" r:id="rId53" display="https://www.facebook.com/groups/zahavb/permalink/8604977309542514/" xr:uid="{6F6867EB-5DA1-4314-B36C-DF93991D8196}"/>
+    <hyperlink ref="E193" r:id="rId54" display="https://www.facebook.com/groups/zahavb/permalink/8605488962824682/" xr:uid="{A8C5F794-88D7-41F8-AEEE-43FC53060C3E}"/>
+    <hyperlink ref="E194" r:id="rId55" display="https://www.facebook.com/groups/zahavb/permalink/8605033392870239/" xr:uid="{07D88EEE-FA9B-488B-A1EE-87A36DAB01F8}"/>
+    <hyperlink ref="E195" r:id="rId56" display="https://www.facebook.com/groups/742470139214981/permalink/4949388838523069/" xr:uid="{321C821F-C6B6-4F2F-A5D2-AD7EA27F3190}"/>
+    <hyperlink ref="E192" r:id="rId57" display="https://www.facebook.com/groups/742470139214981/permalink/4952177551577531/" xr:uid="{EAEF8D95-1317-4339-9763-8BBB4547663A}"/>
+    <hyperlink ref="E196" r:id="rId58" display="https://www.facebook.com/groups/zahavb/permalink/8603229029717342/" xr:uid="{F4722F48-DEA7-47D4-B66E-0CA2DEDF42B6}"/>
+    <hyperlink ref="E197" r:id="rId59" display="https://www.facebook.com/groups/zahavb/permalink/8603207713052807/" xr:uid="{EB5116EA-3134-4874-9EE4-B1F1C3E136D4}"/>
+    <hyperlink ref="E198" r:id="rId60" display="https://www.facebook.com/groups/zahavb/permalink/8588179731222272/" xr:uid="{D5AB3AA2-3563-4C2F-B83D-54DFDB2E597C}"/>
+    <hyperlink ref="E199" r:id="rId61" display="https://www.facebook.com/groups/zahavb/permalink/8584092724964306/" xr:uid="{20A34502-8A4D-4476-A06C-C104BA228DF4}"/>
+    <hyperlink ref="E211" r:id="rId62" display="https://www.facebook.com/groups/zahavb/permalink/8559811924059053/" xr:uid="{64614C89-83BB-427F-BBD2-C9442BA15D31}"/>
+    <hyperlink ref="E212" r:id="rId63" display="https://www.facebook.com/groups/zahavb/permalink/8561236517249927/" xr:uid="{15BC8DFC-0270-4E5F-A9D4-77488576CDB3}"/>
+    <hyperlink ref="E213" r:id="rId64" display="https://www.facebook.com/groups/742470139214981/permalink/4919999591461994/" xr:uid="{C8947E71-60B5-41C4-BCC3-04683E603D9F}"/>
+    <hyperlink ref="E214" r:id="rId65" display="https://www.facebook.com/groups/zahavb/permalink/8535132296527016/" xr:uid="{F8776C7F-370D-47D8-B677-C587CA63F765}"/>
+    <hyperlink ref="E215" r:id="rId66" display="https://www.facebook.com/groups/zahavb/permalink/8536109253095987/" xr:uid="{75A74C02-D166-4C01-A200-76960C74A5B4}"/>
+    <hyperlink ref="E216" r:id="rId67" display="https://www.facebook.com/groups/zahavb/permalink/8540789052628007/" xr:uid="{1F3572D1-EECE-444C-A8CA-97738F05869C}"/>
+    <hyperlink ref="E217" r:id="rId68" display="https://www.facebook.com/groups/zahavb/permalink/8541496722557240/" xr:uid="{DBB828D0-ADA1-45ED-8D51-9C66FE1B0383}"/>
+    <hyperlink ref="E218" r:id="rId69" display="https://www.facebook.com/groups/zahavb/permalink/8536791729694406/" xr:uid="{C5847033-E484-4C50-84C2-D2CCED965321}"/>
+    <hyperlink ref="E219" r:id="rId70" display="https://www.facebook.com/groups/zahavb/permalink/8540772299296349/" xr:uid="{39E20E9B-EC41-4C73-A350-3AB10B51ED09}"/>
+    <hyperlink ref="E220" r:id="rId71" display="https://www.facebook.com/groups/zahavb/permalink/7506227959417460/" xr:uid="{26B56AEC-E0A1-42A1-947A-FF03A1845919}"/>
+    <hyperlink ref="E221" r:id="rId72" display="https://www.facebook.com/groups/zahavb/permalink/8533661973340715/" xr:uid="{350C1A2D-0E80-46EC-8208-B037EA89CF4E}"/>
+    <hyperlink ref="E222" r:id="rId73" display="https://www.facebook.com/groups/zahavb/permalink/8533234376716808/" xr:uid="{8EDD906C-07F0-4710-A0BF-D42F9A43B8F9}"/>
+    <hyperlink ref="E223" r:id="rId74" display="https://www.facebook.com/groups/zahavb/permalink/8527630953943817/" xr:uid="{C4D969E6-6516-42FB-A304-2BEA147B4A0D}"/>
+    <hyperlink ref="E224" r:id="rId75" display="https://www.facebook.com/groups/zahavb/permalink/7670150949691826/" xr:uid="{C6AB7E56-54D9-4FA2-8E2E-0F3280C4DCD7}"/>
+    <hyperlink ref="E225" r:id="rId76" display="https://www.facebook.com/groups/zahavb/permalink/8517759714930941/" xr:uid="{CCF6994D-ECC9-4A49-A183-D02BF65DA019}"/>
+    <hyperlink ref="E226" r:id="rId77" display="https://www.facebook.com/groups/zahavb/permalink/8506613359378910/" xr:uid="{BC007958-4F71-45FB-8DE9-EB53E6CC2187}"/>
+    <hyperlink ref="E227" r:id="rId78" display="https://www.facebook.com/groups/zahavb/permalink/8504000609640185/" xr:uid="{D721C758-58AB-4ABC-8F3D-67260F2C718B}"/>
+    <hyperlink ref="E228" r:id="rId79" display="https://www.facebook.com/groups/zahavb/permalink/8503498873023692/" xr:uid="{F04ACC1A-8836-4AFE-8E41-C9108921288A}"/>
+    <hyperlink ref="E229" r:id="rId80" display="https://www.facebook.com/groups/zahavb/permalink/8494691503904429/" xr:uid="{D71835FA-4D59-4BEE-87D7-B4E76A1285CD}"/>
+    <hyperlink ref="E230" r:id="rId81" display="https://www.facebook.com/groups/zahavb/permalink/8486180131422233/" xr:uid="{1C719111-D880-498B-939E-B5AC3CE1040A}"/>
+    <hyperlink ref="E231" r:id="rId82" display="https://www.facebook.com/groups/zahavb/permalink/8483916084981971/" xr:uid="{4C6159B9-D96F-4734-BD5A-D107F63FF6BF}"/>
+    <hyperlink ref="E200" r:id="rId83" display="https://www.facebook.com/groups/zahavb/permalink/1125542607486059/" xr:uid="{3C33E25C-8A2B-4DAD-9019-EB792D48A93A}"/>
+    <hyperlink ref="E201" r:id="rId84" display="https://www.facebook.com/groups/zahavb/permalink/6051470714893199" xr:uid="{B6EF27EA-1B09-4426-9820-566C3FC85F10}"/>
+    <hyperlink ref="E202" r:id="rId85" display="https://www.facebook.com/groups/zahavb/permalink/6051474881559449/" xr:uid="{2C564BD1-08AC-40F4-A10D-B7B5D9B5480A}"/>
+    <hyperlink ref="E203" r:id="rId86" display="https://www.facebook.com/groups/zahavb/permalink/801396873233969/" xr:uid="{A9DFC2B2-7549-4F7F-AA30-B4ACD500B4CF}"/>
+    <hyperlink ref="E204" r:id="rId87" display="https://www.facebook.com/groups/zahavb/permalink/1018151498225171/" xr:uid="{E490D9E4-DDBA-4125-AFB4-0E37F5DC46BD}"/>
+    <hyperlink ref="E205" r:id="rId88" display="https://www.facebook.com/groups/zahavb/permalink/906038062769849/" xr:uid="{47F586F4-88FC-4A61-ABE3-5DC6FBAED6F7}"/>
+    <hyperlink ref="E206" r:id="rId89" display="https://www.facebook.com/groups/zahavb/permalink/6138755606164709/" xr:uid="{A78CC335-A2A3-444A-978E-86FB2E8E6D16}"/>
+    <hyperlink ref="E207" r:id="rId90" display="https://www.facebook.com/groups/zahavb/permalink/786868554686801/" xr:uid="{FE864B6E-6157-4FD6-A39A-9112A9A30777}"/>
+    <hyperlink ref="E208" r:id="rId91" display="https://www.facebook.com/groups/zahavb/permalink/5241633572543588/" xr:uid="{B422369B-233C-441C-A08F-444419B7F9BA}"/>
+    <hyperlink ref="E209" r:id="rId92" display="https://www.facebook.com/groups/zahavb/permalink/1324376237602694/" xr:uid="{B1007518-E269-4B46-ACB0-DFCEC92354EE}"/>
+    <hyperlink ref="E210" r:id="rId93" display="https://www.facebook.com/groups/zahavb/permalink/6550606778312921/" xr:uid="{74BD4AFB-CE70-4138-B262-D42197A68036}"/>
+    <hyperlink ref="E232" r:id="rId94" display="https://www.facebook.com/groups/zahavb/permalink/1276708095702842/" xr:uid="{0A606D91-0C64-448D-A376-15F70EDD4BDF}"/>
+    <hyperlink ref="E233" r:id="rId95" display="https://www.facebook.com/groups/zahavb/permalink/789300724443584/" xr:uid="{D639459D-0801-4BA4-88D6-9C1E8F6C09E1}"/>
+    <hyperlink ref="E234" r:id="rId96" display="https://www.facebook.com/groups/zahavb/permalink/8468454076528172/" xr:uid="{CF1393BA-63AE-4B6B-96A5-2C00F5557B00}"/>
+    <hyperlink ref="E235" r:id="rId97" display="https://www.facebook.com/groups/zahavb/permalink/8450341538339426/" xr:uid="{BF3F2EDF-8388-49C4-9E05-04E003FBF50A}"/>
+    <hyperlink ref="E236" r:id="rId98" display="https://www.facebook.com/groups/zahavb/permalink/8454169841289929/" xr:uid="{DCA5AA31-5C06-4E7C-8B11-9755FFCB2DFC}"/>
+    <hyperlink ref="E237" r:id="rId99" display="https://www.facebook.com/groups/zahavb/permalink/8452430988130481/" xr:uid="{5208A988-B016-4866-9E9D-D338F254C677}"/>
+    <hyperlink ref="E238" r:id="rId100" display="https://www.facebook.com/groups/742470139214981/permalink/4859405590854728/" xr:uid="{5339E731-C1F9-46D5-B13A-27F8359E69A3}"/>
+    <hyperlink ref="E239" r:id="rId101" display="https://www.facebook.com/groups/zahavb/permalink/3937310022975956/" xr:uid="{95E489F5-CF97-4DAA-B8F5-91835B320EFB}"/>
+    <hyperlink ref="E240" r:id="rId102" display="https://www.facebook.com/groups/zahavb/permalink/8439866989386881/" xr:uid="{9B5557F9-EE5D-4A16-9E79-06858BC32E06}"/>
+    <hyperlink ref="E241" r:id="rId103" display="https://www.facebook.com/groups/zahavb/permalink/8440886025951644/" xr:uid="{0CA8496D-AA8A-4B25-9678-C8F04DCDF782}"/>
+    <hyperlink ref="E242" r:id="rId104" display="https://www.facebook.com/groups/zahavb/permalink/8418275524879361/" xr:uid="{93E69A85-DCC0-49F9-AC2C-6C1FCED669FB}"/>
+    <hyperlink ref="E243" r:id="rId105" display="https://www.facebook.com/groups/zahavb/permalink/8435987873108126/" xr:uid="{55F28835-D2F0-491F-87B0-7F4DB3A03178}"/>
+    <hyperlink ref="E244" r:id="rId106" display="https://www.facebook.com/groups/zahavb/permalink/8432830043423909/" xr:uid="{8576A2C2-6C26-4BB2-88B6-22C135292697}"/>
+    <hyperlink ref="E245" r:id="rId107" display="https://www.facebook.com/groups/zahavb/permalink/5527683320605277/" xr:uid="{7C814A3A-4DF8-45FC-A78E-95BE600A50AE}"/>
+    <hyperlink ref="E246" r:id="rId108" display="https://www.facebook.com/groups/zahavb/permalink/1067143763325944/" xr:uid="{A012CC98-7782-4F31-972B-D301106240D5}"/>
+    <hyperlink ref="E247" r:id="rId109" display="https://www.facebook.com/tsionit.fattalkuperwasser/posts/2737255553249175" xr:uid="{68D8853B-711D-4E3B-A4C2-3F1C793F3DA1}"/>
+    <hyperlink ref="E248" r:id="rId110" display="https://www.facebook.com/groups/zahavb/permalink/8417015871671993/" xr:uid="{F8CBF164-FEBF-4784-B62D-72FF1FC6B994}"/>
+    <hyperlink ref="E249" r:id="rId111" display="https://www.facebook.com/groups/zahavb/permalink/8417089264997987/" xr:uid="{6529D527-01B1-4D2F-B9B9-359A5EB17BBE}"/>
+    <hyperlink ref="E250" r:id="rId112" display="https://www.facebook.com/groups/742470139214981/permalink/4830723900389564/" xr:uid="{D41F7D72-6E7D-463A-9949-28B50C241F14}"/>
+    <hyperlink ref="E251" r:id="rId113" display="https://www.facebook.com/groups/zahavb/permalink/6300762409964027/" xr:uid="{0FD633F2-3A87-476C-83F9-E731727339F1}"/>
+    <hyperlink ref="E252" r:id="rId114" xr:uid="{4589CA57-293C-45A5-8FCE-B86460D0ED4C}"/>
+    <hyperlink ref="E253" r:id="rId115" display="https://www.facebook.com/groups/zahavb/permalink/8396893497017564/" xr:uid="{994623BC-F677-4177-AF24-76362722913E}"/>
+    <hyperlink ref="E254" r:id="rId116" display="https://www.facebook.com/groups/zahavb/permalink/8384274118279502/" xr:uid="{1B3C5D87-957D-4313-A192-2EB174563C69}"/>
+    <hyperlink ref="E255" r:id="rId117" display="https://www.facebook.com/groups/zahavb/permalink/8388212351219012/" xr:uid="{A33C1D7B-C042-428A-928B-4F47102E71B0}"/>
+    <hyperlink ref="E256" r:id="rId118" display="https://www.facebook.com/groups/742470139214981/permalink/4819032274892060/" xr:uid="{4D6F3CF9-0012-4612-8B97-1277A8CFA1C4}"/>
+    <hyperlink ref="E257" r:id="rId119" display="https://www.facebook.com/groups/zahavb/permalink/8368081213232126/" xr:uid="{350338BA-87E2-4642-B312-9BB8EC4624A2}"/>
+    <hyperlink ref="E258" r:id="rId120" display="https://www.facebook.com/groups/zahavb/permalink/8373632012677046/" xr:uid="{D31CC00A-63A1-45F8-9880-60F6C638B8BA}"/>
+    <hyperlink ref="E259" r:id="rId121" display="https://www.facebook.com/groups/742470139214981/permalink/4812191535576134/" xr:uid="{A4FD1815-5E93-477C-832C-A931D711A9BB}"/>
+    <hyperlink ref="E260" r:id="rId122" display="https://www.facebook.com/groups/zahavb/permalink/8361285580578356/" xr:uid="{FD65C3C2-9CF3-4167-99BD-3E5C0CB96339}"/>
+    <hyperlink ref="E261" r:id="rId123" display="https://www.facebook.com/groups/zahavb/permalink/8365306963509551/" xr:uid="{5ACD854B-6E69-4ED6-98E1-3A3E13D9C3E5}"/>
+    <hyperlink ref="E262" r:id="rId124" display="https://www.facebook.com/groups/742470139214981/permalink/4804690366326251/" xr:uid="{3989111E-5D96-4647-A22D-3FFA79677FFA}"/>
+    <hyperlink ref="E263" r:id="rId125" display="https://www.facebook.com/groups/zahavb/permalink/7125874530786140/" xr:uid="{57BDF340-6C88-4F1F-BB92-ACEF6171D76E}"/>
+    <hyperlink ref="E264" r:id="rId126" display="https://www.facebook.com/groups/742470139214981/permalink/4784338205028134/" xr:uid="{2AFCA6BC-2CB2-458A-B09A-5DAA42727131}"/>
+    <hyperlink ref="E265" r:id="rId127" display="https://www.facebook.com/groups/zahavb/permalink/8352946648078916/" xr:uid="{0CA974D7-01DB-4851-AE9D-41B2701D8DDC}"/>
+    <hyperlink ref="E266" r:id="rId128" display="https://www.facebook.com/groups/zahavb/permalink/8352091258164455/" xr:uid="{C64E5C88-FC83-4E1D-BEB9-4F94103BD842}"/>
+    <hyperlink ref="E267" r:id="rId129" display="https://www.facebook.com/groups/zahavb/permalink/8343143709059210/" xr:uid="{A92E0553-06B5-4751-869D-497351916238}"/>
+    <hyperlink ref="E268" r:id="rId130" display="https://www.facebook.com/groups/742470139214981/permalink/4796842470444374/" xr:uid="{2A74B70C-332E-4154-AF0F-F566CC14395D}"/>
+    <hyperlink ref="E269" r:id="rId131" display="https://www.facebook.com/groups/742470139214981/permalink/4794086837386604/" xr:uid="{D6940579-1B0F-4DE5-B17E-12A05BAFD5CD}"/>
+    <hyperlink ref="E270" r:id="rId132" display="https://www.facebook.com/groups/zahavb/permalink/8342473425792905/" xr:uid="{1D61BBC7-D5E8-4C67-982E-9B3977E7EE8D}"/>
+    <hyperlink ref="E271" r:id="rId133" display="https://www.facebook.com/groups/zahavb/permalink/8338697059503875/" xr:uid="{C483859B-FA99-4C96-8F58-FED98F5309F7}"/>
+    <hyperlink ref="E272" r:id="rId134" display="https://www.facebook.com/groups/zahavb/permalink/8336776116362636/" xr:uid="{CA91D47C-D833-4DFA-83C3-D3F373656189}"/>
+    <hyperlink ref="E273" r:id="rId135" display="https://www.facebook.com/groups/742470139214981/permalink/4791483294313625/" xr:uid="{D97AB8CF-7CBF-4F84-B108-77A3ABFD7ABE}"/>
+    <hyperlink ref="E274" r:id="rId136" display="https://www.facebook.com/groups/742470139214981/permalink/4791534187641869/" xr:uid="{5C8B83DE-FD62-4E47-87E2-3808E4BFBB74}"/>
+    <hyperlink ref="E275" r:id="rId137" display="https://www.facebook.com/groups/zahavb/permalink/1229318623775123/" xr:uid="{B9D9185F-5C50-4B88-A79A-60ADDCC4C27F}"/>
+    <hyperlink ref="E276" r:id="rId138" display="https://www.facebook.com/groups/zahavb/permalink/8325339447506303/" xr:uid="{8834C3F1-4A36-4E74-8B57-20CED36D7D16}"/>
+    <hyperlink ref="E277" r:id="rId139" display="https://www.facebook.com/groups/zahavb/permalink/8314976058542642" xr:uid="{6E29676F-411F-4EF3-8FF5-742D45876D5A}"/>
+    <hyperlink ref="E278" r:id="rId140" display="https://www.facebook.com/groups/zahavb/permalink/8319902098050038/" xr:uid="{30F1F418-B51E-4E3B-8FC9-7D70353116DA}"/>
+    <hyperlink ref="E113" r:id="rId141" xr:uid="{6C7FC3DF-E07B-4DDA-A0A6-0161CF01E1B6}"/>
+    <hyperlink ref="E108" r:id="rId142" xr:uid="{8ECAAF5F-B9A4-47F1-B54A-321DBC4A1E18}"/>
+    <hyperlink ref="E111" r:id="rId143" xr:uid="{48D19F5E-B124-4EB7-A17C-8A07E4258CE9}"/>
+    <hyperlink ref="E109" r:id="rId144" xr:uid="{A20D3077-A8D0-4E98-9BAA-14C6A57235CD}"/>
+    <hyperlink ref="E110" r:id="rId145" xr:uid="{508665AB-2633-49A3-A294-C6B8BDCABF15}"/>
+    <hyperlink ref="E112" r:id="rId146" xr:uid="{070E815B-C563-4496-B0CB-764E9ACEB327}"/>
+    <hyperlink ref="E122" r:id="rId147" display="אלנג'ח באל עמל" xr:uid="{7EB6997D-355A-4553-8811-CED44350F56E}"/>
+    <hyperlink ref="E123" r:id="rId148" xr:uid="{F159EFE3-6343-4799-9477-43B3D4807239}"/>
+    <hyperlink ref="E124" r:id="rId149" xr:uid="{B32458EF-6C7C-4DCF-8F2B-0628D25849FA}"/>
+    <hyperlink ref="E125" r:id="rId150" xr:uid="{9996128A-48B8-4552-BD25-55676B605DB4}"/>
+    <hyperlink ref="E126" r:id="rId151" xr:uid="{BA6A641D-43BA-4D80-8547-C8B178042C92}"/>
+    <hyperlink ref="E127" r:id="rId152" xr:uid="{02224005-1ACC-4D1B-AEB1-E8F5152DAB54}"/>
+    <hyperlink ref="E128" r:id="rId153" xr:uid="{51A53AFB-62E7-4541-A16B-072A8C3E26E0}"/>
+    <hyperlink ref="E129" r:id="rId154" xr:uid="{7699A92A-E2E5-45DE-B95F-465FDB1B0291}"/>
+    <hyperlink ref="E130" r:id="rId155" xr:uid="{1563E796-F12A-4EAB-B115-F2C0FC427FF1}"/>
+    <hyperlink ref="E131" r:id="rId156" xr:uid="{0F7E329E-5CF4-41D6-9345-AD8C3AB7F1EE}"/>
+    <hyperlink ref="E132" r:id="rId157" xr:uid="{395D7C15-79DB-4E23-867A-53B3AAA20DE9}"/>
+    <hyperlink ref="E142" r:id="rId158" xr:uid="{D66A2BE6-78CE-4F12-8B78-54DD0796DA62}"/>
+    <hyperlink ref="E143" r:id="rId159" xr:uid="{844FE30C-E12A-453F-8D09-9463CBF3434A}"/>
+    <hyperlink ref="E139" r:id="rId160" xr:uid="{F7D05626-5D47-4908-BEF2-B82AE2886FAC}"/>
+    <hyperlink ref="E144" r:id="rId161" xr:uid="{48F85CAC-1D42-4405-8212-B1083AA7FF8F}"/>
+    <hyperlink ref="E140" r:id="rId162" xr:uid="{AD9C149E-619F-4306-A511-FADE4FE1D0EE}"/>
+    <hyperlink ref="E141" r:id="rId163" xr:uid="{5BE287AE-467B-4EE5-9083-E38AAA90D6E7}"/>
+    <hyperlink ref="E134" r:id="rId164" xr:uid="{F92DFEA9-8A94-4599-84CD-6DBCD24822FD}"/>
+    <hyperlink ref="E136" r:id="rId165" xr:uid="{19B476EF-410F-46BD-91A2-9C3C84C30A57}"/>
+    <hyperlink ref="E137" r:id="rId166" xr:uid="{88E0035F-4463-4807-A632-DF021923F699}"/>
+    <hyperlink ref="E138" r:id="rId167" xr:uid="{1CD295DE-E425-4870-81C5-8500E8218012}"/>
+    <hyperlink ref="E135" r:id="rId168" xr:uid="{FA9C9FDB-E223-4BF3-9701-FC6AA41F6EBC}"/>
+    <hyperlink ref="E101" r:id="rId169" xr:uid="{80B2F819-FB6D-49DD-BE11-0D512B6C38AF}"/>
+    <hyperlink ref="E102" r:id="rId170" xr:uid="{1DAD4E5B-E6D2-4648-9810-926E3DA8DC65}"/>
+    <hyperlink ref="E103" r:id="rId171" xr:uid="{5B3766C6-53DB-432B-846A-EB9FB81B1C2C}"/>
+    <hyperlink ref="E104" r:id="rId172" xr:uid="{03A41EF8-2BC8-4F46-B601-CFCA9531D85A}"/>
+    <hyperlink ref="E105" r:id="rId173" xr:uid="{0DD3A72E-DFD0-4368-B61A-004BFB7E7C76}"/>
+    <hyperlink ref="E106" r:id="rId174" xr:uid="{ED9593D9-1252-4CA4-887F-044E3D0DFF48}"/>
+    <hyperlink ref="E280" r:id="rId175" xr:uid="{3795D2C5-CC4C-416C-97F0-CA5405C22AB8}"/>
+    <hyperlink ref="E281" r:id="rId176" xr:uid="{09E22359-7477-4CAD-B2E3-8CACD09ADAE2}"/>
+    <hyperlink ref="E282" r:id="rId177" xr:uid="{1F7341C7-2DC4-4F90-8063-4AA5929C1EC9}"/>
+    <hyperlink ref="E100" r:id="rId178" xr:uid="{ECCECE49-CD39-4051-A712-5C042D81C90A}"/>
+    <hyperlink ref="E99" r:id="rId179" xr:uid="{9B1F8933-4232-450A-AA0D-F7FE6C8EAC52}"/>
+    <hyperlink ref="E98" r:id="rId180" xr:uid="{3E48AF94-B950-493B-BE89-A9ACAB5C3A44}"/>
+    <hyperlink ref="E97" r:id="rId181" xr:uid="{83B93870-8179-4FBD-92CF-033955A36208}"/>
+    <hyperlink ref="E96" r:id="rId182" xr:uid="{C13E91E6-65E9-4080-8BE0-9D2F2BF4177B}"/>
+    <hyperlink ref="E95" r:id="rId183" xr:uid="{2358D303-B66D-49AE-A4DA-E2EDBB9614A6}"/>
+    <hyperlink ref="E61" r:id="rId184" xr:uid="{326035B2-EC1F-43FD-8CA4-F3698F0634B1}"/>
+    <hyperlink ref="E62" r:id="rId185" xr:uid="{1D490AA6-411A-40D0-877B-BDDDDFA8B270}"/>
+    <hyperlink ref="E63" r:id="rId186" xr:uid="{5716ED45-294C-4100-9189-B57F73A0A99F}"/>
+    <hyperlink ref="E64" r:id="rId187" xr:uid="{E652122C-AD9E-4ED3-A37F-3164A0CEB75E}"/>
+    <hyperlink ref="E66" r:id="rId188" xr:uid="{4C5AF90C-1A3C-4F66-8E79-37F5727332FC}"/>
+    <hyperlink ref="E65" r:id="rId189" xr:uid="{193F0C95-848C-4900-8342-1265CC9CDB4E}"/>
+    <hyperlink ref="E67" r:id="rId190" xr:uid="{64A57A16-5F1F-4FCC-9C6F-8806A77EE41F}"/>
+    <hyperlink ref="E68" r:id="rId191" xr:uid="{A2F9E549-C3CB-421F-B5F6-8152092607A3}"/>
+    <hyperlink ref="E69" r:id="rId192" xr:uid="{7653BCD8-7065-4F6B-82B4-8F9A3ECBFCAE}"/>
+    <hyperlink ref="E70" r:id="rId193" xr:uid="{B6019EAD-35A4-426A-8D07-C06F02C0B747}"/>
+    <hyperlink ref="E71" r:id="rId194" xr:uid="{CED5C87D-2797-45EE-AD30-93772463D49B}"/>
+    <hyperlink ref="E72" r:id="rId195" xr:uid="{A5559B20-319C-440D-B205-0738A5C6296C}"/>
+    <hyperlink ref="E73" r:id="rId196" xr:uid="{A4AFEF3F-294C-40DC-BAF9-C4556D9AA3F4}"/>
+    <hyperlink ref="E74" r:id="rId197" xr:uid="{EFCF8E11-ADBD-4F31-B76D-6DA5B6CBD11F}"/>
+    <hyperlink ref="E75" r:id="rId198" xr:uid="{153414DB-2409-4FCA-86FF-2BABB370F23B}"/>
+    <hyperlink ref="E77" r:id="rId199" xr:uid="{5B156FDD-1393-436F-82D6-5265149BCDF8}"/>
+    <hyperlink ref="E78" r:id="rId200" xr:uid="{97A88047-1552-44F3-B158-DCB45144C7BD}"/>
+    <hyperlink ref="E79" r:id="rId201" xr:uid="{4C7035A6-BE7D-417D-A384-1B430C9C78E7}"/>
+    <hyperlink ref="E80" r:id="rId202" xr:uid="{15B662F0-4739-4DA6-9B45-39E31B19D07B}"/>
+    <hyperlink ref="E93" r:id="rId203" xr:uid="{7724B1AB-444A-4596-A90E-05A5D71E1344}"/>
+    <hyperlink ref="E92" r:id="rId204" xr:uid="{B04AA91E-DE1C-4B89-AECD-70F490AAF3E0}"/>
+    <hyperlink ref="E91" r:id="rId205" xr:uid="{94C2B272-3D7E-4CDA-96D2-6E9D111D858D}"/>
+    <hyperlink ref="E90" r:id="rId206" xr:uid="{59DF3DB1-5A9B-4715-8710-8787347A2120}"/>
+    <hyperlink ref="E89" r:id="rId207" xr:uid="{AC6DD1A6-B1E8-4EC2-BBCE-5CFB20CAA339}"/>
+    <hyperlink ref="E88" r:id="rId208" xr:uid="{805CF71E-5ECB-4125-AA53-38A51A687396}"/>
+    <hyperlink ref="E87" r:id="rId209" xr:uid="{FE9034D5-CC8C-465E-9168-691571FF1575}"/>
+    <hyperlink ref="E86" r:id="rId210" xr:uid="{87C509AA-802C-4E1D-BB04-AA74937BA18C}"/>
+    <hyperlink ref="E85" r:id="rId211" xr:uid="{0C0D525D-691C-4F5A-ABDA-EA3E78182E94}"/>
+    <hyperlink ref="E84" r:id="rId212" xr:uid="{82832DFE-4296-4978-9CC0-17B0C73B2DD9}"/>
+    <hyperlink ref="E83" r:id="rId213" xr:uid="{140D6A50-B79A-4C53-83AD-42BE7E2C137A}"/>
+    <hyperlink ref="E82" r:id="rId214" xr:uid="{EE82384B-5243-4056-B442-277EB3F93FF3}"/>
+    <hyperlink ref="E81" r:id="rId215" display="פִר חִ'בְּזַכּ בִּאלְשַט עַקַבּ אַלְף סַנ9ה תְשוֳפוּ فر خبزك بالشط عقب الف سنه تشوفو" xr:uid="{D89CBCE6-EF3B-4BF2-945C-5BCEC8E6467D}"/>
+    <hyperlink ref="E76" r:id="rId216" xr:uid="{9CD9F238-4923-43F7-86D0-3B020049C37E}"/>
+    <hyperlink ref="E60" r:id="rId217" xr:uid="{954F10B9-A5C5-43AB-A850-9CE00B92747E}"/>
+    <hyperlink ref="E59" r:id="rId218" xr:uid="{13D9CC5E-0F6B-4DC2-B58C-9F6E089E7F33}"/>
+    <hyperlink ref="E58" r:id="rId219" xr:uid="{F3D04F29-53A4-411F-A58B-57A8EADC1610}"/>
+    <hyperlink ref="E57" r:id="rId220" display="לא מִן חֵ'יע'וּ וַלָא מִן שֵע'וּ" xr:uid="{445390E9-FD8C-44A6-92BD-8684BF88BDDC}"/>
+    <hyperlink ref="E56" r:id="rId221" xr:uid="{ECF05B3D-EC4A-4A66-A3D7-100C397059DD}"/>
+    <hyperlink ref="E55" r:id="rId222" xr:uid="{82EF8C9E-6D6D-4958-86FB-05E558727FEB}"/>
+    <hyperlink ref="E54" r:id="rId223" xr:uid="{DB079185-BF74-4822-81A5-F5B9F6AD5614}"/>
+    <hyperlink ref="E53" r:id="rId224" xr:uid="{745DBE7C-657C-4AFD-BD9E-FE83D90F1FA9}"/>
+    <hyperlink ref="E52" r:id="rId225" xr:uid="{2415EFC1-C883-4CFF-B682-8CF2892D6BD9}"/>
+    <hyperlink ref="E51" r:id="rId226" xr:uid="{BF33182C-8397-4E9B-9740-69738142DA2B}"/>
+    <hyperlink ref="E49" r:id="rId227" display="https://www.facebook.com/groups/742470139214981/permalink/1538833692911951/" xr:uid="{EAA34C81-B27D-45E0-9D91-35F47F9F8F6B}"/>
+    <hyperlink ref="E48" r:id="rId228" xr:uid="{AEA4AE45-87E7-4132-B203-60C195FD5C07}"/>
+    <hyperlink ref="E47" r:id="rId229" display="https://www.facebook.com/groups/zahavb/permalink/1057727710934216/" xr:uid="{880D6AA9-7A99-4FFF-9AF7-24ABDFFEFD40}"/>
+    <hyperlink ref="E50" r:id="rId230" xr:uid="{380409D4-9D65-4519-BD4E-91487E6772E9}"/>
+    <hyperlink ref="E46" r:id="rId231" xr:uid="{96365362-BCA5-4DB1-87DB-B073DC5CCA81}"/>
+    <hyperlink ref="E45" r:id="rId232" xr:uid="{FDC05AF1-FDED-4DCD-A779-A614148E61A8}"/>
+    <hyperlink ref="E44" r:id="rId233" xr:uid="{2EC22809-E9F6-4CF2-85C7-9F970D788F02}"/>
+    <hyperlink ref="E43" r:id="rId234" xr:uid="{7E78792F-8B8F-4208-9E8F-64ED8F9A204C}"/>
+    <hyperlink ref="E42" r:id="rId235" xr:uid="{38B3253C-0025-426B-9741-9314D0C6C5EF}"/>
+    <hyperlink ref="E41" r:id="rId236" xr:uid="{77E57B92-DD40-405D-9100-ED9B6ACB3241}"/>
+    <hyperlink ref="E40" r:id="rId237" xr:uid="{1F4C6887-BC1C-4557-B0F6-2E2C2EEDF7B5}"/>
+    <hyperlink ref="E39" r:id="rId238" xr:uid="{55420786-459D-4384-9CF6-436E04930CCE}"/>
+    <hyperlink ref="E38" r:id="rId239" xr:uid="{B3A35D43-C9A4-4E5A-A870-A7E2BCF50C5E}"/>
+    <hyperlink ref="E36" r:id="rId240" xr:uid="{4C7B4F3B-E7E8-42D7-9E22-BA6FA6D7E2D2}"/>
+    <hyperlink ref="E35" r:id="rId241" xr:uid="{FC06BD5B-476A-4E02-BFF1-70FE909DC760}"/>
+    <hyperlink ref="E34" r:id="rId242" xr:uid="{AFE03C17-78DB-4A1C-8AE6-48D675C4BA31}"/>
+    <hyperlink ref="E33" r:id="rId243" xr:uid="{91D8CD69-ABE1-40A6-8035-749B4342A471}"/>
+    <hyperlink ref="E37" r:id="rId244" xr:uid="{B5F2D201-33A4-46E6-8F6E-6D1451D4E423}"/>
+    <hyperlink ref="E32" r:id="rId245" xr:uid="{D8FB5A71-FC3A-4A7B-ACB3-3E43BA60B077}"/>
+    <hyperlink ref="E31" r:id="rId246" xr:uid="{7D4A058C-8353-4A75-9481-D12C5F04C954}"/>
+    <hyperlink ref="E30" r:id="rId247" xr:uid="{A126FEF3-0098-4DBE-9421-AA1B609D3AA2}"/>
+    <hyperlink ref="E29" r:id="rId248" xr:uid="{F428D037-9789-431D-834E-E86B07025CF8}"/>
+    <hyperlink ref="E28" r:id="rId249" xr:uid="{F3D1E977-9A00-4673-87DE-5EAA6634F4B0}"/>
+    <hyperlink ref="E27" r:id="rId250" xr:uid="{CC2C60E5-BBFE-47AB-A4C5-75F3B5E1B15B}"/>
+    <hyperlink ref="E26" r:id="rId251" xr:uid="{4680B538-C4F5-432B-9B5A-2520B41FCF87}"/>
+    <hyperlink ref="E25" r:id="rId252" xr:uid="{AF6331E9-ADB1-478E-9ED5-6B2162FDFCCE}"/>
+    <hyperlink ref="E24" r:id="rId253" xr:uid="{01D3B00B-1D46-419D-8B5E-113D5EFD502A}"/>
+    <hyperlink ref="E23" r:id="rId254" xr:uid="{203827FC-E251-4C81-ADED-9EFDD8E0EF47}"/>
+    <hyperlink ref="E22" r:id="rId255" xr:uid="{90B0C1E9-B1BF-41D9-9C35-89D23A43849D}"/>
+    <hyperlink ref="E21" r:id="rId256" xr:uid="{0050E3D3-5D0D-4819-8463-6DFC8D0EC41E}"/>
+    <hyperlink ref="E20" r:id="rId257" xr:uid="{BF08AA46-19D9-42D4-BA76-D6AD312B4C1B}"/>
+    <hyperlink ref="E19" r:id="rId258" xr:uid="{2443DC9C-C07F-4F69-BD24-12958542FFCC}"/>
+    <hyperlink ref="E18" r:id="rId259" xr:uid="{F3D6BD92-F397-4F87-A908-291D97AD8547}"/>
+    <hyperlink ref="E17" r:id="rId260" xr:uid="{EBC79712-DD50-44F4-9B9C-0556B34FE58F}"/>
+    <hyperlink ref="E16" r:id="rId261" xr:uid="{8AF37940-B14C-4D7D-AAD8-2EAA2529FDEF}"/>
+    <hyperlink ref="E15" r:id="rId262" xr:uid="{42C65E19-D9CC-4D85-B6C4-CC0CC73A183F}"/>
+    <hyperlink ref="E14" r:id="rId263" xr:uid="{A4E8D34B-6293-41C8-83BF-16E14282CB6D}"/>
+    <hyperlink ref="E13" r:id="rId264" xr:uid="{C2C44451-0066-4A47-867C-2048640D849F}"/>
+    <hyperlink ref="E12" r:id="rId265" xr:uid="{060CE5D8-57D5-4EDD-8E9A-16165553A95C}"/>
+    <hyperlink ref="E11" r:id="rId266" xr:uid="{AB480237-A977-4AA2-9C49-445CBE724B6F}"/>
+    <hyperlink ref="E10" r:id="rId267" xr:uid="{3A1C6D2E-E1D6-46E7-98D3-10444472336F}"/>
+    <hyperlink ref="E9" r:id="rId268" xr:uid="{A5E9F5B6-A6F6-45C1-9DE7-CA9FF750DDA9}"/>
+    <hyperlink ref="E8" r:id="rId269" xr:uid="{96EE0ABC-38AF-4D90-A7D3-7AE85A9D8FB2}"/>
+    <hyperlink ref="E7" r:id="rId270" xr:uid="{CF777344-3DBE-4303-98BB-0682C48C55EC}"/>
+    <hyperlink ref="E6" r:id="rId271" xr:uid="{15945511-6653-4D1F-ACD2-C97B6443D8FB}"/>
+    <hyperlink ref="E5" r:id="rId272" xr:uid="{5D60B08F-510E-44EC-92BB-5EB0B04D9773}"/>
+    <hyperlink ref="E4" r:id="rId273" xr:uid="{6C5600CD-014A-4111-B60D-AD4618B84181}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId273"/>
-  <legacyDrawing r:id="rId274"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId274"/>
+  <legacyDrawing r:id="rId275"/>
 </worksheet>
 </file>
 
@@ -14550,10 +14604,10 @@
       <c r="C35" s="33" t="s">
         <v>422</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="63" t="s">
         <v>423</v>
       </c>
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="63" t="s">
         <v>424</v>
       </c>
     </row>
@@ -14565,8 +14619,8 @@
         <v>421</v>
       </c>
       <c r="C36" s="33"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
@@ -14623,10 +14677,10 @@
       <c r="C40" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="D40" s="63" t="s">
+      <c r="D40" s="65" t="s">
         <v>437</v>
       </c>
-      <c r="E40" s="63" t="s">
+      <c r="E40" s="65" t="s">
         <v>438</v>
       </c>
     </row>
@@ -14640,8 +14694,8 @@
       <c r="C41" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
